--- a/project/Python/yilaitong/郑州所有商家.xlsx
+++ b/project/Python/yilaitong/郑州所有商家.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="750">
   <si>
     <t>华铭通讯</t>
   </si>
@@ -60,12 +60,6 @@
     <t>1B12</t>
   </si>
   <si>
-    <t>方圆通讯</t>
-  </si>
-  <si>
-    <t>1B13</t>
-  </si>
-  <si>
     <t>兄弟连锁</t>
   </si>
   <si>
@@ -108,9 +102,18 @@
     <t>1B24</t>
   </si>
   <si>
+    <t>宏鑫通讯</t>
+  </si>
+  <si>
     <t>1B25</t>
   </si>
   <si>
+    <t>红兴通讯</t>
+  </si>
+  <si>
+    <t>1B26</t>
+  </si>
+  <si>
     <t>隆鑫通讯</t>
   </si>
   <si>
@@ -141,307 +144,304 @@
     <t>1B31</t>
   </si>
   <si>
+    <t>威龙通讯</t>
+  </si>
+  <si>
+    <t>1B38</t>
+  </si>
+  <si>
+    <t>光耀通讯</t>
+  </si>
+  <si>
+    <t>1C01</t>
+  </si>
+  <si>
+    <t>新业通讯</t>
+  </si>
+  <si>
+    <t>1C02</t>
+  </si>
+  <si>
+    <t>汇海源</t>
+  </si>
+  <si>
+    <t>1C03</t>
+  </si>
+  <si>
+    <t>鼎好通讯</t>
+  </si>
+  <si>
+    <t>1C08</t>
+  </si>
+  <si>
+    <t>源升科技</t>
+  </si>
+  <si>
+    <t>1C10</t>
+  </si>
+  <si>
+    <t>东利通讯</t>
+  </si>
+  <si>
+    <t>1C11</t>
+  </si>
+  <si>
+    <t>联诚通讯</t>
+  </si>
+  <si>
+    <t>1C12</t>
+  </si>
+  <si>
+    <t>鸿润通讯</t>
+  </si>
+  <si>
+    <t>1C13</t>
+  </si>
+  <si>
+    <t>1C14</t>
+  </si>
+  <si>
+    <t>惠鑫通讯</t>
+  </si>
+  <si>
+    <t>1C18</t>
+  </si>
+  <si>
+    <t>蜂星通讯</t>
+  </si>
+  <si>
+    <t>1C19</t>
+  </si>
+  <si>
+    <t>腾达通讯</t>
+  </si>
+  <si>
+    <t>1C20</t>
+  </si>
+  <si>
+    <t>腾飞通讯</t>
+  </si>
+  <si>
+    <t>1C21</t>
+  </si>
+  <si>
+    <t>蝶变商城</t>
+  </si>
+  <si>
+    <t>1C22</t>
+  </si>
+  <si>
+    <t>新时代</t>
+  </si>
+  <si>
+    <t>1C23</t>
+  </si>
+  <si>
+    <t>高朋通讯</t>
+  </si>
+  <si>
+    <t>1C24</t>
+  </si>
+  <si>
+    <t>星宇通讯</t>
+  </si>
+  <si>
+    <t>1C25</t>
+  </si>
+  <si>
+    <t>巨龙通讯</t>
+  </si>
+  <si>
+    <t>1C26</t>
+  </si>
+  <si>
+    <t>杰达通讯</t>
+  </si>
+  <si>
+    <t>1C27</t>
+  </si>
+  <si>
+    <t>坤泰通讯</t>
+  </si>
+  <si>
+    <t>1C28</t>
+  </si>
+  <si>
+    <t>亚昌科技</t>
+  </si>
+  <si>
+    <t>1C31</t>
+  </si>
+  <si>
+    <t>荣耀通讯</t>
+  </si>
+  <si>
+    <t>1C32</t>
+  </si>
+  <si>
+    <t>汇想通讯</t>
+  </si>
+  <si>
+    <t>1C33</t>
+  </si>
+  <si>
+    <t>万丰通讯</t>
+  </si>
+  <si>
+    <t>1C34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 勤之丰</t>
+  </si>
+  <si>
+    <t>1C35</t>
+  </si>
+  <si>
+    <t>昌盛通讯</t>
+  </si>
+  <si>
+    <t>1C35A</t>
+  </si>
+  <si>
+    <t>海星通讯</t>
+  </si>
+  <si>
+    <t>1C36</t>
+  </si>
+  <si>
+    <t>新华电讯</t>
+  </si>
+  <si>
+    <t>1C37</t>
+  </si>
+  <si>
+    <t>宏海通讯</t>
+  </si>
+  <si>
+    <t>1D03</t>
+  </si>
+  <si>
+    <t>神马通讯</t>
+  </si>
+  <si>
+    <t>1D04,05,06</t>
+  </si>
+  <si>
+    <t>蓝天通讯</t>
+  </si>
+  <si>
+    <t>1D08</t>
+  </si>
+  <si>
+    <t>顺城通讯</t>
+  </si>
+  <si>
+    <t>1D09</t>
+  </si>
+  <si>
+    <t>永利通讯</t>
+  </si>
+  <si>
+    <t>1D10</t>
+  </si>
+  <si>
+    <t>鼎泰丰</t>
+  </si>
+  <si>
+    <t>1D11</t>
+  </si>
+  <si>
+    <t>鑫程通讯</t>
+  </si>
+  <si>
+    <t>1D12</t>
+  </si>
+  <si>
+    <t>丰凯通讯</t>
+  </si>
+  <si>
+    <t>1D13华为</t>
+  </si>
+  <si>
+    <t>1D13小米</t>
+  </si>
+  <si>
+    <t>昊天通讯</t>
+  </si>
+  <si>
+    <t>1D15</t>
+  </si>
+  <si>
+    <t>成泰通讯</t>
+  </si>
+  <si>
+    <t>1D15A</t>
+  </si>
+  <si>
+    <t>文峥通讯</t>
+  </si>
+  <si>
+    <t>1D16</t>
+  </si>
+  <si>
+    <t>赤城通讯</t>
+  </si>
+  <si>
+    <t>1D19</t>
+  </si>
+  <si>
+    <t>美联电子</t>
+  </si>
+  <si>
+    <t>1D21</t>
+  </si>
+  <si>
+    <t>华宏通讯</t>
+  </si>
+  <si>
+    <t>1D22</t>
+  </si>
+  <si>
+    <t>一鸣通讯</t>
+  </si>
+  <si>
+    <t>1D23</t>
+  </si>
+  <si>
+    <t>福聚鑫</t>
+  </si>
+  <si>
+    <t>1D24</t>
+  </si>
+  <si>
+    <t>盛祥通讯</t>
+  </si>
+  <si>
+    <t>1D25</t>
+  </si>
+  <si>
+    <t>盛龙通讯</t>
+  </si>
+  <si>
+    <t>1D27</t>
+  </si>
+  <si>
+    <t>四方通讯</t>
+  </si>
+  <si>
+    <t>1D28</t>
+  </si>
+  <si>
+    <t>亚光商贸</t>
+  </si>
+  <si>
+    <t>1D31</t>
+  </si>
+  <si>
     <t>风行通讯</t>
   </si>
   <si>
-    <t>1B34</t>
-  </si>
-  <si>
-    <t>威龙通讯</t>
-  </si>
-  <si>
-    <t>1B38</t>
-  </si>
-  <si>
-    <t>光耀通讯</t>
-  </si>
-  <si>
-    <t>1C01</t>
-  </si>
-  <si>
-    <t>新业通讯</t>
-  </si>
-  <si>
-    <t>1C02</t>
-  </si>
-  <si>
-    <t>汇海源</t>
-  </si>
-  <si>
-    <t>1C03</t>
-  </si>
-  <si>
-    <t>鼎好通讯</t>
-  </si>
-  <si>
-    <t>1C08</t>
-  </si>
-  <si>
-    <t>源升科技</t>
-  </si>
-  <si>
-    <t>1C10</t>
-  </si>
-  <si>
-    <t>东利通讯</t>
-  </si>
-  <si>
-    <t>1C11</t>
-  </si>
-  <si>
-    <t>联诚通讯</t>
-  </si>
-  <si>
-    <t>1C12</t>
-  </si>
-  <si>
-    <t>鸿润通讯</t>
-  </si>
-  <si>
-    <t>1C13</t>
-  </si>
-  <si>
-    <t>吉龙东方</t>
-  </si>
-  <si>
-    <t>1C14</t>
-  </si>
-  <si>
-    <t>惠鑫通讯</t>
-  </si>
-  <si>
-    <t>1C18</t>
-  </si>
-  <si>
-    <t>华悦通讯</t>
-  </si>
-  <si>
-    <t>1C19</t>
-  </si>
-  <si>
-    <t>腾达通讯</t>
-  </si>
-  <si>
-    <t>1C20</t>
-  </si>
-  <si>
-    <t>腾飞通讯</t>
-  </si>
-  <si>
-    <t>1C21</t>
-  </si>
-  <si>
-    <t>蝶变商城</t>
-  </si>
-  <si>
-    <t>1C22</t>
-  </si>
-  <si>
-    <t>新时代</t>
-  </si>
-  <si>
-    <t>1C23</t>
-  </si>
-  <si>
-    <t>高朋通讯</t>
-  </si>
-  <si>
-    <t>1C24</t>
-  </si>
-  <si>
-    <t>星宇通讯</t>
-  </si>
-  <si>
-    <t>1C25</t>
-  </si>
-  <si>
-    <t>巨龙通讯</t>
-  </si>
-  <si>
-    <t>1C26</t>
-  </si>
-  <si>
-    <t>杰达通讯</t>
-  </si>
-  <si>
-    <t>1C27</t>
-  </si>
-  <si>
-    <t>坤泰通讯</t>
-  </si>
-  <si>
-    <t>1C28</t>
-  </si>
-  <si>
-    <t>亚昌科技</t>
-  </si>
-  <si>
-    <t>1C31</t>
-  </si>
-  <si>
-    <t>荣耀通讯</t>
-  </si>
-  <si>
-    <t>1C32</t>
-  </si>
-  <si>
-    <t>汇想通讯</t>
-  </si>
-  <si>
-    <t>1C33</t>
-  </si>
-  <si>
-    <t>万丰通讯</t>
-  </si>
-  <si>
-    <t>1C34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 勤之丰</t>
-  </si>
-  <si>
-    <t>1C35</t>
-  </si>
-  <si>
-    <t>昌盛通讯</t>
-  </si>
-  <si>
-    <t>1C35A</t>
-  </si>
-  <si>
-    <t>海星通讯</t>
-  </si>
-  <si>
-    <t>1C36</t>
-  </si>
-  <si>
-    <t>新华电讯</t>
-  </si>
-  <si>
-    <t>1C37</t>
-  </si>
-  <si>
-    <t>宏海通讯</t>
-  </si>
-  <si>
-    <t>1D03</t>
-  </si>
-  <si>
-    <t>神马通讯</t>
-  </si>
-  <si>
-    <t>1D04,05,06</t>
-  </si>
-  <si>
-    <t>蓝天通讯</t>
-  </si>
-  <si>
-    <t>1D08</t>
-  </si>
-  <si>
-    <t>顺城通讯</t>
-  </si>
-  <si>
-    <t>1D09</t>
-  </si>
-  <si>
-    <t>永利通讯</t>
-  </si>
-  <si>
-    <t>1D10</t>
-  </si>
-  <si>
-    <t>鼎泰丰</t>
-  </si>
-  <si>
-    <t>1D11</t>
-  </si>
-  <si>
-    <t>鑫程通讯</t>
-  </si>
-  <si>
-    <t>1D12</t>
-  </si>
-  <si>
-    <t>丰凯通讯</t>
-  </si>
-  <si>
-    <t>1D13华为</t>
-  </si>
-  <si>
-    <t>1D13小米</t>
-  </si>
-  <si>
-    <t>昊天通讯</t>
-  </si>
-  <si>
-    <t>1D15</t>
-  </si>
-  <si>
-    <t>泉胜科技</t>
-  </si>
-  <si>
-    <t>1D15A</t>
-  </si>
-  <si>
-    <t>文峥通讯</t>
-  </si>
-  <si>
-    <t>1D16</t>
-  </si>
-  <si>
-    <t>赤城通讯</t>
-  </si>
-  <si>
-    <t>1D19</t>
-  </si>
-  <si>
-    <t>美联电子</t>
-  </si>
-  <si>
-    <t>1D21</t>
-  </si>
-  <si>
-    <t>华宏通讯</t>
-  </si>
-  <si>
-    <t>1D22</t>
-  </si>
-  <si>
-    <t>一鸣通讯</t>
-  </si>
-  <si>
-    <t>1D23</t>
-  </si>
-  <si>
-    <t>福聚鑫</t>
-  </si>
-  <si>
-    <t>1D24</t>
-  </si>
-  <si>
-    <t>盛祥通讯</t>
-  </si>
-  <si>
-    <t>1D25</t>
-  </si>
-  <si>
-    <t>盛龙通讯</t>
-  </si>
-  <si>
-    <t>1D27</t>
-  </si>
-  <si>
-    <t>四方通讯</t>
-  </si>
-  <si>
-    <t>1D28</t>
-  </si>
-  <si>
-    <t>亚光商贸</t>
-  </si>
-  <si>
-    <t>1D31</t>
+    <t>1D33</t>
   </si>
   <si>
     <t>万杰通讯</t>
@@ -609,631 +609,652 @@
     <t>2A28</t>
   </si>
   <si>
+    <t>飞州时代</t>
+  </si>
+  <si>
+    <t>2A30</t>
+  </si>
+  <si>
+    <t>亿新通讯</t>
+  </si>
+  <si>
+    <t>2A32</t>
+  </si>
+  <si>
+    <t>北方通讯</t>
+  </si>
+  <si>
+    <t>2A34</t>
+  </si>
+  <si>
+    <t>兴泰科技</t>
+  </si>
+  <si>
+    <t>2A35</t>
+  </si>
+  <si>
+    <t>国瑞通讯</t>
+  </si>
+  <si>
+    <t>2A36</t>
+  </si>
+  <si>
+    <t>五星科技</t>
+  </si>
+  <si>
+    <t>2A37</t>
+  </si>
+  <si>
+    <t>顺风通讯</t>
+  </si>
+  <si>
+    <t>2A38</t>
+  </si>
+  <si>
+    <t>宏宇通讯</t>
+  </si>
+  <si>
+    <t>2A40</t>
+  </si>
+  <si>
+    <t>飞天通讯</t>
+  </si>
+  <si>
+    <t>2A40A</t>
+  </si>
+  <si>
+    <t>中圣通讯</t>
+  </si>
+  <si>
+    <t>2A41</t>
+  </si>
+  <si>
+    <t>新龙威</t>
+  </si>
+  <si>
+    <t>2A42</t>
+  </si>
+  <si>
+    <t>聚翼通</t>
+  </si>
+  <si>
+    <t>2A43</t>
+  </si>
+  <si>
+    <t>金阳光</t>
+  </si>
+  <si>
+    <t>2A44</t>
+  </si>
+  <si>
+    <t>豫洲通讯</t>
+  </si>
+  <si>
+    <t>2A45</t>
+  </si>
+  <si>
+    <t>正兴通讯</t>
+  </si>
+  <si>
+    <t>2A46</t>
+  </si>
+  <si>
+    <t>誉达科贸</t>
+  </si>
+  <si>
+    <t>2A47</t>
+  </si>
+  <si>
+    <t>黎纳通讯</t>
+  </si>
+  <si>
+    <t>2A48</t>
+  </si>
+  <si>
+    <t>诚毅电子</t>
+  </si>
+  <si>
+    <t>2A49</t>
+  </si>
+  <si>
+    <t>创新时代</t>
+  </si>
+  <si>
+    <t>2A50</t>
+  </si>
+  <si>
+    <t>威铭通讯</t>
+  </si>
+  <si>
+    <t>2A51</t>
+  </si>
+  <si>
+    <t>揽日通讯</t>
+  </si>
+  <si>
+    <t>2A52</t>
+  </si>
+  <si>
+    <t>誉佳通讯</t>
+  </si>
+  <si>
+    <t>2A53</t>
+  </si>
+  <si>
+    <t>霖鑫通讯</t>
+  </si>
+  <si>
+    <t>2A54</t>
+  </si>
+  <si>
+    <t>乐信通讯</t>
+  </si>
+  <si>
+    <t>2B02</t>
+  </si>
+  <si>
+    <t>弘博商贸</t>
+  </si>
+  <si>
+    <t>2B03</t>
+  </si>
+  <si>
+    <t>润杰通讯</t>
+  </si>
+  <si>
+    <t>2B05</t>
+  </si>
+  <si>
+    <t>众宏通讯</t>
+  </si>
+  <si>
+    <t>2B07</t>
+  </si>
+  <si>
+    <t>安东通讯</t>
+  </si>
+  <si>
+    <t>2B08</t>
+  </si>
+  <si>
+    <t>汇金通讯</t>
+  </si>
+  <si>
+    <t>2B09</t>
+  </si>
+  <si>
+    <t>万达通讯</t>
+  </si>
+  <si>
+    <t>2B10</t>
+  </si>
+  <si>
+    <t>科贸通讯</t>
+  </si>
+  <si>
+    <t>2B12</t>
+  </si>
+  <si>
+    <t>天宇通讯</t>
+  </si>
+  <si>
+    <t>2B13</t>
+  </si>
+  <si>
     <t>三鑫通讯</t>
   </si>
   <si>
-    <t>2A29</t>
-  </si>
-  <si>
-    <t>飞州时代</t>
-  </si>
-  <si>
-    <t>2A30</t>
+    <t>2B14</t>
+  </si>
+  <si>
+    <t>华尚通讯</t>
+  </si>
+  <si>
+    <t>2B15-16</t>
+  </si>
+  <si>
+    <t>骆驼通讯</t>
+  </si>
+  <si>
+    <t>2B17</t>
   </si>
   <si>
     <t>华厦通讯</t>
   </si>
   <si>
-    <t>2A31</t>
-  </si>
-  <si>
-    <t>亿新通讯</t>
-  </si>
-  <si>
-    <t>2A32</t>
-  </si>
-  <si>
-    <t>北方通讯</t>
-  </si>
-  <si>
-    <t>2A34</t>
-  </si>
-  <si>
-    <t>兴泰科技</t>
-  </si>
-  <si>
-    <t>2A35</t>
-  </si>
-  <si>
-    <t>国瑞通讯</t>
-  </si>
-  <si>
-    <t>2A36</t>
-  </si>
-  <si>
-    <t>五星科技</t>
-  </si>
-  <si>
-    <t>2A37</t>
-  </si>
-  <si>
-    <t>顺风通讯</t>
-  </si>
-  <si>
-    <t>2A38</t>
-  </si>
-  <si>
-    <t>宏宇通讯</t>
-  </si>
-  <si>
-    <t>2A40</t>
-  </si>
-  <si>
-    <t>飞天通讯</t>
-  </si>
-  <si>
-    <t>2A40A</t>
-  </si>
-  <si>
-    <t>中圣通讯</t>
-  </si>
-  <si>
-    <t>2A41</t>
-  </si>
-  <si>
-    <t>新龙威</t>
-  </si>
-  <si>
-    <t>2A42</t>
-  </si>
-  <si>
-    <t>聚翼通</t>
-  </si>
-  <si>
-    <t>2A43</t>
-  </si>
-  <si>
-    <t>金阳光</t>
-  </si>
-  <si>
-    <t>2A44</t>
-  </si>
-  <si>
-    <t>豫洲通讯</t>
-  </si>
-  <si>
-    <t>2A45</t>
-  </si>
-  <si>
-    <t>正兴通讯</t>
-  </si>
-  <si>
-    <t>2A46</t>
-  </si>
-  <si>
-    <t>誉达科贸</t>
-  </si>
-  <si>
-    <t>2A47</t>
-  </si>
-  <si>
-    <t>黎纳通讯</t>
-  </si>
-  <si>
-    <t>2A48</t>
-  </si>
-  <si>
-    <t>诚毅电子</t>
-  </si>
-  <si>
-    <t>2A49</t>
-  </si>
-  <si>
-    <t>创新时代</t>
-  </si>
-  <si>
-    <t>2A50</t>
-  </si>
-  <si>
-    <t>威铭通讯</t>
-  </si>
-  <si>
-    <t>2A51</t>
-  </si>
-  <si>
-    <t>揽日通讯</t>
-  </si>
-  <si>
-    <t>2A52</t>
-  </si>
-  <si>
-    <t>誉佳通讯</t>
-  </si>
-  <si>
-    <t>2A53</t>
-  </si>
-  <si>
-    <t>霖鑫通讯</t>
-  </si>
-  <si>
-    <t>2A54</t>
-  </si>
-  <si>
-    <t>先驱通讯</t>
-  </si>
-  <si>
-    <t>2B01</t>
-  </si>
-  <si>
-    <t>乐信通讯</t>
-  </si>
-  <si>
-    <t>2B02</t>
-  </si>
-  <si>
-    <t>弘博商贸</t>
-  </si>
-  <si>
-    <t>2B03</t>
-  </si>
-  <si>
-    <t>润杰通讯</t>
-  </si>
-  <si>
-    <t>2B05</t>
-  </si>
-  <si>
-    <t>众宏通讯</t>
-  </si>
-  <si>
-    <t>2B07</t>
-  </si>
-  <si>
-    <t>安东通讯</t>
-  </si>
-  <si>
-    <t>2B08</t>
-  </si>
-  <si>
-    <t>汇金通讯</t>
-  </si>
-  <si>
-    <t>2B09</t>
-  </si>
-  <si>
-    <t>万达通讯</t>
-  </si>
-  <si>
-    <t>2B10</t>
-  </si>
-  <si>
-    <t>科贸通讯</t>
-  </si>
-  <si>
-    <t>2B12</t>
-  </si>
-  <si>
-    <t>天宇通讯</t>
-  </si>
-  <si>
-    <t>2B13</t>
-  </si>
-  <si>
-    <t>华尚通讯</t>
-  </si>
-  <si>
-    <t>2B15-16</t>
-  </si>
-  <si>
-    <t>骆驼通讯</t>
-  </si>
-  <si>
-    <t>2B17</t>
+    <t>2B20</t>
+  </si>
+  <si>
+    <t>萌兴通讯</t>
+  </si>
+  <si>
+    <t>2B21</t>
+  </si>
+  <si>
+    <t>汇通通讯</t>
+  </si>
+  <si>
+    <t>2B22</t>
+  </si>
+  <si>
+    <t>谦和通讯</t>
+  </si>
+  <si>
+    <t>2B23</t>
+  </si>
+  <si>
+    <t>大唐通讯</t>
+  </si>
+  <si>
+    <t>2B24</t>
+  </si>
+  <si>
+    <t>红鑫通讯</t>
+  </si>
+  <si>
+    <t>2B27</t>
+  </si>
+  <si>
+    <t>通盛通讯</t>
+  </si>
+  <si>
+    <t>2B28</t>
+  </si>
+  <si>
+    <t>海峡通讯</t>
+  </si>
+  <si>
+    <t>2B28A</t>
+  </si>
+  <si>
+    <t>万亿通讯</t>
+  </si>
+  <si>
+    <t>2B30</t>
+  </si>
+  <si>
+    <t>腾翔通讯</t>
+  </si>
+  <si>
+    <t>2B31</t>
+  </si>
+  <si>
+    <t>亿诺通讯</t>
+  </si>
+  <si>
+    <t>2B32</t>
+  </si>
+  <si>
+    <t>世程通讯</t>
+  </si>
+  <si>
+    <t>2B33</t>
+  </si>
+  <si>
+    <t>飞越通讯</t>
+  </si>
+  <si>
+    <t>2B34</t>
+  </si>
+  <si>
+    <t>2B36</t>
+  </si>
+  <si>
+    <t>河南北方</t>
+  </si>
+  <si>
+    <t>2B37</t>
+  </si>
+  <si>
+    <t>鑫通胜</t>
+  </si>
+  <si>
+    <t>2B38</t>
+  </si>
+  <si>
+    <t>国翔通讯</t>
+  </si>
+  <si>
+    <t>2C02</t>
+  </si>
+  <si>
+    <t>超盛通讯</t>
+  </si>
+  <si>
+    <t>2C04</t>
+  </si>
+  <si>
+    <t>鑫凯格</t>
+  </si>
+  <si>
+    <t>2C06</t>
+  </si>
+  <si>
+    <t>郑州一达</t>
+  </si>
+  <si>
+    <t>2C07</t>
+  </si>
+  <si>
+    <t>波涛通讯</t>
+  </si>
+  <si>
+    <t>2C07A</t>
+  </si>
+  <si>
+    <t>松联通讯</t>
+  </si>
+  <si>
+    <t>2C08</t>
+  </si>
+  <si>
+    <t>东临通讯</t>
+  </si>
+  <si>
+    <t>2C08A</t>
+  </si>
+  <si>
+    <t>湘腾通讯</t>
+  </si>
+  <si>
+    <t>2C09</t>
+  </si>
+  <si>
+    <t>初心通讯</t>
+  </si>
+  <si>
+    <t>2C10</t>
+  </si>
+  <si>
+    <t>中发通讯</t>
+  </si>
+  <si>
+    <t>2C11A</t>
+  </si>
+  <si>
+    <t>顺发通讯</t>
+  </si>
+  <si>
+    <t>2C12</t>
+  </si>
+  <si>
+    <t>鲁豫通讯</t>
+  </si>
+  <si>
+    <t>2C13A</t>
+  </si>
+  <si>
+    <t>九洲通讯</t>
+  </si>
+  <si>
+    <t>2C13B</t>
+  </si>
+  <si>
+    <t>鸿之联</t>
+  </si>
+  <si>
+    <t>2C14</t>
+  </si>
+  <si>
+    <t>致和通讯</t>
+  </si>
+  <si>
+    <t>2C15</t>
+  </si>
+  <si>
+    <t>久月通讯</t>
+  </si>
+  <si>
+    <t>2C16</t>
+  </si>
+  <si>
+    <t>恒盛通讯</t>
+  </si>
+  <si>
+    <t>2C19</t>
+  </si>
+  <si>
+    <t>众和通讯</t>
+  </si>
+  <si>
+    <t>2C20</t>
+  </si>
+  <si>
+    <t>鼎行国产</t>
+  </si>
+  <si>
+    <t>2C22</t>
+  </si>
+  <si>
+    <t>宇迅达</t>
+  </si>
+  <si>
+    <t>2C23</t>
+  </si>
+  <si>
+    <t>闽华通讯</t>
+  </si>
+  <si>
+    <t>2C24</t>
+  </si>
+  <si>
+    <t>融盛通讯</t>
+  </si>
+  <si>
+    <t>2C25</t>
+  </si>
+  <si>
+    <t>新起点</t>
+  </si>
+  <si>
+    <t>2C25A</t>
+  </si>
+  <si>
+    <t>宏利达</t>
+  </si>
+  <si>
+    <t>2C26</t>
+  </si>
+  <si>
+    <t>叁陆玖</t>
+  </si>
+  <si>
+    <t>2C26A</t>
+  </si>
+  <si>
+    <t>鑫锦荣</t>
+  </si>
+  <si>
+    <t>2C27</t>
+  </si>
+  <si>
+    <t>德鸿通讯</t>
+  </si>
+  <si>
+    <t>2C28</t>
+  </si>
+  <si>
+    <t>联魅电科</t>
+  </si>
+  <si>
+    <t>2C29</t>
+  </si>
+  <si>
+    <t>河马通讯</t>
+  </si>
+  <si>
+    <t>2C30</t>
+  </si>
+  <si>
+    <t>东润小米</t>
+  </si>
+  <si>
+    <t>2C32</t>
+  </si>
+  <si>
+    <t>宇星科技</t>
+  </si>
+  <si>
+    <t>2C33</t>
+  </si>
+  <si>
+    <t>2C34</t>
+  </si>
+  <si>
+    <t>凯森商贸</t>
+  </si>
+  <si>
+    <t>2C35</t>
+  </si>
+  <si>
+    <t>大宇电讯</t>
+  </si>
+  <si>
+    <t>2C36</t>
+  </si>
+  <si>
+    <t>两岸通讯</t>
+  </si>
+  <si>
+    <t>2C37</t>
+  </si>
+  <si>
+    <t>鑫隆源</t>
+  </si>
+  <si>
+    <t>2C38</t>
+  </si>
+  <si>
+    <t>海天商贸</t>
+  </si>
+  <si>
+    <t>2C39</t>
+  </si>
+  <si>
+    <t>豫信通讯</t>
+  </si>
+  <si>
+    <t>2C40</t>
+  </si>
+  <si>
+    <t>信合通讯</t>
+  </si>
+  <si>
+    <t>2C41</t>
+  </si>
+  <si>
+    <t>七月通讯</t>
+  </si>
+  <si>
+    <t>2C41A</t>
+  </si>
+  <si>
+    <t>波越通讯</t>
+  </si>
+  <si>
+    <t>2C42</t>
+  </si>
+  <si>
+    <t>新一方</t>
+  </si>
+  <si>
+    <t>2C43</t>
+  </si>
+  <si>
+    <t>茂源通讯</t>
+  </si>
+  <si>
+    <t>2C44A</t>
+  </si>
+  <si>
+    <t>恒波通讯</t>
+  </si>
+  <si>
+    <t>2C45</t>
+  </si>
+  <si>
+    <t>未浩贸易</t>
+  </si>
+  <si>
+    <t>2C46</t>
+  </si>
+  <si>
+    <t>云华通讯</t>
+  </si>
+  <si>
+    <t>2C47</t>
+  </si>
+  <si>
+    <t>珍珍通讯</t>
+  </si>
+  <si>
+    <t>2C48</t>
+  </si>
+  <si>
+    <t>瑞涛苹果</t>
+  </si>
+  <si>
+    <t>2C49</t>
+  </si>
+  <si>
+    <t>瑞涛国产</t>
+  </si>
+  <si>
+    <t>2C50</t>
+  </si>
+  <si>
+    <t>瑞英通讯</t>
+  </si>
+  <si>
+    <t>2C51</t>
+  </si>
+  <si>
+    <t>富达通讯</t>
+  </si>
+  <si>
+    <t>2C52</t>
+  </si>
+  <si>
+    <t>龙祥通讯</t>
+  </si>
+  <si>
+    <t>2C54</t>
+  </si>
+  <si>
+    <t>欣鑫通讯</t>
+  </si>
+  <si>
+    <t>2C56</t>
+  </si>
+  <si>
+    <t>中亚通讯</t>
+  </si>
+  <si>
+    <t>2C57</t>
+  </si>
+  <si>
+    <t>淦淦通讯</t>
+  </si>
+  <si>
+    <t>2C59</t>
+  </si>
+  <si>
+    <t>浩通通讯</t>
+  </si>
+  <si>
+    <t>2C60</t>
   </si>
   <si>
     <t>浩轩通讯</t>
   </si>
   <si>
-    <t>2B19</t>
-  </si>
-  <si>
-    <t>萌兴通讯</t>
-  </si>
-  <si>
-    <t>2B21</t>
-  </si>
-  <si>
-    <t>汇通通讯</t>
-  </si>
-  <si>
-    <t>2B22</t>
-  </si>
-  <si>
-    <t>谦和通讯</t>
-  </si>
-  <si>
-    <t>2B23</t>
-  </si>
-  <si>
-    <t>大唐通讯</t>
-  </si>
-  <si>
-    <t>2B24</t>
-  </si>
-  <si>
-    <t>红鑫通讯</t>
-  </si>
-  <si>
-    <t>2B27</t>
-  </si>
-  <si>
-    <t>通盛通讯</t>
-  </si>
-  <si>
-    <t>2B28</t>
-  </si>
-  <si>
-    <t>海峡通讯</t>
-  </si>
-  <si>
-    <t>2B28A</t>
-  </si>
-  <si>
-    <t>万亿通讯</t>
-  </si>
-  <si>
-    <t>2B30</t>
-  </si>
-  <si>
-    <t>腾翔通讯</t>
-  </si>
-  <si>
-    <t>2B31</t>
-  </si>
-  <si>
-    <t>亿诺通讯</t>
-  </si>
-  <si>
-    <t>2B32</t>
-  </si>
-  <si>
-    <t>世程通讯</t>
-  </si>
-  <si>
-    <t>2B33</t>
-  </si>
-  <si>
-    <t>飞越通讯</t>
-  </si>
-  <si>
-    <t>2B34</t>
-  </si>
-  <si>
-    <t>河南北方</t>
-  </si>
-  <si>
-    <t>2B37</t>
-  </si>
-  <si>
-    <t>鑫通胜</t>
-  </si>
-  <si>
-    <t>2B38</t>
-  </si>
-  <si>
-    <t>国翔通讯</t>
-  </si>
-  <si>
-    <t>2C02</t>
-  </si>
-  <si>
-    <t>超盛通讯</t>
-  </si>
-  <si>
-    <t>2C04</t>
-  </si>
-  <si>
-    <t>顺峰通讯</t>
-  </si>
-  <si>
-    <t>2C05</t>
-  </si>
-  <si>
-    <t>鑫凯格</t>
-  </si>
-  <si>
-    <t>2C06</t>
-  </si>
-  <si>
-    <t>郑州一达</t>
-  </si>
-  <si>
-    <t>2C07</t>
-  </si>
-  <si>
-    <t>波涛通讯</t>
-  </si>
-  <si>
-    <t>2C07A</t>
-  </si>
-  <si>
-    <t>松联通讯</t>
-  </si>
-  <si>
-    <t>2C08</t>
-  </si>
-  <si>
-    <t>东临通讯</t>
-  </si>
-  <si>
-    <t>2C08A</t>
-  </si>
-  <si>
-    <t>湘腾通讯</t>
-  </si>
-  <si>
-    <t>2C09</t>
-  </si>
-  <si>
-    <t>初心通讯</t>
-  </si>
-  <si>
-    <t>2C10</t>
-  </si>
-  <si>
-    <t>中发通讯</t>
-  </si>
-  <si>
-    <t>2C11A</t>
-  </si>
-  <si>
-    <t>顺发通讯</t>
-  </si>
-  <si>
-    <t>2C12</t>
-  </si>
-  <si>
-    <t>九洲通讯</t>
-  </si>
-  <si>
-    <t>2C13B</t>
-  </si>
-  <si>
-    <t>鸿之联</t>
-  </si>
-  <si>
-    <t>2C14</t>
-  </si>
-  <si>
-    <t>致和通讯</t>
-  </si>
-  <si>
-    <t>2C15</t>
-  </si>
-  <si>
-    <t>宏大通讯</t>
-  </si>
-  <si>
-    <t>2C17</t>
-  </si>
-  <si>
-    <t>恒盛通讯</t>
-  </si>
-  <si>
-    <t>2C19</t>
-  </si>
-  <si>
-    <t>众和通讯</t>
-  </si>
-  <si>
-    <t>2C20</t>
-  </si>
-  <si>
-    <t>鼎行国产</t>
-  </si>
-  <si>
-    <t>2C22</t>
-  </si>
-  <si>
-    <t>宇迅达</t>
-  </si>
-  <si>
-    <t>2C23</t>
-  </si>
-  <si>
-    <t>闽华通讯</t>
-  </si>
-  <si>
-    <t>2C24</t>
-  </si>
-  <si>
-    <t>融盛通讯</t>
-  </si>
-  <si>
-    <t>2C25</t>
-  </si>
-  <si>
-    <t>新起点</t>
-  </si>
-  <si>
-    <t>2C25A</t>
-  </si>
-  <si>
-    <t>宏利达</t>
-  </si>
-  <si>
-    <t>2C26</t>
-  </si>
-  <si>
-    <t>叁陆玖</t>
-  </si>
-  <si>
-    <t>2C26A</t>
-  </si>
-  <si>
-    <t>德鸿通讯</t>
-  </si>
-  <si>
-    <t>2C28</t>
-  </si>
-  <si>
-    <t>联魅电科</t>
-  </si>
-  <si>
-    <t>2C29</t>
-  </si>
-  <si>
-    <t>河马通讯</t>
-  </si>
-  <si>
-    <t>2C30</t>
-  </si>
-  <si>
-    <t>东润小米</t>
-  </si>
-  <si>
-    <t>2C32</t>
-  </si>
-  <si>
-    <t>宇星科技</t>
-  </si>
-  <si>
-    <t>2C33</t>
-  </si>
-  <si>
-    <t>2C34</t>
-  </si>
-  <si>
-    <t>凯森商贸</t>
-  </si>
-  <si>
-    <t>2C35</t>
-  </si>
-  <si>
-    <t>大宇电讯</t>
-  </si>
-  <si>
-    <t>2C36</t>
-  </si>
-  <si>
-    <t>两岸通讯</t>
-  </si>
-  <si>
-    <t>2C37</t>
-  </si>
-  <si>
-    <t>鑫隆源</t>
-  </si>
-  <si>
-    <t>2C38</t>
-  </si>
-  <si>
-    <t>海天商贸</t>
-  </si>
-  <si>
-    <t>2C39</t>
-  </si>
-  <si>
-    <t>豫信通讯</t>
-  </si>
-  <si>
-    <t>2C40A</t>
-  </si>
-  <si>
-    <t>信合通讯</t>
-  </si>
-  <si>
-    <t>2C41</t>
-  </si>
-  <si>
-    <t>七月通讯</t>
-  </si>
-  <si>
-    <t>2C41A</t>
-  </si>
-  <si>
-    <t>波越通讯</t>
-  </si>
-  <si>
-    <t>2C42</t>
-  </si>
-  <si>
-    <t>新一方</t>
-  </si>
-  <si>
-    <t>2C43</t>
-  </si>
-  <si>
-    <t>茂源通讯</t>
-  </si>
-  <si>
-    <t>2C44A</t>
-  </si>
-  <si>
-    <t>恒波通讯</t>
-  </si>
-  <si>
-    <t>2C45</t>
-  </si>
-  <si>
-    <t>未浩贸易</t>
-  </si>
-  <si>
-    <t>2C46</t>
-  </si>
-  <si>
-    <t>珍珍通讯</t>
-  </si>
-  <si>
-    <t>2C48</t>
-  </si>
-  <si>
-    <t>瑞涛苹果</t>
-  </si>
-  <si>
-    <t>2C49</t>
-  </si>
-  <si>
-    <t>瑞涛国产</t>
-  </si>
-  <si>
-    <t>2C50</t>
-  </si>
-  <si>
-    <t>瑞英通讯</t>
-  </si>
-  <si>
-    <t>2C51</t>
-  </si>
-  <si>
-    <t>富达通讯</t>
-  </si>
-  <si>
-    <t>2C52</t>
-  </si>
-  <si>
-    <t>龙祥通讯</t>
-  </si>
-  <si>
-    <t>2C54</t>
-  </si>
-  <si>
-    <t>欣鑫通讯</t>
-  </si>
-  <si>
-    <t>2C56</t>
-  </si>
-  <si>
-    <t>中亚通讯</t>
-  </si>
-  <si>
-    <t>2C57</t>
-  </si>
-  <si>
-    <t>浩通通讯</t>
-  </si>
-  <si>
-    <t>2C60</t>
+    <t>2C62</t>
+  </si>
+  <si>
+    <t>大河通讯</t>
+  </si>
+  <si>
+    <t>2C63</t>
   </si>
   <si>
     <t>嘉祥通讯</t>
@@ -1290,12 +1311,6 @@
     <t>2D13</t>
   </si>
   <si>
-    <t>盛丰通讯</t>
-  </si>
-  <si>
-    <t>2D14</t>
-  </si>
-  <si>
     <t>郑州华远</t>
   </si>
   <si>
@@ -1326,7 +1341,7 @@
     <t>2D20A</t>
   </si>
   <si>
-    <t>群利通讯</t>
+    <t>孟飞通讯</t>
   </si>
   <si>
     <t>2D21</t>
@@ -1458,15 +1473,15 @@
     <t>2D41</t>
   </si>
   <si>
+    <t>申明通讯</t>
+  </si>
+  <si>
+    <t>2D41A</t>
+  </si>
+  <si>
     <t>和美通讯</t>
   </si>
   <si>
-    <t>2D41A</t>
-  </si>
-  <si>
-    <t>华美通讯</t>
-  </si>
-  <si>
     <t>2D42</t>
   </si>
   <si>
@@ -1521,504 +1536,462 @@
     <t>3A05</t>
   </si>
   <si>
+    <t>郑州宏远</t>
+  </si>
+  <si>
+    <t>3A08</t>
+  </si>
+  <si>
+    <t>3A10</t>
+  </si>
+  <si>
+    <t>郑州新星</t>
+  </si>
+  <si>
+    <t>3A11</t>
+  </si>
+  <si>
+    <t>利鑫通讯</t>
+  </si>
+  <si>
+    <t>3A13</t>
+  </si>
+  <si>
+    <t>宇丰通讯</t>
+  </si>
+  <si>
+    <t>3A14</t>
+  </si>
+  <si>
+    <t>凯信科贸</t>
+  </si>
+  <si>
+    <t>3A17</t>
+  </si>
+  <si>
+    <t>志诚通讯</t>
+  </si>
+  <si>
+    <t>3A18</t>
+  </si>
+  <si>
+    <t>森林通讯</t>
+  </si>
+  <si>
+    <t>3A19</t>
+  </si>
+  <si>
+    <t>启航通讯</t>
+  </si>
+  <si>
+    <t>3A20</t>
+  </si>
+  <si>
+    <t>华翼通讯</t>
+  </si>
+  <si>
+    <t>3A22</t>
+  </si>
+  <si>
+    <t>永安通讯</t>
+  </si>
+  <si>
+    <t>3A24</t>
+  </si>
+  <si>
+    <t>胜恒通讯</t>
+  </si>
+  <si>
+    <t>3A25</t>
+  </si>
+  <si>
+    <t>天和通讯</t>
+  </si>
+  <si>
+    <t>3A26</t>
+  </si>
+  <si>
+    <t>宇威通讯</t>
+  </si>
+  <si>
+    <t>3A27</t>
+  </si>
+  <si>
+    <t>舒雅通讯</t>
+  </si>
+  <si>
+    <t>3A28</t>
+  </si>
+  <si>
+    <t>无限通讯</t>
+  </si>
+  <si>
+    <t>3A29</t>
+  </si>
+  <si>
+    <t>程浩通讯</t>
+  </si>
+  <si>
+    <t>3A30</t>
+  </si>
+  <si>
+    <t>3A31</t>
+  </si>
+  <si>
+    <t>星光通讯</t>
+  </si>
+  <si>
+    <t>3A32</t>
+  </si>
+  <si>
+    <t>龙达通讯</t>
+  </si>
+  <si>
+    <t>3A33</t>
+  </si>
+  <si>
+    <t>天鸿通讯</t>
+  </si>
+  <si>
+    <t>3A35</t>
+  </si>
+  <si>
+    <t>鑫之源</t>
+  </si>
+  <si>
+    <t>3A36</t>
+  </si>
+  <si>
+    <t>3A37</t>
+  </si>
+  <si>
+    <t>郑州志诚</t>
+  </si>
+  <si>
+    <t>3A38</t>
+  </si>
+  <si>
+    <t>河南易雅</t>
+  </si>
+  <si>
+    <t>3A39</t>
+  </si>
+  <si>
+    <t>羿龙通讯</t>
+  </si>
+  <si>
+    <t>3A41</t>
+  </si>
+  <si>
+    <t>永顺通讯</t>
+  </si>
+  <si>
+    <t>3A42</t>
+  </si>
+  <si>
+    <t>鑫昌通讯</t>
+  </si>
+  <si>
+    <t>3A44</t>
+  </si>
+  <si>
+    <t>华辰通讯</t>
+  </si>
+  <si>
+    <t>3A45</t>
+  </si>
+  <si>
+    <t>瀚达科贸</t>
+  </si>
+  <si>
+    <t>3A46</t>
+  </si>
+  <si>
+    <t>亨通通讯</t>
+  </si>
+  <si>
+    <t>3A48</t>
+  </si>
+  <si>
+    <t>宁宁通讯</t>
+  </si>
+  <si>
+    <t>3A49</t>
+  </si>
+  <si>
+    <t>世纪风</t>
+  </si>
+  <si>
+    <t>3A50</t>
+  </si>
+  <si>
+    <t>金峰通讯</t>
+  </si>
+  <si>
+    <t>3A51</t>
+  </si>
+  <si>
+    <t>东海通讯</t>
+  </si>
+  <si>
+    <t>3A52</t>
+  </si>
+  <si>
+    <t>易达通讯</t>
+  </si>
+  <si>
+    <t>3A53</t>
+  </si>
+  <si>
+    <t>中峰通讯</t>
+  </si>
+  <si>
+    <t>3B01</t>
+  </si>
+  <si>
+    <t>云坤通讯</t>
+  </si>
+  <si>
+    <t>3B10</t>
+  </si>
+  <si>
+    <t>高阔科技</t>
+  </si>
+  <si>
+    <t>3B12</t>
+  </si>
+  <si>
+    <t>安信通讯</t>
+  </si>
+  <si>
+    <t>3B14</t>
+  </si>
+  <si>
+    <t>轩昂通讯</t>
+  </si>
+  <si>
+    <t>3B15</t>
+  </si>
+  <si>
+    <t>宏辉通讯</t>
+  </si>
+  <si>
+    <t>3B16</t>
+  </si>
+  <si>
+    <t>好机友</t>
+  </si>
+  <si>
+    <t>3B17</t>
+  </si>
+  <si>
+    <t>昱成商贸</t>
+  </si>
+  <si>
+    <t>3B18</t>
+  </si>
+  <si>
+    <t>金鹰通讯</t>
+  </si>
+  <si>
+    <t>3B19</t>
+  </si>
+  <si>
+    <t>龙威通讯</t>
+  </si>
+  <si>
+    <t>3B20</t>
+  </si>
+  <si>
+    <t>永兴隆</t>
+  </si>
+  <si>
+    <t>3B21</t>
+  </si>
+  <si>
+    <t>蔚蓝通讯</t>
+  </si>
+  <si>
+    <t>3B22</t>
+  </si>
+  <si>
+    <t>京诚通讯</t>
+  </si>
+  <si>
+    <t>3B23</t>
+  </si>
+  <si>
+    <t>鑫兴盛</t>
+  </si>
+  <si>
+    <t>3B24</t>
+  </si>
+  <si>
+    <t>帝友通讯</t>
+  </si>
+  <si>
+    <t>3B27</t>
+  </si>
+  <si>
+    <t>豫通通讯</t>
+  </si>
+  <si>
+    <t>3B28</t>
+  </si>
+  <si>
+    <t>华峰通讯</t>
+  </si>
+  <si>
+    <t>3B32</t>
+  </si>
+  <si>
+    <t>伟业商贸</t>
+  </si>
+  <si>
+    <t>3B33</t>
+  </si>
+  <si>
+    <t>鹏程通讯</t>
+  </si>
+  <si>
+    <t>3B34</t>
+  </si>
+  <si>
+    <t>呈耀商贸</t>
+  </si>
+  <si>
+    <t>3B35</t>
+  </si>
+  <si>
+    <t>路博通讯</t>
+  </si>
+  <si>
+    <t>3B36</t>
+  </si>
+  <si>
+    <t>中环通讯</t>
+  </si>
+  <si>
+    <t>3C01</t>
+  </si>
+  <si>
+    <t>赛朗通讯</t>
+  </si>
+  <si>
+    <t>3C02</t>
+  </si>
+  <si>
+    <t>海洋通讯</t>
+  </si>
+  <si>
+    <t>3C07</t>
+  </si>
+  <si>
+    <t>有数通讯</t>
+  </si>
+  <si>
+    <t>3C09</t>
+  </si>
+  <si>
+    <t>飞腾通讯</t>
+  </si>
+  <si>
+    <t>3C10</t>
+  </si>
+  <si>
+    <t>捷达通讯</t>
+  </si>
+  <si>
+    <t>3C11</t>
+  </si>
+  <si>
+    <t>宇达通讯</t>
+  </si>
+  <si>
+    <t>3C12</t>
+  </si>
+  <si>
+    <t>传音科贸</t>
+  </si>
+  <si>
+    <t>3C19</t>
+  </si>
+  <si>
+    <t>欣诚通讯</t>
+  </si>
+  <si>
+    <t>3C21</t>
+  </si>
+  <si>
+    <t>众城通讯</t>
+  </si>
+  <si>
+    <t>3C28</t>
+  </si>
+  <si>
+    <t>联络通讯</t>
+  </si>
+  <si>
+    <t>3C29</t>
+  </si>
+  <si>
+    <t>翼博通讯</t>
+  </si>
+  <si>
+    <t>3C32</t>
+  </si>
+  <si>
+    <t>亿隆通讯</t>
+  </si>
+  <si>
+    <t>3C33</t>
+  </si>
+  <si>
+    <t>德学通讯</t>
+  </si>
+  <si>
+    <t>3C36</t>
+  </si>
+  <si>
+    <t>思玥通讯</t>
+  </si>
+  <si>
+    <t>3C37</t>
+  </si>
+  <si>
+    <t>七星科技</t>
+  </si>
+  <si>
+    <t>3C38</t>
+  </si>
+  <si>
+    <t>东利伟业</t>
+  </si>
+  <si>
+    <t>3C39-40</t>
+  </si>
+  <si>
+    <t>飞虹通讯</t>
+  </si>
+  <si>
+    <t>3C41</t>
+  </si>
+  <si>
+    <t>广治通讯</t>
+  </si>
+  <si>
+    <t>3C42</t>
+  </si>
+  <si>
+    <t>鼎峰通讯</t>
+  </si>
+  <si>
+    <t>3C47</t>
+  </si>
+  <si>
     <t>豪文通讯</t>
   </si>
   <si>
-    <t>3A06</t>
-  </si>
-  <si>
-    <t>郑州宏远</t>
-  </si>
-  <si>
-    <t>3A08</t>
-  </si>
-  <si>
-    <t>3A10</t>
-  </si>
-  <si>
-    <t>郑州新星</t>
-  </si>
-  <si>
-    <t>3A11</t>
-  </si>
-  <si>
-    <t>利鑫通讯</t>
-  </si>
-  <si>
-    <t>3A13</t>
-  </si>
-  <si>
-    <t>宇丰通讯</t>
-  </si>
-  <si>
-    <t>3A14</t>
-  </si>
-  <si>
-    <t>凯信科贸</t>
-  </si>
-  <si>
-    <t>3A17</t>
-  </si>
-  <si>
-    <t>志诚通讯</t>
-  </si>
-  <si>
-    <t>3A18</t>
-  </si>
-  <si>
-    <t>森林通讯</t>
-  </si>
-  <si>
-    <t>3A19</t>
-  </si>
-  <si>
-    <t>启航通讯</t>
-  </si>
-  <si>
-    <t>3A20</t>
-  </si>
-  <si>
-    <t>华翼通讯</t>
-  </si>
-  <si>
-    <t>3A22</t>
-  </si>
-  <si>
-    <t>永安通讯</t>
-  </si>
-  <si>
-    <t>3A24</t>
-  </si>
-  <si>
-    <t>胜恒通讯</t>
-  </si>
-  <si>
-    <t>3A25</t>
-  </si>
-  <si>
-    <t>天和通讯</t>
-  </si>
-  <si>
-    <t>3A26</t>
-  </si>
-  <si>
-    <t>宇威通讯</t>
-  </si>
-  <si>
-    <t>3A27</t>
-  </si>
-  <si>
-    <t>舒雅通讯</t>
-  </si>
-  <si>
-    <t>3A28</t>
-  </si>
-  <si>
-    <t>无限通讯</t>
-  </si>
-  <si>
-    <t>3A29</t>
-  </si>
-  <si>
-    <t>天意通讯</t>
-  </si>
-  <si>
-    <t>3A30</t>
-  </si>
-  <si>
-    <t>3A31</t>
-  </si>
-  <si>
-    <t>星光通讯</t>
-  </si>
-  <si>
-    <t>3A32</t>
-  </si>
-  <si>
-    <t>龙达通讯</t>
-  </si>
-  <si>
-    <t>3A33</t>
-  </si>
-  <si>
-    <t>鑫辉通讯</t>
-  </si>
-  <si>
-    <t>3A34</t>
-  </si>
-  <si>
-    <t>天鸿通讯</t>
-  </si>
-  <si>
-    <t>3A35</t>
-  </si>
-  <si>
-    <t>鑫之源</t>
-  </si>
-  <si>
-    <t>3A36</t>
-  </si>
-  <si>
-    <t>大河通讯</t>
-  </si>
-  <si>
-    <t>3A37</t>
-  </si>
-  <si>
-    <t>郑州志诚</t>
-  </si>
-  <si>
-    <t>3A38</t>
-  </si>
-  <si>
-    <t>河南易雅</t>
-  </si>
-  <si>
-    <t>3A39</t>
-  </si>
-  <si>
-    <t>羿龙通讯</t>
-  </si>
-  <si>
-    <t>3A41</t>
-  </si>
-  <si>
-    <t>永顺通讯</t>
-  </si>
-  <si>
-    <t>3A42</t>
-  </si>
-  <si>
-    <t>鑫昌通讯</t>
-  </si>
-  <si>
-    <t>3A44</t>
-  </si>
-  <si>
-    <t>华辰通讯</t>
-  </si>
-  <si>
-    <t>3A45</t>
-  </si>
-  <si>
-    <t>瀚达科贸</t>
-  </si>
-  <si>
-    <t>3A46</t>
-  </si>
-  <si>
-    <t>亨通通讯</t>
-  </si>
-  <si>
-    <t>3A48</t>
-  </si>
-  <si>
-    <t>宁宁通讯</t>
-  </si>
-  <si>
-    <t>3A49</t>
-  </si>
-  <si>
-    <t>世纪风</t>
-  </si>
-  <si>
-    <t>3A50</t>
-  </si>
-  <si>
-    <t>金峰通讯</t>
-  </si>
-  <si>
-    <t>3A51</t>
-  </si>
-  <si>
-    <t>东海通讯</t>
-  </si>
-  <si>
-    <t>3A52</t>
-  </si>
-  <si>
-    <t>易达通讯</t>
-  </si>
-  <si>
-    <t>3A53</t>
-  </si>
-  <si>
-    <t>中峰通讯</t>
-  </si>
-  <si>
-    <t>3B01</t>
-  </si>
-  <si>
-    <t>伟路通讯</t>
-  </si>
-  <si>
-    <t>3B04</t>
-  </si>
-  <si>
-    <t>云坤通讯</t>
-  </si>
-  <si>
-    <t>3B10</t>
-  </si>
-  <si>
-    <t>高阔科技</t>
-  </si>
-  <si>
-    <t>3B12</t>
-  </si>
-  <si>
-    <t>安信通讯</t>
-  </si>
-  <si>
-    <t>3B14</t>
-  </si>
-  <si>
-    <t>轩昂通讯</t>
-  </si>
-  <si>
-    <t>3B15</t>
-  </si>
-  <si>
-    <t>宏辉通讯</t>
-  </si>
-  <si>
-    <t>3B16</t>
-  </si>
-  <si>
-    <t>好机友</t>
-  </si>
-  <si>
-    <t>3B17</t>
-  </si>
-  <si>
-    <t>昱成商贸</t>
-  </si>
-  <si>
-    <t>3B18</t>
-  </si>
-  <si>
-    <t>金鹰通讯</t>
-  </si>
-  <si>
-    <t>3B19</t>
-  </si>
-  <si>
-    <t>龙威通讯</t>
-  </si>
-  <si>
-    <t>3B20</t>
-  </si>
-  <si>
-    <t>永兴隆</t>
-  </si>
-  <si>
-    <t>3B21</t>
-  </si>
-  <si>
-    <t>路博通讯</t>
-  </si>
-  <si>
-    <t>3B22</t>
-  </si>
-  <si>
-    <t>京诚通讯</t>
-  </si>
-  <si>
-    <t>3B23</t>
-  </si>
-  <si>
-    <t>鑫兴盛</t>
-  </si>
-  <si>
-    <t>3B24</t>
-  </si>
-  <si>
-    <t>帝友通讯</t>
-  </si>
-  <si>
-    <t>3B27</t>
-  </si>
-  <si>
-    <t>豫通通讯</t>
-  </si>
-  <si>
-    <t>3B28</t>
-  </si>
-  <si>
-    <t>华峰通讯</t>
-  </si>
-  <si>
-    <t>3B32</t>
-  </si>
-  <si>
-    <t>伟业商贸</t>
-  </si>
-  <si>
-    <t>3B33</t>
-  </si>
-  <si>
-    <t>鹏程通讯</t>
-  </si>
-  <si>
-    <t>3B34</t>
-  </si>
-  <si>
-    <t>呈耀商贸</t>
-  </si>
-  <si>
-    <t>3B35</t>
-  </si>
-  <si>
-    <t>东方贸易</t>
-  </si>
-  <si>
-    <t>3B37</t>
-  </si>
-  <si>
-    <t>中环通讯</t>
-  </si>
-  <si>
-    <t>3C01</t>
-  </si>
-  <si>
-    <t>赛朗通讯</t>
-  </si>
-  <si>
-    <t>3C02</t>
-  </si>
-  <si>
-    <t>海洋通讯</t>
-  </si>
-  <si>
-    <t>3C07</t>
-  </si>
-  <si>
-    <t>有数通讯</t>
-  </si>
-  <si>
-    <t>3C09</t>
-  </si>
-  <si>
-    <t>飞腾通讯</t>
-  </si>
-  <si>
-    <t>3C10</t>
-  </si>
-  <si>
-    <t>捷达通讯</t>
-  </si>
-  <si>
-    <t>3C11</t>
-  </si>
-  <si>
-    <t>宇达通讯</t>
-  </si>
-  <si>
-    <t>3C12</t>
-  </si>
-  <si>
-    <t>鑫浩宇</t>
-  </si>
-  <si>
-    <t>3C14</t>
-  </si>
-  <si>
-    <t>巨荣商贸</t>
-  </si>
-  <si>
-    <t>3C18</t>
-  </si>
-  <si>
-    <t>传音科贸</t>
-  </si>
-  <si>
-    <t>3C19</t>
-  </si>
-  <si>
-    <t>蜂星通讯</t>
-  </si>
-  <si>
-    <t>3C21</t>
-  </si>
-  <si>
-    <t>众城通讯</t>
-  </si>
-  <si>
-    <t>3C25</t>
-  </si>
-  <si>
-    <t>利群科技</t>
-  </si>
-  <si>
-    <t>3C28</t>
-  </si>
-  <si>
-    <t>联络通讯</t>
-  </si>
-  <si>
-    <t>3C29</t>
-  </si>
-  <si>
-    <t>3C31</t>
-  </si>
-  <si>
-    <t>翼博通讯</t>
-  </si>
-  <si>
-    <t>3C32</t>
-  </si>
-  <si>
-    <t>亿隆通讯</t>
-  </si>
-  <si>
-    <t>3C33</t>
-  </si>
-  <si>
-    <t>德学通讯</t>
-  </si>
-  <si>
-    <t>3C36</t>
-  </si>
-  <si>
-    <t>思玥通讯</t>
-  </si>
-  <si>
-    <t>3C37</t>
-  </si>
-  <si>
-    <t>七星科技</t>
-  </si>
-  <si>
-    <t>3C38</t>
-  </si>
-  <si>
-    <t>东利伟业</t>
-  </si>
-  <si>
-    <t>3C39-40</t>
-  </si>
-  <si>
-    <t>飞虹通讯</t>
-  </si>
-  <si>
-    <t>3C41</t>
-  </si>
-  <si>
-    <t>广治通讯</t>
-  </si>
-  <si>
-    <t>3C42</t>
-  </si>
-  <si>
-    <t>鼎峰通讯</t>
-  </si>
-  <si>
-    <t>3C47</t>
-  </si>
-  <si>
-    <t>智达通讯</t>
-  </si>
-  <si>
     <t>3C48</t>
   </si>
   <si>
@@ -2115,9 +2088,6 @@
     <t>3C64</t>
   </si>
   <si>
-    <t>3D01</t>
-  </si>
-  <si>
     <t>蓝创通讯</t>
   </si>
   <si>
@@ -2166,6 +2136,12 @@
     <t>3D13</t>
   </si>
   <si>
+    <t>兴凯通讯</t>
+  </si>
+  <si>
+    <t>3D16</t>
+  </si>
+  <si>
     <t>郑州裕美</t>
   </si>
   <si>
@@ -2283,7 +2259,10 @@
     <t>3D49</t>
   </si>
   <si>
-    <t>久月通讯</t>
+    <t>百富通讯</t>
+  </si>
+  <si>
+    <t>4B31</t>
   </si>
   <si>
     <t>4C15</t>
@@ -2622,7 +2601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C384"/>
+  <dimension ref="A1:C381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2709,7 +2688,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -2720,7 +2699,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>239</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -2731,7 +2710,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -2742,7 +2721,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>480</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -2753,7 +2732,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>272</v>
+        <v>382</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -2764,7 +2743,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -2775,7 +2754,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>439</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -2786,7 +2765,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -2800,10 +2779,10 @@
         <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2811,10 +2790,10 @@
         <v>281</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2822,10 +2801,10 @@
         <v>290</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2833,10 +2812,10 @@
         <v>390</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2844,10 +2823,10 @@
         <v>550</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2855,117 +2834,117 @@
         <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>5112</v>
+        <v>3876</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>3876</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>241</v>
+        <v>578</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>578</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>264</v>
+        <v>421</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>421</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>214</v>
+        <v>502</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>502</v>
+        <v>889</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -2973,7 +2952,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>889</v>
+        <v>213</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
@@ -2984,7 +2963,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -2995,7 +2974,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>199</v>
+        <v>420</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -3006,7 +2985,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>420</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -3017,7 +2996,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>317</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
@@ -3028,7 +3007,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>165</v>
+        <v>386</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
@@ -3039,7 +3018,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>386</v>
+        <v>3051</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
@@ -3050,7 +3029,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>3051</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
@@ -3061,7 +3040,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>347</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
@@ -3072,7 +3051,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B41" t="s">
         <v>79</v>
@@ -3083,7 +3062,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>169</v>
+        <v>402</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
@@ -3094,7 +3073,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>402</v>
+        <v>579</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -3105,7 +3084,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>579</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
@@ -3116,7 +3095,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -3127,7 +3106,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>242</v>
+        <v>498</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
@@ -3138,7 +3117,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>498</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
@@ -3149,7 +3128,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>173</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -3160,7 +3139,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>349</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
         <v>95</v>
@@ -3171,7 +3150,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>178</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s">
         <v>97</v>
@@ -3182,7 +3161,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B51" t="s">
         <v>99</v>
@@ -3193,7 +3172,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>419</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
         <v>101</v>
@@ -3204,7 +3183,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>164</v>
+        <v>649</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
@@ -3215,7 +3194,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>649</v>
+        <v>3054</v>
       </c>
       <c r="B54" t="s">
         <v>105</v>
@@ -3226,7 +3205,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>3054</v>
+        <v>581</v>
       </c>
       <c r="B55" t="s">
         <v>107</v>
@@ -3237,7 +3216,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B56" t="s">
         <v>109</v>
@@ -3248,7 +3227,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>582</v>
+        <v>359</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
@@ -3259,7 +3238,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>359</v>
+        <v>262</v>
       </c>
       <c r="B58" t="s">
         <v>113</v>
@@ -3270,21 +3249,21 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
         <v>115</v>
-      </c>
-      <c r="C59" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>183</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
         <v>117</v>
@@ -3292,7 +3271,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="B61" t="s">
         <v>118</v>
@@ -3303,7 +3282,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="B62" t="s">
         <v>120</v>
@@ -3314,7 +3293,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>286</v>
+        <v>3692</v>
       </c>
       <c r="B63" t="s">
         <v>122</v>
@@ -3325,7 +3304,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>3692</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
         <v>124</v>
@@ -3336,7 +3315,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
         <v>126</v>
@@ -3347,7 +3326,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>215</v>
+        <v>3824</v>
       </c>
       <c r="B66" t="s">
         <v>128</v>
@@ -3358,7 +3337,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>3824</v>
+        <v>2097</v>
       </c>
       <c r="B67" t="s">
         <v>130</v>
@@ -3369,7 +3348,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>2097</v>
+        <v>177</v>
       </c>
       <c r="B68" t="s">
         <v>132</v>
@@ -3380,7 +3359,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>177</v>
+        <v>380</v>
       </c>
       <c r="B69" t="s">
         <v>134</v>
@@ -3391,7 +3370,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>380</v>
+        <v>1040</v>
       </c>
       <c r="B70" t="s">
         <v>136</v>
@@ -3402,7 +3381,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>1040</v>
+        <v>156</v>
       </c>
       <c r="B71" t="s">
         <v>138</v>
@@ -3413,7 +3392,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>156</v>
+        <v>5112</v>
       </c>
       <c r="B72" t="s">
         <v>140</v>
@@ -3732,7 +3711,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>485</v>
+        <v>315</v>
       </c>
       <c r="B101" t="s">
         <v>197</v>
@@ -3743,7 +3722,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>315</v>
+        <v>551</v>
       </c>
       <c r="B102" t="s">
         <v>199</v>
@@ -3754,7 +3733,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>250</v>
+        <v>471</v>
       </c>
       <c r="B103" t="s">
         <v>201</v>
@@ -3765,7 +3744,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>551</v>
+        <v>180</v>
       </c>
       <c r="B104" t="s">
         <v>203</v>
@@ -3776,7 +3755,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>471</v>
+        <v>217</v>
       </c>
       <c r="B105" t="s">
         <v>205</v>
@@ -3787,7 +3766,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>180</v>
+        <v>452</v>
       </c>
       <c r="B106" t="s">
         <v>207</v>
@@ -3798,7 +3777,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B107" t="s">
         <v>209</v>
@@ -3809,7 +3788,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>452</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
         <v>211</v>
@@ -3820,7 +3799,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="B109" t="s">
         <v>213</v>
@@ -3831,7 +3810,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B110" t="s">
         <v>215</v>
@@ -3842,7 +3821,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="B111" t="s">
         <v>217</v>
@@ -3853,7 +3832,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B112" t="s">
         <v>219</v>
@@ -3864,7 +3843,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="B113" t="s">
         <v>221</v>
@@ -3875,7 +3854,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>220</v>
+        <v>487</v>
       </c>
       <c r="B114" t="s">
         <v>223</v>
@@ -3886,7 +3865,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>352</v>
+        <v>209</v>
       </c>
       <c r="B115" t="s">
         <v>225</v>
@@ -3897,7 +3876,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B116" t="s">
         <v>227</v>
@@ -3908,7 +3887,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="n">
-        <v>209</v>
+        <v>3370</v>
       </c>
       <c r="B117" t="s">
         <v>229</v>
@@ -3919,7 +3898,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B118" t="s">
         <v>231</v>
@@ -3930,7 +3909,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="n">
-        <v>3370</v>
+        <v>492</v>
       </c>
       <c r="B119" t="s">
         <v>233</v>
@@ -3941,7 +3920,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B120" t="s">
         <v>235</v>
@@ -3952,7 +3931,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="n">
-        <v>492</v>
+        <v>387</v>
       </c>
       <c r="B121" t="s">
         <v>237</v>
@@ -3963,7 +3942,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="n">
-        <v>493</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
         <v>239</v>
@@ -3974,7 +3953,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="n">
-        <v>387</v>
+        <v>494</v>
       </c>
       <c r="B123" t="s">
         <v>241</v>
@@ -3985,7 +3964,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="n">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="B124" t="s">
         <v>243</v>
@@ -3996,7 +3975,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B125" t="s">
         <v>245</v>
@@ -4007,7 +3986,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="n">
-        <v>140</v>
+        <v>497</v>
       </c>
       <c r="B126" t="s">
         <v>247</v>
@@ -4018,7 +3997,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="n">
-        <v>373</v>
+        <v>223</v>
       </c>
       <c r="B127" t="s">
         <v>249</v>
@@ -4029,7 +4008,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="n">
-        <v>496</v>
+        <v>219</v>
       </c>
       <c r="B128" t="s">
         <v>251</v>
@@ -4040,7 +4019,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B129" t="s">
         <v>253</v>
@@ -4051,7 +4030,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="n">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="B130" t="s">
         <v>255</v>
@@ -4062,7 +4041,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="n">
-        <v>219</v>
+        <v>554</v>
       </c>
       <c r="B131" t="s">
         <v>257</v>
@@ -4073,7 +4052,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="n">
-        <v>499</v>
+        <v>3150</v>
       </c>
       <c r="B132" t="s">
         <v>259</v>
@@ -4084,7 +4063,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="n">
-        <v>292</v>
+        <v>485</v>
       </c>
       <c r="B133" t="s">
         <v>261</v>
@@ -4095,7 +4074,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="n">
-        <v>554</v>
+        <v>384</v>
       </c>
       <c r="B134" t="s">
         <v>263</v>
@@ -4106,7 +4085,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="n">
-        <v>3150</v>
+        <v>2797</v>
       </c>
       <c r="B135" t="s">
         <v>265</v>
@@ -4117,7 +4096,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="n">
-        <v>384</v>
+        <v>250</v>
       </c>
       <c r="B136" t="s">
         <v>267</v>
@@ -4128,7 +4107,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="n">
-        <v>2797</v>
+        <v>501</v>
       </c>
       <c r="B137" t="s">
         <v>269</v>
@@ -4139,7 +4118,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="B138" t="s">
         <v>271</v>
@@ -4150,7 +4129,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="n">
-        <v>501</v>
+        <v>318</v>
       </c>
       <c r="B139" t="s">
         <v>273</v>
@@ -4161,7 +4140,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="n">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s">
         <v>275</v>
@@ -4172,7 +4151,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="n">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="B141" t="s">
         <v>277</v>
@@ -4183,7 +4162,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="n">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="B142" t="s">
         <v>279</v>
@@ -4194,7 +4173,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="n">
-        <v>388</v>
+        <v>607</v>
       </c>
       <c r="B143" t="s">
         <v>281</v>
@@ -4205,7 +4184,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="n">
-        <v>255</v>
+        <v>2037</v>
       </c>
       <c r="B144" t="s">
         <v>283</v>
@@ -4216,7 +4195,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="n">
-        <v>607</v>
+        <v>3684</v>
       </c>
       <c r="B145" t="s">
         <v>285</v>
@@ -4227,7 +4206,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="n">
-        <v>2037</v>
+        <v>309</v>
       </c>
       <c r="B146" t="s">
         <v>287</v>
@@ -4238,7 +4217,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="n">
-        <v>3684</v>
+        <v>319</v>
       </c>
       <c r="B147" t="s">
         <v>289</v>
@@ -4249,7 +4228,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="n">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="B148" t="s">
         <v>291</v>
@@ -4260,321 +4239,321 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="n">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="B149" t="s">
+        <v>211</v>
+      </c>
+      <c r="C149" t="s">
         <v>293</v>
-      </c>
-      <c r="C149" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="n">
-        <v>265</v>
+        <v>363</v>
       </c>
       <c r="B150" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150" t="s">
         <v>295</v>
-      </c>
-      <c r="C150" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="n">
-        <v>363</v>
+        <v>256</v>
       </c>
       <c r="B151" t="s">
+        <v>296</v>
+      </c>
+      <c r="C151" t="s">
         <v>297</v>
-      </c>
-      <c r="C151" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B152" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" t="s">
         <v>299</v>
-      </c>
-      <c r="C152" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="n">
-        <v>258</v>
+        <v>534</v>
       </c>
       <c r="B153" t="s">
+        <v>300</v>
+      </c>
+      <c r="C153" t="s">
         <v>301</v>
-      </c>
-      <c r="C153" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="n">
-        <v>534</v>
+        <v>2530</v>
       </c>
       <c r="B154" t="s">
+        <v>302</v>
+      </c>
+      <c r="C154" t="s">
         <v>303</v>
-      </c>
-      <c r="C154" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B155" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155" t="s">
         <v>305</v>
-      </c>
-      <c r="C155" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="n">
-        <v>2530</v>
+        <v>184</v>
       </c>
       <c r="B156" t="s">
+        <v>306</v>
+      </c>
+      <c r="C156" t="s">
         <v>307</v>
-      </c>
-      <c r="C156" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="n">
-        <v>538</v>
+        <v>274</v>
       </c>
       <c r="B157" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" t="s">
         <v>309</v>
-      </c>
-      <c r="C157" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="n">
-        <v>184</v>
+        <v>547</v>
       </c>
       <c r="B158" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" t="s">
         <v>311</v>
-      </c>
-      <c r="C158" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="n">
-        <v>274</v>
+        <v>583</v>
       </c>
       <c r="B159" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" t="s">
         <v>313</v>
-      </c>
-      <c r="C159" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="n">
-        <v>547</v>
+        <v>278</v>
       </c>
       <c r="B160" t="s">
+        <v>314</v>
+      </c>
+      <c r="C160" t="s">
         <v>315</v>
-      </c>
-      <c r="C160" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="n">
-        <v>583</v>
+        <v>3772</v>
       </c>
       <c r="B161" t="s">
+        <v>316</v>
+      </c>
+      <c r="C161" t="s">
         <v>317</v>
-      </c>
-      <c r="C161" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="n">
-        <v>278</v>
+        <v>541</v>
       </c>
       <c r="B162" t="s">
+        <v>318</v>
+      </c>
+      <c r="C162" t="s">
         <v>319</v>
-      </c>
-      <c r="C162" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="n">
-        <v>3772</v>
+        <v>393</v>
       </c>
       <c r="B163" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" t="s">
         <v>321</v>
-      </c>
-      <c r="C163" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="n">
-        <v>541</v>
+        <v>261</v>
       </c>
       <c r="B164" t="s">
+        <v>322</v>
+      </c>
+      <c r="C164" t="s">
         <v>323</v>
-      </c>
-      <c r="C164" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="n">
-        <v>261</v>
+        <v>544</v>
       </c>
       <c r="B165" t="s">
+        <v>324</v>
+      </c>
+      <c r="C165" t="s">
         <v>325</v>
-      </c>
-      <c r="C165" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="n">
-        <v>544</v>
+        <v>193</v>
       </c>
       <c r="B166" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" t="s">
         <v>327</v>
-      </c>
-      <c r="C166" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="n">
-        <v>193</v>
+        <v>535</v>
       </c>
       <c r="B167" t="s">
+        <v>328</v>
+      </c>
+      <c r="C167" t="s">
         <v>329</v>
-      </c>
-      <c r="C167" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B168" t="s">
+        <v>330</v>
+      </c>
+      <c r="C168" t="s">
         <v>331</v>
-      </c>
-      <c r="C168" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="n">
-        <v>549</v>
+        <v>417</v>
       </c>
       <c r="B169" t="s">
+        <v>332</v>
+      </c>
+      <c r="C169" t="s">
         <v>333</v>
-      </c>
-      <c r="C169" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="n">
-        <v>417</v>
+        <v>3534</v>
       </c>
       <c r="B170" t="s">
+        <v>334</v>
+      </c>
+      <c r="C170" t="s">
         <v>335</v>
-      </c>
-      <c r="C170" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="n">
-        <v>3534</v>
+        <v>218</v>
       </c>
       <c r="B171" t="s">
+        <v>336</v>
+      </c>
+      <c r="C171" t="s">
         <v>337</v>
-      </c>
-      <c r="C171" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="n">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="B172" t="s">
+        <v>338</v>
+      </c>
+      <c r="C172" t="s">
         <v>339</v>
-      </c>
-      <c r="C172" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="n">
-        <v>263</v>
+        <v>552</v>
       </c>
       <c r="B173" t="s">
+        <v>340</v>
+      </c>
+      <c r="C173" t="s">
         <v>341</v>
-      </c>
-      <c r="C173" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="n">
-        <v>552</v>
+        <v>3823</v>
       </c>
       <c r="B174" t="s">
+        <v>342</v>
+      </c>
+      <c r="C174" t="s">
         <v>343</v>
-      </c>
-      <c r="C174" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="n">
-        <v>3823</v>
+        <v>418</v>
       </c>
       <c r="B175" t="s">
+        <v>344</v>
+      </c>
+      <c r="C175" t="s">
         <v>345</v>
-      </c>
-      <c r="C175" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="n">
-        <v>418</v>
+        <v>3888</v>
       </c>
       <c r="B176" t="s">
+        <v>346</v>
+      </c>
+      <c r="C176" t="s">
         <v>347</v>
-      </c>
-      <c r="C176" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="n">
-        <v>3888</v>
+        <v>140</v>
       </c>
       <c r="B177" t="s">
+        <v>348</v>
+      </c>
+      <c r="C177" t="s">
         <v>349</v>
-      </c>
-      <c r="C177" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4582,10 +4561,10 @@
         <v>365</v>
       </c>
       <c r="B178" t="s">
+        <v>350</v>
+      </c>
+      <c r="C178" t="s">
         <v>351</v>
-      </c>
-      <c r="C178" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4593,10 +4572,10 @@
         <v>287</v>
       </c>
       <c r="B179" t="s">
+        <v>352</v>
+      </c>
+      <c r="C179" t="s">
         <v>353</v>
-      </c>
-      <c r="C179" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4604,10 +4583,10 @@
         <v>3587</v>
       </c>
       <c r="B180" t="s">
+        <v>354</v>
+      </c>
+      <c r="C180" t="s">
         <v>355</v>
-      </c>
-      <c r="C180" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4615,10 +4594,10 @@
         <v>2207</v>
       </c>
       <c r="B181" t="s">
+        <v>356</v>
+      </c>
+      <c r="C181" t="s">
         <v>357</v>
-      </c>
-      <c r="C181" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4626,10 +4605,10 @@
         <v>422</v>
       </c>
       <c r="B182" t="s">
+        <v>358</v>
+      </c>
+      <c r="C182" t="s">
         <v>359</v>
-      </c>
-      <c r="C182" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4637,10 +4616,10 @@
         <v>2035</v>
       </c>
       <c r="B183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C183" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4648,10 +4627,10 @@
         <v>424</v>
       </c>
       <c r="B184" t="s">
+        <v>361</v>
+      </c>
+      <c r="C184" t="s">
         <v>362</v>
-      </c>
-      <c r="C184" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4659,10 +4638,10 @@
         <v>348</v>
       </c>
       <c r="B185" t="s">
+        <v>363</v>
+      </c>
+      <c r="C185" t="s">
         <v>364</v>
-      </c>
-      <c r="C185" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4670,10 +4649,10 @@
         <v>296</v>
       </c>
       <c r="B186" t="s">
+        <v>365</v>
+      </c>
+      <c r="C186" t="s">
         <v>366</v>
-      </c>
-      <c r="C186" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4681,10 +4660,10 @@
         <v>1039</v>
       </c>
       <c r="B187" t="s">
+        <v>367</v>
+      </c>
+      <c r="C187" t="s">
         <v>368</v>
-      </c>
-      <c r="C187" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4692,10 +4671,10 @@
         <v>428</v>
       </c>
       <c r="B188" t="s">
+        <v>369</v>
+      </c>
+      <c r="C188" t="s">
         <v>370</v>
-      </c>
-      <c r="C188" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4703,10 +4682,10 @@
         <v>5136</v>
       </c>
       <c r="B189" t="s">
+        <v>371</v>
+      </c>
+      <c r="C189" t="s">
         <v>372</v>
-      </c>
-      <c r="C189" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4714,10 +4693,10 @@
         <v>277</v>
       </c>
       <c r="B190" t="s">
+        <v>373</v>
+      </c>
+      <c r="C190" t="s">
         <v>374</v>
-      </c>
-      <c r="C190" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4725,10 +4704,10 @@
         <v>4528</v>
       </c>
       <c r="B191" t="s">
+        <v>375</v>
+      </c>
+      <c r="C191" t="s">
         <v>376</v>
-      </c>
-      <c r="C191" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4736,10 +4715,10 @@
         <v>307</v>
       </c>
       <c r="B192" t="s">
+        <v>377</v>
+      </c>
+      <c r="C192" t="s">
         <v>378</v>
-      </c>
-      <c r="C192" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4747,10 +4726,10 @@
         <v>392</v>
       </c>
       <c r="B193" t="s">
+        <v>379</v>
+      </c>
+      <c r="C193" t="s">
         <v>380</v>
-      </c>
-      <c r="C193" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4758,10 +4737,10 @@
         <v>267</v>
       </c>
       <c r="B194" t="s">
+        <v>381</v>
+      </c>
+      <c r="C194" t="s">
         <v>382</v>
-      </c>
-      <c r="C194" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4769,10 +4748,10 @@
         <v>430</v>
       </c>
       <c r="B195" t="s">
+        <v>383</v>
+      </c>
+      <c r="C195" t="s">
         <v>384</v>
-      </c>
-      <c r="C195" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4780,568 +4759,568 @@
         <v>212</v>
       </c>
       <c r="B196" t="s">
+        <v>385</v>
+      </c>
+      <c r="C196" t="s">
         <v>386</v>
-      </c>
-      <c r="C196" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="n">
-        <v>284</v>
+        <v>398</v>
       </c>
       <c r="B197" t="s">
+        <v>387</v>
+      </c>
+      <c r="C197" t="s">
         <v>388</v>
-      </c>
-      <c r="C197" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="n">
-        <v>431</v>
+        <v>284</v>
       </c>
       <c r="B198" t="s">
+        <v>389</v>
+      </c>
+      <c r="C198" t="s">
         <v>390</v>
-      </c>
-      <c r="C198" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B199" t="s">
+        <v>391</v>
+      </c>
+      <c r="C199" t="s">
         <v>392</v>
-      </c>
-      <c r="C199" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="n">
-        <v>271</v>
+        <v>432</v>
       </c>
       <c r="B200" t="s">
+        <v>393</v>
+      </c>
+      <c r="C200" t="s">
         <v>394</v>
-      </c>
-      <c r="C200" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="n">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="B201" t="s">
+        <v>395</v>
+      </c>
+      <c r="C201" t="s">
         <v>396</v>
-      </c>
-      <c r="C201" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B202" t="s">
+        <v>397</v>
+      </c>
+      <c r="C202" t="s">
         <v>398</v>
-      </c>
-      <c r="C202" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="n">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="B203" t="s">
+        <v>399</v>
+      </c>
+      <c r="C203" t="s">
         <v>400</v>
-      </c>
-      <c r="C203" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="n">
-        <v>268</v>
+        <v>407</v>
       </c>
       <c r="B204" t="s">
+        <v>401</v>
+      </c>
+      <c r="C204" t="s">
         <v>402</v>
-      </c>
-      <c r="C204" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="n">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="B205" t="s">
+        <v>403</v>
+      </c>
+      <c r="C205" t="s">
         <v>404</v>
-      </c>
-      <c r="C205" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="n">
-        <v>3693</v>
+        <v>3369</v>
       </c>
       <c r="B206" t="s">
+        <v>405</v>
+      </c>
+      <c r="C206" t="s">
         <v>406</v>
-      </c>
-      <c r="C206" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="n">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="B207" t="s">
+        <v>407</v>
+      </c>
+      <c r="C207" t="s">
         <v>408</v>
-      </c>
-      <c r="C207" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="B208" t="s">
+        <v>409</v>
+      </c>
+      <c r="C208" t="s">
         <v>410</v>
-      </c>
-      <c r="C208" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="n">
-        <v>273</v>
+        <v>548</v>
       </c>
       <c r="B209" t="s">
+        <v>411</v>
+      </c>
+      <c r="C209" t="s">
         <v>412</v>
-      </c>
-      <c r="C209" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="n">
-        <v>280</v>
+        <v>3693</v>
       </c>
       <c r="B210" t="s">
+        <v>413</v>
+      </c>
+      <c r="C210" t="s">
         <v>414</v>
-      </c>
-      <c r="C210" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="n">
-        <v>505</v>
+        <v>269</v>
       </c>
       <c r="B211" t="s">
+        <v>415</v>
+      </c>
+      <c r="C211" t="s">
         <v>416</v>
-      </c>
-      <c r="C211" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="n">
-        <v>435</v>
+        <v>270</v>
       </c>
       <c r="B212" t="s">
+        <v>417</v>
+      </c>
+      <c r="C212" t="s">
         <v>418</v>
-      </c>
-      <c r="C212" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="n">
-        <v>394</v>
+        <v>273</v>
       </c>
       <c r="B213" t="s">
+        <v>419</v>
+      </c>
+      <c r="C213" t="s">
         <v>420</v>
-      </c>
-      <c r="C213" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="n">
-        <v>395</v>
+        <v>280</v>
       </c>
       <c r="B214" t="s">
+        <v>421</v>
+      </c>
+      <c r="C214" t="s">
         <v>422</v>
-      </c>
-      <c r="C214" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="n">
-        <v>370</v>
+        <v>505</v>
       </c>
       <c r="B215" t="s">
+        <v>423</v>
+      </c>
+      <c r="C215" t="s">
         <v>424</v>
-      </c>
-      <c r="C215" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="n">
-        <v>3118</v>
+        <v>435</v>
       </c>
       <c r="B216" t="s">
+        <v>425</v>
+      </c>
+      <c r="C216" t="s">
         <v>426</v>
-      </c>
-      <c r="C216" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B217" t="s">
+        <v>427</v>
+      </c>
+      <c r="C217" t="s">
         <v>428</v>
-      </c>
-      <c r="C217" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="n">
-        <v>5566</v>
+        <v>395</v>
       </c>
       <c r="B218" t="s">
+        <v>429</v>
+      </c>
+      <c r="C218" t="s">
         <v>430</v>
-      </c>
-      <c r="C218" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="n">
-        <v>397</v>
+        <v>3118</v>
       </c>
       <c r="B219" t="s">
+        <v>431</v>
+      </c>
+      <c r="C219" t="s">
         <v>432</v>
-      </c>
-      <c r="C219" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="n">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="B220" t="s">
+        <v>433</v>
+      </c>
+      <c r="C220" t="s">
         <v>434</v>
-      </c>
-      <c r="C220" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="n">
-        <v>398</v>
+        <v>5566</v>
       </c>
       <c r="B221" t="s">
+        <v>435</v>
+      </c>
+      <c r="C221" t="s">
         <v>436</v>
-      </c>
-      <c r="C221" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="n">
-        <v>185</v>
+        <v>397</v>
       </c>
       <c r="B222" t="s">
+        <v>437</v>
+      </c>
+      <c r="C222" t="s">
         <v>438</v>
-      </c>
-      <c r="C222" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="n">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="B223" t="s">
+        <v>439</v>
+      </c>
+      <c r="C223" t="s">
         <v>440</v>
-      </c>
-      <c r="C223" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="n">
-        <v>174</v>
+        <v>566</v>
       </c>
       <c r="B224" t="s">
+        <v>441</v>
+      </c>
+      <c r="C224" t="s">
         <v>442</v>
-      </c>
-      <c r="C224" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="n">
-        <v>400</v>
+        <v>185</v>
       </c>
       <c r="B225" t="s">
+        <v>443</v>
+      </c>
+      <c r="C225" t="s">
         <v>444</v>
-      </c>
-      <c r="C225" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="n">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="B226" t="s">
+        <v>445</v>
+      </c>
+      <c r="C226" t="s">
         <v>446</v>
-      </c>
-      <c r="C226" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="n">
-        <v>293</v>
+        <v>174</v>
       </c>
       <c r="B227" t="s">
+        <v>447</v>
+      </c>
+      <c r="C227" t="s">
         <v>448</v>
-      </c>
-      <c r="C227" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="B228" t="s">
+        <v>449</v>
+      </c>
+      <c r="C228" t="s">
         <v>450</v>
-      </c>
-      <c r="C228" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="n">
-        <v>650</v>
+        <v>322</v>
       </c>
       <c r="B229" t="s">
+        <v>451</v>
+      </c>
+      <c r="C229" t="s">
         <v>452</v>
-      </c>
-      <c r="C229" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="n">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="B230" t="s">
+        <v>453</v>
+      </c>
+      <c r="C230" t="s">
         <v>454</v>
-      </c>
-      <c r="C230" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="n">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="B231" t="s">
+        <v>455</v>
+      </c>
+      <c r="C231" t="s">
         <v>456</v>
-      </c>
-      <c r="C231" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="n">
-        <v>279</v>
+        <v>650</v>
       </c>
       <c r="B232" t="s">
+        <v>457</v>
+      </c>
+      <c r="C232" t="s">
         <v>458</v>
-      </c>
-      <c r="C232" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="n">
-        <v>368</v>
+        <v>249</v>
       </c>
       <c r="B233" t="s">
+        <v>459</v>
+      </c>
+      <c r="C233" t="s">
         <v>460</v>
-      </c>
-      <c r="C233" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="n">
-        <v>563</v>
+        <v>238</v>
       </c>
       <c r="B234" t="s">
+        <v>461</v>
+      </c>
+      <c r="C234" t="s">
         <v>462</v>
-      </c>
-      <c r="C234" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="n">
-        <v>532</v>
+        <v>279</v>
       </c>
       <c r="B235" t="s">
+        <v>463</v>
+      </c>
+      <c r="C235" t="s">
         <v>464</v>
-      </c>
-      <c r="C235" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="n">
-        <v>285</v>
+        <v>368</v>
       </c>
       <c r="B236" t="s">
+        <v>465</v>
+      </c>
+      <c r="C236" t="s">
         <v>466</v>
-      </c>
-      <c r="C236" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="n">
-        <v>298</v>
+        <v>563</v>
       </c>
       <c r="B237" t="s">
+        <v>467</v>
+      </c>
+      <c r="C237" t="s">
         <v>468</v>
-      </c>
-      <c r="C237" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="n">
-        <v>1913</v>
+        <v>532</v>
       </c>
       <c r="B238" t="s">
+        <v>469</v>
+      </c>
+      <c r="C238" t="s">
         <v>470</v>
-      </c>
-      <c r="C238" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="n">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="B239" t="s">
+        <v>471</v>
+      </c>
+      <c r="C239" t="s">
         <v>472</v>
-      </c>
-      <c r="C239" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B240" t="s">
+        <v>473</v>
+      </c>
+      <c r="C240" t="s">
         <v>474</v>
-      </c>
-      <c r="C240" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="n">
-        <v>3568</v>
+        <v>1913</v>
       </c>
       <c r="B241" t="s">
+        <v>475</v>
+      </c>
+      <c r="C241" t="s">
         <v>476</v>
-      </c>
-      <c r="C241" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="n">
-        <v>405</v>
+        <v>181</v>
       </c>
       <c r="B242" t="s">
+        <v>477</v>
+      </c>
+      <c r="C242" t="s">
         <v>478</v>
-      </c>
-      <c r="C242" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="n">
-        <v>3340</v>
+        <v>288</v>
       </c>
       <c r="B243" t="s">
+        <v>479</v>
+      </c>
+      <c r="C243" t="s">
         <v>480</v>
-      </c>
-      <c r="C243" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="n">
-        <v>406</v>
+        <v>3568</v>
       </c>
       <c r="B244" t="s">
+        <v>481</v>
+      </c>
+      <c r="C244" t="s">
         <v>482</v>
-      </c>
-      <c r="C244" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="n">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="B245" t="s">
+        <v>483</v>
+      </c>
+      <c r="C245" t="s">
         <v>484</v>
-      </c>
-      <c r="C245" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="n">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="B246" t="s">
+        <v>485</v>
+      </c>
+      <c r="C246" t="s">
         <v>486</v>
-      </c>
-      <c r="C246" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="n">
-        <v>216</v>
+        <v>3340</v>
       </c>
       <c r="B247" t="s">
-        <v>410</v>
+        <v>487</v>
       </c>
       <c r="C247" t="s">
         <v>488</v>
@@ -5349,7 +5328,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="n">
-        <v>225</v>
+        <v>389</v>
       </c>
       <c r="B248" t="s">
         <v>489</v>
@@ -5360,7 +5339,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="n">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="B249" t="s">
         <v>491</v>
@@ -5371,76 +5350,76 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="n">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="B250" t="s">
+        <v>417</v>
+      </c>
+      <c r="C250" t="s">
         <v>493</v>
-      </c>
-      <c r="C250" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="n">
-        <v>328</v>
+        <v>225</v>
       </c>
       <c r="B251" t="s">
+        <v>494</v>
+      </c>
+      <c r="C251" t="s">
         <v>495</v>
-      </c>
-      <c r="C251" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="n">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="B252" t="s">
+        <v>496</v>
+      </c>
+      <c r="C252" t="s">
         <v>497</v>
-      </c>
-      <c r="C252" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="n">
-        <v>3212</v>
+        <v>294</v>
       </c>
       <c r="B253" t="s">
+        <v>498</v>
+      </c>
+      <c r="C253" t="s">
         <v>499</v>
-      </c>
-      <c r="C253" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="n">
-        <v>3326</v>
+        <v>328</v>
       </c>
       <c r="B254" t="s">
+        <v>500</v>
+      </c>
+      <c r="C254" t="s">
         <v>501</v>
-      </c>
-      <c r="C254" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="n">
-        <v>3342</v>
+        <v>201</v>
       </c>
       <c r="B255" t="s">
+        <v>502</v>
+      </c>
+      <c r="C255" t="s">
         <v>503</v>
-      </c>
-      <c r="C255" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="n">
-        <v>179</v>
+        <v>3212</v>
       </c>
       <c r="B256" t="s">
-        <v>279</v>
+        <v>504</v>
       </c>
       <c r="C256" t="s">
         <v>505</v>
@@ -5448,7 +5427,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="n">
-        <v>146</v>
+        <v>3342</v>
       </c>
       <c r="B257" t="s">
         <v>506</v>
@@ -5459,164 +5438,164 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="n">
-        <v>437</v>
+        <v>179</v>
       </c>
       <c r="B258" t="s">
+        <v>275</v>
+      </c>
+      <c r="C258" t="s">
         <v>508</v>
-      </c>
-      <c r="C258" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="n">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="B259" t="s">
+        <v>509</v>
+      </c>
+      <c r="C259" t="s">
         <v>510</v>
-      </c>
-      <c r="C259" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="n">
-        <v>558</v>
+        <v>437</v>
       </c>
       <c r="B260" t="s">
+        <v>511</v>
+      </c>
+      <c r="C260" t="s">
         <v>512</v>
-      </c>
-      <c r="C260" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="n">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="B261" t="s">
+        <v>513</v>
+      </c>
+      <c r="C261" t="s">
         <v>514</v>
-      </c>
-      <c r="C261" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="n">
-        <v>507</v>
+        <v>558</v>
       </c>
       <c r="B262" t="s">
+        <v>515</v>
+      </c>
+      <c r="C262" t="s">
         <v>516</v>
-      </c>
-      <c r="C262" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="n">
-        <v>333</v>
+        <v>148</v>
       </c>
       <c r="B263" t="s">
+        <v>517</v>
+      </c>
+      <c r="C263" t="s">
         <v>518</v>
-      </c>
-      <c r="C263" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="n">
-        <v>338</v>
+        <v>507</v>
       </c>
       <c r="B264" t="s">
+        <v>519</v>
+      </c>
+      <c r="C264" t="s">
         <v>520</v>
-      </c>
-      <c r="C264" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="n">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="B265" t="s">
+        <v>521</v>
+      </c>
+      <c r="C265" t="s">
         <v>522</v>
-      </c>
-      <c r="C265" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="n">
-        <v>438</v>
+        <v>338</v>
       </c>
       <c r="B266" t="s">
+        <v>523</v>
+      </c>
+      <c r="C266" t="s">
         <v>524</v>
-      </c>
-      <c r="C266" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="n">
-        <v>561</v>
+        <v>190</v>
       </c>
       <c r="B267" t="s">
+        <v>525</v>
+      </c>
+      <c r="C267" t="s">
         <v>526</v>
-      </c>
-      <c r="C267" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="n">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="B268" t="s">
+        <v>527</v>
+      </c>
+      <c r="C268" t="s">
         <v>528</v>
-      </c>
-      <c r="C268" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="n">
-        <v>341</v>
+        <v>561</v>
       </c>
       <c r="B269" t="s">
+        <v>529</v>
+      </c>
+      <c r="C269" t="s">
         <v>530</v>
-      </c>
-      <c r="C269" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="n">
-        <v>152</v>
+        <v>562</v>
       </c>
       <c r="B270" t="s">
+        <v>531</v>
+      </c>
+      <c r="C270" t="s">
         <v>532</v>
-      </c>
-      <c r="C270" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="n">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="B271" t="s">
+        <v>533</v>
+      </c>
+      <c r="C271" t="s">
         <v>534</v>
-      </c>
-      <c r="C271" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="n">
-        <v>304</v>
+        <v>152</v>
       </c>
       <c r="B272" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="C272" t="s">
         <v>536</v>
@@ -5624,7 +5603,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="n">
-        <v>343</v>
+        <v>509</v>
       </c>
       <c r="B273" t="s">
         <v>537</v>
@@ -5635,222 +5614,222 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="n">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B274" t="s">
+        <v>519</v>
+      </c>
+      <c r="C274" t="s">
         <v>539</v>
-      </c>
-      <c r="C274" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B275" t="s">
+        <v>540</v>
+      </c>
+      <c r="C275" t="s">
         <v>541</v>
-      </c>
-      <c r="C275" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B276" t="s">
+        <v>542</v>
+      </c>
+      <c r="C276" t="s">
         <v>543</v>
-      </c>
-      <c r="C276" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="n">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="B277" t="s">
+        <v>544</v>
+      </c>
+      <c r="C277" t="s">
         <v>545</v>
-      </c>
-      <c r="C277" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="n">
-        <v>559</v>
+        <v>153</v>
       </c>
       <c r="B278" t="s">
+        <v>546</v>
+      </c>
+      <c r="C278" t="s">
         <v>547</v>
-      </c>
-      <c r="C278" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="n">
-        <v>3341</v>
+        <v>559</v>
       </c>
       <c r="B279" t="s">
-        <v>549</v>
+        <v>411</v>
       </c>
       <c r="C279" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="n">
-        <v>301</v>
+        <v>3341</v>
       </c>
       <c r="B280" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C280" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="n">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="B281" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C281" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="n">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="B282" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C282" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B283" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C283" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="n">
-        <v>354</v>
+        <v>234</v>
       </c>
       <c r="B284" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C284" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="n">
+        <v>354</v>
+      </c>
+      <c r="B285" t="s">
+        <v>559</v>
+      </c>
+      <c r="C285" t="s">
         <v>560</v>
-      </c>
-      <c r="B285" t="s">
-        <v>561</v>
-      </c>
-      <c r="C285" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="n">
-        <v>357</v>
+        <v>560</v>
       </c>
       <c r="B286" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C286" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B287" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C287" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B288" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C288" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="n">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B289" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C289" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="n">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B290" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C290" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="n">
-        <v>557</v>
+        <v>369</v>
       </c>
       <c r="B291" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C291" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="n">
-        <v>194</v>
+        <v>557</v>
       </c>
       <c r="B292" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C292" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="n">
-        <v>303</v>
+        <v>194</v>
       </c>
       <c r="B293" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C293" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5858,10 +5837,10 @@
         <v>210</v>
       </c>
       <c r="B294" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C294" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5869,10 +5848,10 @@
         <v>326</v>
       </c>
       <c r="B295" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C295" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5880,10 +5859,10 @@
         <v>202</v>
       </c>
       <c r="B296" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C296" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5891,10 +5870,10 @@
         <v>186</v>
       </c>
       <c r="B297" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C297" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5902,10 +5881,10 @@
         <v>302</v>
       </c>
       <c r="B298" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C298" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5913,10 +5892,10 @@
         <v>565</v>
       </c>
       <c r="B299" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C299" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5924,10 +5903,10 @@
         <v>374</v>
       </c>
       <c r="B300" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C300" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5935,21 +5914,21 @@
         <v>440</v>
       </c>
       <c r="B301" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C301" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="n">
-        <v>232</v>
+        <v>443</v>
       </c>
       <c r="B302" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C302" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5957,21 +5936,21 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C303" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="n">
-        <v>3873</v>
+        <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C304" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5979,10 +5958,10 @@
         <v>167</v>
       </c>
       <c r="B305" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C305" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5990,10 +5969,10 @@
         <v>381</v>
       </c>
       <c r="B306" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C306" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6001,10 +5980,10 @@
         <v>160</v>
       </c>
       <c r="B307" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C307" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6012,10 +5991,10 @@
         <v>3727</v>
       </c>
       <c r="B308" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C308" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6023,10 +6002,10 @@
         <v>1827</v>
       </c>
       <c r="B309" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C309" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6034,10 +6013,10 @@
         <v>575</v>
       </c>
       <c r="B310" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C310" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6045,10 +6024,10 @@
         <v>3883</v>
       </c>
       <c r="B311" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C311" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6056,21 +6035,21 @@
         <v>237</v>
       </c>
       <c r="B312" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C312" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="n">
-        <v>443</v>
+        <v>3873</v>
       </c>
       <c r="B313" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C313" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6078,10 +6057,10 @@
         <v>444</v>
       </c>
       <c r="B314" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C314" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6089,10 +6068,10 @@
         <v>530</v>
       </c>
       <c r="B315" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C315" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6100,10 +6079,10 @@
         <v>4078</v>
       </c>
       <c r="B316" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C316" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6111,10 +6090,10 @@
         <v>445</v>
       </c>
       <c r="B317" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C317" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6122,10 +6101,10 @@
         <v>208</v>
       </c>
       <c r="B318" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C318" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6133,10 +6112,10 @@
         <v>163</v>
       </c>
       <c r="B319" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C319" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6144,392 +6123,392 @@
         <v>200</v>
       </c>
       <c r="B320" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C320" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="n">
-        <v>566</v>
+        <v>182</v>
       </c>
       <c r="B321" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C321" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="n">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="B322" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C322" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="n">
-        <v>182</v>
+        <v>564</v>
       </c>
       <c r="B323" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C323" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="n">
-        <v>447</v>
+        <v>4095</v>
       </c>
       <c r="B324" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C324" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="n">
-        <v>564</v>
+        <v>2209</v>
       </c>
       <c r="B325" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C325" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="n">
-        <v>205</v>
+        <v>448</v>
       </c>
       <c r="B326" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C326" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="n">
-        <v>4095</v>
+        <v>567</v>
       </c>
       <c r="B327" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C327" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="n">
-        <v>3369</v>
+        <v>555</v>
       </c>
       <c r="B328" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C328" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="n">
-        <v>2209</v>
+        <v>568</v>
       </c>
       <c r="B329" t="s">
+        <v>647</v>
+      </c>
+      <c r="C329" t="s">
         <v>648</v>
-      </c>
-      <c r="C329" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="n">
-        <v>448</v>
+        <v>235</v>
       </c>
       <c r="B330" t="s">
+        <v>649</v>
+      </c>
+      <c r="C330" t="s">
         <v>650</v>
-      </c>
-      <c r="C330" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="n">
-        <v>567</v>
+        <v>510</v>
       </c>
       <c r="B331" t="s">
+        <v>651</v>
+      </c>
+      <c r="C331" t="s">
         <v>652</v>
-      </c>
-      <c r="C331" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="n">
-        <v>555</v>
+        <v>276</v>
       </c>
       <c r="B332" t="s">
+        <v>653</v>
+      </c>
+      <c r="C332" t="s">
         <v>654</v>
-      </c>
-      <c r="C332" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="n">
-        <v>568</v>
+        <v>3368</v>
       </c>
       <c r="B333" t="s">
+        <v>655</v>
+      </c>
+      <c r="C333" t="s">
         <v>656</v>
-      </c>
-      <c r="C333" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="n">
-        <v>235</v>
+        <v>3326</v>
       </c>
       <c r="B334" t="s">
+        <v>657</v>
+      </c>
+      <c r="C334" t="s">
         <v>658</v>
-      </c>
-      <c r="C334" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B335" t="s">
+        <v>659</v>
+      </c>
+      <c r="C335" t="s">
         <v>660</v>
-      </c>
-      <c r="C335" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="n">
-        <v>276</v>
+        <v>450</v>
       </c>
       <c r="B336" t="s">
+        <v>661</v>
+      </c>
+      <c r="C336" t="s">
         <v>662</v>
-      </c>
-      <c r="C336" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="n">
-        <v>3368</v>
+        <v>192</v>
       </c>
       <c r="B337" t="s">
+        <v>663</v>
+      </c>
+      <c r="C337" t="s">
         <v>664</v>
-      </c>
-      <c r="C337" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="n">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="B338" t="s">
+        <v>665</v>
+      </c>
+      <c r="C338" t="s">
         <v>666</v>
-      </c>
-      <c r="C338" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="n">
-        <v>511</v>
+        <v>197</v>
       </c>
       <c r="B339" t="s">
+        <v>667</v>
+      </c>
+      <c r="C339" t="s">
         <v>668</v>
-      </c>
-      <c r="C339" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="n">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B340" t="s">
+        <v>669</v>
+      </c>
+      <c r="C340" t="s">
         <v>670</v>
-      </c>
-      <c r="C340" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="n">
-        <v>192</v>
+        <v>513</v>
       </c>
       <c r="B341" t="s">
+        <v>671</v>
+      </c>
+      <c r="C341" t="s">
         <v>672</v>
-      </c>
-      <c r="C341" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="n">
-        <v>171</v>
+        <v>4457</v>
       </c>
       <c r="B342" t="s">
+        <v>673</v>
+      </c>
+      <c r="C342" t="s">
         <v>674</v>
-      </c>
-      <c r="C342" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="n">
-        <v>197</v>
+        <v>4137</v>
       </c>
       <c r="B343" t="s">
+        <v>675</v>
+      </c>
+      <c r="C343" t="s">
         <v>676</v>
-      </c>
-      <c r="C343" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="n">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B344" t="s">
+        <v>677</v>
+      </c>
+      <c r="C344" t="s">
         <v>678</v>
-      </c>
-      <c r="C344" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="n">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="B345" t="s">
+        <v>679</v>
+      </c>
+      <c r="C345" t="s">
         <v>680</v>
-      </c>
-      <c r="C345" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="n">
-        <v>4457</v>
+        <v>175</v>
       </c>
       <c r="B346" t="s">
+        <v>681</v>
+      </c>
+      <c r="C346" t="s">
         <v>682</v>
-      </c>
-      <c r="C346" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="n">
-        <v>4137</v>
+        <v>514</v>
       </c>
       <c r="B347" t="s">
+        <v>683</v>
+      </c>
+      <c r="C347" t="s">
         <v>684</v>
-      </c>
-      <c r="C347" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="n">
-        <v>451</v>
+        <v>4067</v>
       </c>
       <c r="B348" t="s">
+        <v>685</v>
+      </c>
+      <c r="C348" t="s">
         <v>686</v>
-      </c>
-      <c r="C348" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="n">
-        <v>569</v>
+        <v>300</v>
       </c>
       <c r="B349" t="s">
+        <v>687</v>
+      </c>
+      <c r="C349" t="s">
         <v>688</v>
-      </c>
-      <c r="C349" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="n">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B350" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="C350" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="n">
-        <v>514</v>
+        <v>378</v>
       </c>
       <c r="B351" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C351" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="n">
-        <v>4067</v>
+        <v>2208</v>
       </c>
       <c r="B352" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C352" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="n">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="B353" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C353" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="n">
-        <v>162</v>
+        <v>570</v>
       </c>
       <c r="B354" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="C354" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="n">
-        <v>375</v>
+        <v>204</v>
       </c>
       <c r="B355" t="s">
-        <v>452</v>
+        <v>698</v>
       </c>
       <c r="C355" t="s">
         <v>699</v>
@@ -6537,7 +6516,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="n">
-        <v>378</v>
+        <v>531</v>
       </c>
       <c r="B356" t="s">
         <v>700</v>
@@ -6548,7 +6527,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="n">
-        <v>2208</v>
+        <v>266</v>
       </c>
       <c r="B357" t="s">
         <v>702</v>
@@ -6559,7 +6538,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="n">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="B358" t="s">
         <v>704</v>
@@ -6570,7 +6549,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="n">
-        <v>570</v>
+        <v>375</v>
       </c>
       <c r="B359" t="s">
         <v>706</v>
@@ -6581,7 +6560,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="n">
-        <v>204</v>
+        <v>416</v>
       </c>
       <c r="B360" t="s">
         <v>708</v>
@@ -6592,7 +6571,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="n">
-        <v>531</v>
+        <v>246</v>
       </c>
       <c r="B361" t="s">
         <v>710</v>
@@ -6603,7 +6582,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="n">
-        <v>266</v>
+        <v>4420</v>
       </c>
       <c r="B362" t="s">
         <v>712</v>
@@ -6614,7 +6593,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="n">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="B363" t="s">
         <v>714</v>
@@ -6625,7 +6604,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="n">
-        <v>416</v>
+        <v>2028</v>
       </c>
       <c r="B364" t="s">
         <v>716</v>
@@ -6636,7 +6615,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="n">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B365" t="s">
         <v>718</v>
@@ -6647,7 +6626,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="n">
-        <v>4420</v>
+        <v>572</v>
       </c>
       <c r="B366" t="s">
         <v>720</v>
@@ -6658,7 +6637,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="n">
-        <v>453</v>
+        <v>316</v>
       </c>
       <c r="B367" t="s">
         <v>722</v>
@@ -6669,7 +6648,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="n">
-        <v>2028</v>
+        <v>454</v>
       </c>
       <c r="B368" t="s">
         <v>724</v>
@@ -6680,7 +6659,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="n">
-        <v>229</v>
+        <v>2206</v>
       </c>
       <c r="B369" t="s">
         <v>726</v>
@@ -6691,7 +6670,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="n">
-        <v>572</v>
+        <v>442</v>
       </c>
       <c r="B370" t="s">
         <v>728</v>
@@ -6702,54 +6681,54 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="n">
-        <v>316</v>
+        <v>211</v>
       </c>
       <c r="B371" t="s">
+        <v>73</v>
+      </c>
+      <c r="C371" t="s">
         <v>730</v>
-      </c>
-      <c r="C371" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="n">
-        <v>454</v>
+        <v>574</v>
       </c>
       <c r="B372" t="s">
+        <v>731</v>
+      </c>
+      <c r="C372" t="s">
         <v>732</v>
-      </c>
-      <c r="C372" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="n">
-        <v>2206</v>
+        <v>247</v>
       </c>
       <c r="B373" t="s">
+        <v>733</v>
+      </c>
+      <c r="C373" t="s">
         <v>734</v>
-      </c>
-      <c r="C373" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="n">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="B374" t="s">
+        <v>735</v>
+      </c>
+      <c r="C374" t="s">
         <v>736</v>
-      </c>
-      <c r="C374" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="n">
-        <v>211</v>
+        <v>476</v>
       </c>
       <c r="B375" t="s">
-        <v>75</v>
+        <v>737</v>
       </c>
       <c r="C375" t="s">
         <v>738</v>
@@ -6757,7 +6736,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="n">
-        <v>574</v>
+        <v>233</v>
       </c>
       <c r="B376" t="s">
         <v>739</v>
@@ -6768,7 +6747,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="n">
-        <v>247</v>
+        <v>573</v>
       </c>
       <c r="B377" t="s">
         <v>741</v>
@@ -6779,7 +6758,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="n">
-        <v>503</v>
+        <v>383</v>
       </c>
       <c r="B378" t="s">
         <v>743</v>
@@ -6790,7 +6769,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="n">
-        <v>476</v>
+        <v>206</v>
       </c>
       <c r="B379" t="s">
         <v>745</v>
@@ -6801,7 +6780,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="n">
-        <v>233</v>
+        <v>6091</v>
       </c>
       <c r="B380" t="s">
         <v>747</v>
@@ -6812,46 +6791,13 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="n">
-        <v>573</v>
+        <v>5512</v>
       </c>
       <c r="B381" t="s">
+        <v>328</v>
+      </c>
+      <c r="C381" t="s">
         <v>749</v>
-      </c>
-      <c r="C381" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382" t="n">
-        <v>383</v>
-      </c>
-      <c r="B382" t="s">
-        <v>751</v>
-      </c>
-      <c r="C382" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="A383" t="n">
-        <v>206</v>
-      </c>
-      <c r="B383" t="s">
-        <v>753</v>
-      </c>
-      <c r="C383" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" t="n">
-        <v>5512</v>
-      </c>
-      <c r="B384" t="s">
-        <v>755</v>
-      </c>
-      <c r="C384" t="s">
-        <v>756</v>
       </c>
     </row>
   </sheetData>

--- a/project/Python/yilaitong/郑州所有商家.xlsx
+++ b/project/Python/yilaitong/郑州所有商家.xlsx
@@ -651,252 +651,255 @@
     <t>2A38</t>
   </si>
   <si>
+    <t>鸿业通讯</t>
+  </si>
+  <si>
+    <t>2A39</t>
+  </si>
+  <si>
+    <t>飞天通讯</t>
+  </si>
+  <si>
+    <t>2A40A</t>
+  </si>
+  <si>
+    <t>中圣通讯</t>
+  </si>
+  <si>
+    <t>2A41</t>
+  </si>
+  <si>
+    <t>新龙威</t>
+  </si>
+  <si>
+    <t>2A42</t>
+  </si>
+  <si>
+    <t>聚翼通</t>
+  </si>
+  <si>
+    <t>2A43</t>
+  </si>
+  <si>
+    <t>金阳光</t>
+  </si>
+  <si>
+    <t>2A44</t>
+  </si>
+  <si>
+    <t>豫洲通讯</t>
+  </si>
+  <si>
+    <t>2A45</t>
+  </si>
+  <si>
+    <t>正兴通讯</t>
+  </si>
+  <si>
+    <t>2A46</t>
+  </si>
+  <si>
+    <t>誉达科贸</t>
+  </si>
+  <si>
+    <t>2A47</t>
+  </si>
+  <si>
+    <t>黎纳通讯</t>
+  </si>
+  <si>
+    <t>2A48</t>
+  </si>
+  <si>
+    <t>诚毅电子</t>
+  </si>
+  <si>
+    <t>2A49</t>
+  </si>
+  <si>
+    <t>创新时代</t>
+  </si>
+  <si>
+    <t>2A50</t>
+  </si>
+  <si>
+    <t>威铭通讯</t>
+  </si>
+  <si>
+    <t>2A51</t>
+  </si>
+  <si>
+    <t>揽日通讯</t>
+  </si>
+  <si>
+    <t>2A52</t>
+  </si>
+  <si>
+    <t>誉佳通讯</t>
+  </si>
+  <si>
+    <t>2A53</t>
+  </si>
+  <si>
+    <t>霖鑫通讯</t>
+  </si>
+  <si>
+    <t>2A54</t>
+  </si>
+  <si>
+    <t>乐信通讯</t>
+  </si>
+  <si>
+    <t>2B02</t>
+  </si>
+  <si>
+    <t>弘博商贸</t>
+  </si>
+  <si>
+    <t>2B03</t>
+  </si>
+  <si>
+    <t>润杰通讯</t>
+  </si>
+  <si>
+    <t>2B05</t>
+  </si>
+  <si>
+    <t>众宏通讯</t>
+  </si>
+  <si>
+    <t>2B07</t>
+  </si>
+  <si>
+    <t>安东通讯</t>
+  </si>
+  <si>
+    <t>2B08</t>
+  </si>
+  <si>
+    <t>汇金通讯</t>
+  </si>
+  <si>
+    <t>2B09</t>
+  </si>
+  <si>
+    <t>万达通讯</t>
+  </si>
+  <si>
+    <t>2B10</t>
+  </si>
+  <si>
+    <t>科贸通讯</t>
+  </si>
+  <si>
+    <t>2B12</t>
+  </si>
+  <si>
+    <t>天宇通讯</t>
+  </si>
+  <si>
+    <t>2B13</t>
+  </si>
+  <si>
+    <t>三鑫通讯</t>
+  </si>
+  <si>
+    <t>2B14</t>
+  </si>
+  <si>
+    <t>华尚通讯</t>
+  </si>
+  <si>
+    <t>2B15-16</t>
+  </si>
+  <si>
+    <t>骆驼通讯</t>
+  </si>
+  <si>
+    <t>2B17</t>
+  </si>
+  <si>
+    <t>华厦通讯</t>
+  </si>
+  <si>
+    <t>2B20</t>
+  </si>
+  <si>
+    <t>萌兴通讯</t>
+  </si>
+  <si>
+    <t>2B21</t>
+  </si>
+  <si>
+    <t>汇通通讯</t>
+  </si>
+  <si>
+    <t>2B22</t>
+  </si>
+  <si>
+    <t>谦和通讯</t>
+  </si>
+  <si>
+    <t>2B23</t>
+  </si>
+  <si>
+    <t>大唐通讯</t>
+  </si>
+  <si>
+    <t>2B24</t>
+  </si>
+  <si>
+    <t>红鑫通讯</t>
+  </si>
+  <si>
+    <t>2B27</t>
+  </si>
+  <si>
+    <t>通盛通讯</t>
+  </si>
+  <si>
+    <t>2B28</t>
+  </si>
+  <si>
+    <t>海峡通讯</t>
+  </si>
+  <si>
+    <t>2B28A</t>
+  </si>
+  <si>
+    <t>万亿通讯</t>
+  </si>
+  <si>
+    <t>2B30</t>
+  </si>
+  <si>
+    <t>腾翔通讯</t>
+  </si>
+  <si>
+    <t>2B31</t>
+  </si>
+  <si>
+    <t>亿诺通讯</t>
+  </si>
+  <si>
+    <t>2B32</t>
+  </si>
+  <si>
+    <t>世程通讯</t>
+  </si>
+  <si>
+    <t>2B33</t>
+  </si>
+  <si>
+    <t>飞越通讯</t>
+  </si>
+  <si>
+    <t>2B34</t>
+  </si>
+  <si>
     <t>宏宇通讯</t>
   </si>
   <si>
-    <t>2A40</t>
-  </si>
-  <si>
-    <t>飞天通讯</t>
-  </si>
-  <si>
-    <t>2A40A</t>
-  </si>
-  <si>
-    <t>中圣通讯</t>
-  </si>
-  <si>
-    <t>2A41</t>
-  </si>
-  <si>
-    <t>新龙威</t>
-  </si>
-  <si>
-    <t>2A42</t>
-  </si>
-  <si>
-    <t>聚翼通</t>
-  </si>
-  <si>
-    <t>2A43</t>
-  </si>
-  <si>
-    <t>金阳光</t>
-  </si>
-  <si>
-    <t>2A44</t>
-  </si>
-  <si>
-    <t>豫洲通讯</t>
-  </si>
-  <si>
-    <t>2A45</t>
-  </si>
-  <si>
-    <t>正兴通讯</t>
-  </si>
-  <si>
-    <t>2A46</t>
-  </si>
-  <si>
-    <t>誉达科贸</t>
-  </si>
-  <si>
-    <t>2A47</t>
-  </si>
-  <si>
-    <t>黎纳通讯</t>
-  </si>
-  <si>
-    <t>2A48</t>
-  </si>
-  <si>
-    <t>诚毅电子</t>
-  </si>
-  <si>
-    <t>2A49</t>
-  </si>
-  <si>
-    <t>创新时代</t>
-  </si>
-  <si>
-    <t>2A50</t>
-  </si>
-  <si>
-    <t>威铭通讯</t>
-  </si>
-  <si>
-    <t>2A51</t>
-  </si>
-  <si>
-    <t>揽日通讯</t>
-  </si>
-  <si>
-    <t>2A52</t>
-  </si>
-  <si>
-    <t>誉佳通讯</t>
-  </si>
-  <si>
-    <t>2A53</t>
-  </si>
-  <si>
-    <t>霖鑫通讯</t>
-  </si>
-  <si>
-    <t>2A54</t>
-  </si>
-  <si>
-    <t>乐信通讯</t>
-  </si>
-  <si>
-    <t>2B02</t>
-  </si>
-  <si>
-    <t>弘博商贸</t>
-  </si>
-  <si>
-    <t>2B03</t>
-  </si>
-  <si>
-    <t>润杰通讯</t>
-  </si>
-  <si>
-    <t>2B05</t>
-  </si>
-  <si>
-    <t>众宏通讯</t>
-  </si>
-  <si>
-    <t>2B07</t>
-  </si>
-  <si>
-    <t>安东通讯</t>
-  </si>
-  <si>
-    <t>2B08</t>
-  </si>
-  <si>
-    <t>汇金通讯</t>
-  </si>
-  <si>
-    <t>2B09</t>
-  </si>
-  <si>
-    <t>万达通讯</t>
-  </si>
-  <si>
-    <t>2B10</t>
-  </si>
-  <si>
-    <t>科贸通讯</t>
-  </si>
-  <si>
-    <t>2B12</t>
-  </si>
-  <si>
-    <t>天宇通讯</t>
-  </si>
-  <si>
-    <t>2B13</t>
-  </si>
-  <si>
-    <t>三鑫通讯</t>
-  </si>
-  <si>
-    <t>2B14</t>
-  </si>
-  <si>
-    <t>华尚通讯</t>
-  </si>
-  <si>
-    <t>2B15-16</t>
-  </si>
-  <si>
-    <t>骆驼通讯</t>
-  </si>
-  <si>
-    <t>2B17</t>
-  </si>
-  <si>
-    <t>华厦通讯</t>
-  </si>
-  <si>
-    <t>2B20</t>
-  </si>
-  <si>
-    <t>萌兴通讯</t>
-  </si>
-  <si>
-    <t>2B21</t>
-  </si>
-  <si>
-    <t>汇通通讯</t>
-  </si>
-  <si>
-    <t>2B22</t>
-  </si>
-  <si>
-    <t>谦和通讯</t>
-  </si>
-  <si>
-    <t>2B23</t>
-  </si>
-  <si>
-    <t>大唐通讯</t>
-  </si>
-  <si>
-    <t>2B24</t>
-  </si>
-  <si>
-    <t>红鑫通讯</t>
-  </si>
-  <si>
-    <t>2B27</t>
-  </si>
-  <si>
-    <t>通盛通讯</t>
-  </si>
-  <si>
-    <t>2B28</t>
-  </si>
-  <si>
-    <t>海峡通讯</t>
-  </si>
-  <si>
-    <t>2B28A</t>
-  </si>
-  <si>
-    <t>万亿通讯</t>
-  </si>
-  <si>
-    <t>2B30</t>
-  </si>
-  <si>
-    <t>腾翔通讯</t>
-  </si>
-  <si>
-    <t>2B31</t>
-  </si>
-  <si>
-    <t>亿诺通讯</t>
-  </si>
-  <si>
-    <t>2B32</t>
-  </si>
-  <si>
-    <t>世程通讯</t>
-  </si>
-  <si>
-    <t>2B33</t>
-  </si>
-  <si>
-    <t>飞越通讯</t>
-  </si>
-  <si>
-    <t>2B34</t>
-  </si>
-  <si>
     <t>2B36</t>
   </si>
   <si>
@@ -1131,7 +1134,7 @@
     <t>2C39</t>
   </si>
   <si>
-    <t>豫信通讯</t>
+    <t>3G时代OV部</t>
   </si>
   <si>
     <t>2C40</t>
@@ -1377,15 +1380,12 @@
     <t>2D25</t>
   </si>
   <si>
-    <t>豫达通讯</t>
+    <t>金马通讯</t>
   </si>
   <si>
     <t>2D26</t>
   </si>
   <si>
-    <t>金马通讯</t>
-  </si>
-  <si>
     <t>2D26A</t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
     <t>郑州新星</t>
   </si>
   <si>
-    <t>3A11</t>
+    <t>3A12</t>
   </si>
   <si>
     <t>利鑫通讯</t>
@@ -1563,10 +1563,10 @@
     <t>3A14</t>
   </si>
   <si>
-    <t>凯信科贸</t>
-  </si>
-  <si>
-    <t>3A17</t>
+    <t>兄弟联盟</t>
+  </si>
+  <si>
+    <t>3A15</t>
   </si>
   <si>
     <t>志诚通讯</t>
@@ -1851,7 +1851,7 @@
     <t>3B33</t>
   </si>
   <si>
-    <t>鹏程通讯</t>
+    <t>虹阳通讯</t>
   </si>
   <si>
     <t>3B34</t>
@@ -1965,10 +1965,10 @@
     <t>3C38</t>
   </si>
   <si>
-    <t>东利伟业</t>
-  </si>
-  <si>
-    <t>3C39-40</t>
+    <t>东利源升</t>
+  </si>
+  <si>
+    <t>3C39</t>
   </si>
   <si>
     <t>飞虹通讯</t>
@@ -4242,10 +4242,10 @@
         <v>346</v>
       </c>
       <c r="B149" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="C149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4253,10 +4253,10 @@
         <v>363</v>
       </c>
       <c r="B150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4264,10 +4264,10 @@
         <v>256</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C151" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4275,10 +4275,10 @@
         <v>258</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C152" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4286,10 +4286,10 @@
         <v>534</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4297,10 +4297,10 @@
         <v>2530</v>
       </c>
       <c r="B154" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4308,10 +4308,10 @@
         <v>538</v>
       </c>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4319,10 +4319,10 @@
         <v>184</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C156" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4330,10 +4330,10 @@
         <v>274</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C157" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4341,10 +4341,10 @@
         <v>547</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4352,10 +4352,10 @@
         <v>583</v>
       </c>
       <c r="B159" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C159" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4363,10 +4363,10 @@
         <v>278</v>
       </c>
       <c r="B160" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C160" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4374,10 +4374,10 @@
         <v>3772</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C161" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4385,10 +4385,10 @@
         <v>541</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C162" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4396,10 +4396,10 @@
         <v>393</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C163" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4407,10 +4407,10 @@
         <v>261</v>
       </c>
       <c r="B164" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C164" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4418,10 +4418,10 @@
         <v>544</v>
       </c>
       <c r="B165" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C165" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4429,10 +4429,10 @@
         <v>193</v>
       </c>
       <c r="B166" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C166" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4440,10 +4440,10 @@
         <v>535</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C167" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4451,10 +4451,10 @@
         <v>549</v>
       </c>
       <c r="B168" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C168" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4462,10 +4462,10 @@
         <v>417</v>
       </c>
       <c r="B169" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C169" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4473,10 +4473,10 @@
         <v>3534</v>
       </c>
       <c r="B170" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C170" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4484,10 +4484,10 @@
         <v>218</v>
       </c>
       <c r="B171" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C171" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4495,10 +4495,10 @@
         <v>263</v>
       </c>
       <c r="B172" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C172" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4506,10 +4506,10 @@
         <v>552</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C173" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4517,10 +4517,10 @@
         <v>3823</v>
       </c>
       <c r="B174" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C174" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4528,10 +4528,10 @@
         <v>418</v>
       </c>
       <c r="B175" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C175" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4539,10 +4539,10 @@
         <v>3888</v>
       </c>
       <c r="B176" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C176" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4550,10 +4550,10 @@
         <v>140</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C177" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4561,10 +4561,10 @@
         <v>365</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C178" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4572,10 +4572,10 @@
         <v>287</v>
       </c>
       <c r="B179" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C179" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4583,10 +4583,10 @@
         <v>3587</v>
       </c>
       <c r="B180" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C180" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4594,10 +4594,10 @@
         <v>2207</v>
       </c>
       <c r="B181" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C181" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4605,10 +4605,10 @@
         <v>422</v>
       </c>
       <c r="B182" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C182" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4619,7 +4619,7 @@
         <v>46</v>
       </c>
       <c r="C183" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4627,10 +4627,10 @@
         <v>424</v>
       </c>
       <c r="B184" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C184" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4638,10 +4638,10 @@
         <v>348</v>
       </c>
       <c r="B185" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C185" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4649,10 +4649,10 @@
         <v>296</v>
       </c>
       <c r="B186" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C186" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4660,10 +4660,10 @@
         <v>1039</v>
       </c>
       <c r="B187" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C187" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4671,10 +4671,10 @@
         <v>428</v>
       </c>
       <c r="B188" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C188" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4682,10 +4682,10 @@
         <v>5136</v>
       </c>
       <c r="B189" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C189" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4693,10 +4693,10 @@
         <v>277</v>
       </c>
       <c r="B190" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C190" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4704,10 +4704,10 @@
         <v>4528</v>
       </c>
       <c r="B191" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C191" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4715,10 +4715,10 @@
         <v>307</v>
       </c>
       <c r="B192" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C192" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4726,10 +4726,10 @@
         <v>392</v>
       </c>
       <c r="B193" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C193" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4737,10 +4737,10 @@
         <v>267</v>
       </c>
       <c r="B194" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C194" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4748,10 +4748,10 @@
         <v>430</v>
       </c>
       <c r="B195" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C195" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4759,10 +4759,10 @@
         <v>212</v>
       </c>
       <c r="B196" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C196" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4770,10 +4770,10 @@
         <v>398</v>
       </c>
       <c r="B197" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C197" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4781,10 +4781,10 @@
         <v>284</v>
       </c>
       <c r="B198" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C198" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4792,10 +4792,10 @@
         <v>431</v>
       </c>
       <c r="B199" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C199" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4803,10 +4803,10 @@
         <v>432</v>
       </c>
       <c r="B200" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C200" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4814,10 +4814,10 @@
         <v>271</v>
       </c>
       <c r="B201" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C201" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4825,10 +4825,10 @@
         <v>310</v>
       </c>
       <c r="B202" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C202" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4836,10 +4836,10 @@
         <v>312</v>
       </c>
       <c r="B203" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C203" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4847,10 +4847,10 @@
         <v>407</v>
       </c>
       <c r="B204" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C204" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4858,10 +4858,10 @@
         <v>268</v>
       </c>
       <c r="B205" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C205" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4869,10 +4869,10 @@
         <v>3369</v>
       </c>
       <c r="B206" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C206" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4880,10 +4880,10 @@
         <v>314</v>
       </c>
       <c r="B207" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C207" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4891,10 +4891,10 @@
         <v>500</v>
       </c>
       <c r="B208" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C208" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4902,10 +4902,10 @@
         <v>548</v>
       </c>
       <c r="B209" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C209" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4913,10 +4913,10 @@
         <v>3693</v>
       </c>
       <c r="B210" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C210" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4924,10 +4924,10 @@
         <v>269</v>
       </c>
       <c r="B211" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C211" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4935,10 +4935,10 @@
         <v>270</v>
       </c>
       <c r="B212" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C212" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4946,10 +4946,10 @@
         <v>273</v>
       </c>
       <c r="B213" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C213" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4957,10 +4957,10 @@
         <v>280</v>
       </c>
       <c r="B214" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C214" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4968,10 +4968,10 @@
         <v>505</v>
       </c>
       <c r="B215" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C215" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4979,10 +4979,10 @@
         <v>435</v>
       </c>
       <c r="B216" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C216" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4990,10 +4990,10 @@
         <v>394</v>
       </c>
       <c r="B217" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C217" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5001,10 +5001,10 @@
         <v>395</v>
       </c>
       <c r="B218" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C218" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5012,10 +5012,10 @@
         <v>3118</v>
       </c>
       <c r="B219" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C219" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5023,10 +5023,10 @@
         <v>396</v>
       </c>
       <c r="B220" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C220" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5034,10 +5034,10 @@
         <v>5566</v>
       </c>
       <c r="B221" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C221" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5045,10 +5045,10 @@
         <v>397</v>
       </c>
       <c r="B222" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C222" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5056,10 +5056,10 @@
         <v>436</v>
       </c>
       <c r="B223" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C223" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5067,10 +5067,10 @@
         <v>566</v>
       </c>
       <c r="B224" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C224" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5078,10 +5078,10 @@
         <v>185</v>
       </c>
       <c r="B225" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C225" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5089,10 +5089,10 @@
         <v>399</v>
       </c>
       <c r="B226" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C226" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5100,10 +5100,10 @@
         <v>174</v>
       </c>
       <c r="B227" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C227" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5111,10 +5111,10 @@
         <v>400</v>
       </c>
       <c r="B228" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C228" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5122,10 +5122,10 @@
         <v>322</v>
       </c>
       <c r="B229" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C229" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5133,10 +5133,10 @@
         <v>293</v>
       </c>
       <c r="B230" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C230" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5144,7 +5144,7 @@
         <v>170</v>
       </c>
       <c r="B231" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C231" t="s">
         <v>456</v>
@@ -5353,7 +5353,7 @@
         <v>216</v>
       </c>
       <c r="B250" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C250" t="s">
         <v>493</v>
@@ -5672,7 +5672,7 @@
         <v>559</v>
       </c>
       <c r="B279" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C279" t="s">
         <v>548</v>
@@ -6794,7 +6794,7 @@
         <v>5512</v>
       </c>
       <c r="B381" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C381" t="s">
         <v>749</v>

--- a/project/Python/yilaitong/郑州所有商家.xlsx
+++ b/project/Python/yilaitong/郑州所有商家.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="731">
   <si>
     <t>华铭通讯</t>
   </si>
@@ -102,18 +102,12 @@
     <t>1B24</t>
   </si>
   <si>
-    <t>宏鑫通讯</t>
+    <t>红兴通讯</t>
   </si>
   <si>
     <t>1B25</t>
   </si>
   <si>
-    <t>红兴通讯</t>
-  </si>
-  <si>
-    <t>1B26</t>
-  </si>
-  <si>
     <t>隆鑫通讯</t>
   </si>
   <si>
@@ -162,2020 +156,1969 @@
     <t>1C02</t>
   </si>
   <si>
+    <t>鼎好通讯</t>
+  </si>
+  <si>
+    <t>1C08</t>
+  </si>
+  <si>
+    <t>鸿润通讯</t>
+  </si>
+  <si>
+    <t>1C10</t>
+  </si>
+  <si>
+    <t>东利通讯</t>
+  </si>
+  <si>
+    <t>1C11</t>
+  </si>
+  <si>
+    <t>龙诚联合</t>
+  </si>
+  <si>
+    <t>1C12</t>
+  </si>
+  <si>
+    <t>源升科技</t>
+  </si>
+  <si>
+    <t>1C13</t>
+  </si>
+  <si>
+    <t>1C14</t>
+  </si>
+  <si>
+    <t>惠鑫通讯</t>
+  </si>
+  <si>
+    <t>1C18</t>
+  </si>
+  <si>
+    <t>蜂星通讯</t>
+  </si>
+  <si>
+    <t>1C19</t>
+  </si>
+  <si>
+    <t>腾达通讯</t>
+  </si>
+  <si>
+    <t>1C20</t>
+  </si>
+  <si>
+    <t>腾飞通讯</t>
+  </si>
+  <si>
+    <t>1C21</t>
+  </si>
+  <si>
+    <t>蝶变商城</t>
+  </si>
+  <si>
+    <t>1C22</t>
+  </si>
+  <si>
+    <t>新时代</t>
+  </si>
+  <si>
+    <t>1C23</t>
+  </si>
+  <si>
+    <t>高朋通讯</t>
+  </si>
+  <si>
+    <t>1C24</t>
+  </si>
+  <si>
+    <t>星宇通讯</t>
+  </si>
+  <si>
+    <t>1C25</t>
+  </si>
+  <si>
+    <t>巨龙通讯</t>
+  </si>
+  <si>
+    <t>1C26</t>
+  </si>
+  <si>
+    <t>杰达通讯</t>
+  </si>
+  <si>
+    <t>1C27</t>
+  </si>
+  <si>
+    <t>坤泰通讯</t>
+  </si>
+  <si>
+    <t>1C28</t>
+  </si>
+  <si>
+    <t>亚昌科技</t>
+  </si>
+  <si>
+    <t>1C31</t>
+  </si>
+  <si>
+    <t>荣耀通讯</t>
+  </si>
+  <si>
+    <t>1C32</t>
+  </si>
+  <si>
+    <t>汇想通讯</t>
+  </si>
+  <si>
+    <t>1C33</t>
+  </si>
+  <si>
+    <t>万丰通讯</t>
+  </si>
+  <si>
+    <t>1C34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 勤之丰</t>
+  </si>
+  <si>
+    <t>1C35</t>
+  </si>
+  <si>
+    <t>昌盛通讯</t>
+  </si>
+  <si>
+    <t>1C35A</t>
+  </si>
+  <si>
+    <t>海星通讯</t>
+  </si>
+  <si>
+    <t>1C36</t>
+  </si>
+  <si>
+    <t>新华电讯</t>
+  </si>
+  <si>
+    <t>1C37</t>
+  </si>
+  <si>
+    <t>宏海通讯</t>
+  </si>
+  <si>
+    <t>1D03</t>
+  </si>
+  <si>
+    <t>蓝天通讯</t>
+  </si>
+  <si>
+    <t>1D08</t>
+  </si>
+  <si>
+    <t>顺城通讯</t>
+  </si>
+  <si>
+    <t>1D09</t>
+  </si>
+  <si>
+    <t>永利通讯</t>
+  </si>
+  <si>
+    <t>1D10</t>
+  </si>
+  <si>
+    <t>盛达通讯</t>
+  </si>
+  <si>
+    <t>1D11</t>
+  </si>
+  <si>
+    <t>鑫程通讯</t>
+  </si>
+  <si>
+    <t>1D12</t>
+  </si>
+  <si>
+    <t>丰凯通讯</t>
+  </si>
+  <si>
+    <t>1D13华为</t>
+  </si>
+  <si>
+    <t>1D13小米</t>
+  </si>
+  <si>
+    <t>昊天通讯</t>
+  </si>
+  <si>
+    <t>1D15</t>
+  </si>
+  <si>
+    <t>成泰通讯</t>
+  </si>
+  <si>
+    <t>1D15A</t>
+  </si>
+  <si>
+    <t>文峥通讯</t>
+  </si>
+  <si>
+    <t>1D16</t>
+  </si>
+  <si>
+    <t>赤城通讯</t>
+  </si>
+  <si>
+    <t>1D19</t>
+  </si>
+  <si>
+    <t>美联电子</t>
+  </si>
+  <si>
+    <t>1D21</t>
+  </si>
+  <si>
+    <t>华宏通讯</t>
+  </si>
+  <si>
+    <t>1D22</t>
+  </si>
+  <si>
+    <t>一鸣通讯</t>
+  </si>
+  <si>
+    <t>1D23</t>
+  </si>
+  <si>
+    <t>福聚鑫</t>
+  </si>
+  <si>
+    <t>1D24</t>
+  </si>
+  <si>
+    <t>盛祥通讯</t>
+  </si>
+  <si>
+    <t>1D25</t>
+  </si>
+  <si>
+    <t>盛龙通讯</t>
+  </si>
+  <si>
+    <t>1D27</t>
+  </si>
+  <si>
+    <t>四方通讯</t>
+  </si>
+  <si>
+    <t>1D28</t>
+  </si>
+  <si>
+    <t>亚光商贸</t>
+  </si>
+  <si>
+    <t>1D31</t>
+  </si>
+  <si>
+    <t>风行通讯</t>
+  </si>
+  <si>
+    <t>1D33</t>
+  </si>
+  <si>
+    <t>大方通讯</t>
+  </si>
+  <si>
+    <t>1D43</t>
+  </si>
+  <si>
+    <t>佰邦电子</t>
+  </si>
+  <si>
+    <t>1D45</t>
+  </si>
+  <si>
+    <t>月达通讯</t>
+  </si>
+  <si>
+    <t>1D46</t>
+  </si>
+  <si>
+    <t>锦天亿</t>
+  </si>
+  <si>
+    <t>1D47</t>
+  </si>
+  <si>
+    <t>完美经纬</t>
+  </si>
+  <si>
+    <t>1D48</t>
+  </si>
+  <si>
+    <t>亿信通讯</t>
+  </si>
+  <si>
+    <t>1D49</t>
+  </si>
+  <si>
+    <t>翼锋通讯</t>
+  </si>
+  <si>
+    <t>1D50</t>
+  </si>
+  <si>
+    <t>恒鑫通讯</t>
+  </si>
+  <si>
+    <t>1D51</t>
+  </si>
+  <si>
+    <t>港海通讯</t>
+  </si>
+  <si>
+    <t>2A02</t>
+  </si>
+  <si>
+    <t>2A03</t>
+  </si>
+  <si>
+    <t>飞儿通讯</t>
+  </si>
+  <si>
+    <t>2A04</t>
+  </si>
+  <si>
+    <t>世纪联盟</t>
+  </si>
+  <si>
+    <t>2A05</t>
+  </si>
+  <si>
+    <t>鸿诚电讯</t>
+  </si>
+  <si>
+    <t>2A07</t>
+  </si>
+  <si>
+    <t>宏升通讯</t>
+  </si>
+  <si>
+    <t>2A08</t>
+  </si>
+  <si>
+    <t>波涛通讯</t>
+  </si>
+  <si>
+    <t>2A08A</t>
+  </si>
+  <si>
+    <t>恒大通讯</t>
+  </si>
+  <si>
+    <t>2A09</t>
+  </si>
+  <si>
+    <t>拓飞魅族</t>
+  </si>
+  <si>
+    <t>2A10</t>
+  </si>
+  <si>
+    <t>中华龙腾</t>
+  </si>
+  <si>
+    <t>2A11</t>
+  </si>
+  <si>
+    <t>惠玲通讯</t>
+  </si>
+  <si>
+    <t>2A14</t>
+  </si>
+  <si>
+    <t>宏达通讯</t>
+  </si>
+  <si>
+    <t>2A18</t>
+  </si>
+  <si>
+    <t>振华科技</t>
+  </si>
+  <si>
+    <t>2A19</t>
+  </si>
+  <si>
+    <t>天壹通讯</t>
+  </si>
+  <si>
+    <t>2A23</t>
+  </si>
+  <si>
+    <t>今运通讯</t>
+  </si>
+  <si>
+    <t>2A24</t>
+  </si>
+  <si>
+    <t>天伟商贸</t>
+  </si>
+  <si>
+    <t>2A25</t>
+  </si>
+  <si>
+    <t>红旗通讯</t>
+  </si>
+  <si>
+    <t>2A26</t>
+  </si>
+  <si>
+    <t>恒信和</t>
+  </si>
+  <si>
+    <t>2A28</t>
+  </si>
+  <si>
+    <t>雷宇通讯</t>
+  </si>
+  <si>
+    <t>2A29</t>
+  </si>
+  <si>
+    <t>汇金通讯</t>
+  </si>
+  <si>
+    <t>2A30</t>
+  </si>
+  <si>
+    <t>德信通讯</t>
+  </si>
+  <si>
+    <t>2A31</t>
+  </si>
+  <si>
+    <t>亿新通讯</t>
+  </si>
+  <si>
+    <t>2A32</t>
+  </si>
+  <si>
+    <t>北方通讯</t>
+  </si>
+  <si>
+    <t>2A34</t>
+  </si>
+  <si>
+    <t>兴泰科技</t>
+  </si>
+  <si>
+    <t>2A35</t>
+  </si>
+  <si>
+    <t>国瑞通讯</t>
+  </si>
+  <si>
+    <t>2A36</t>
+  </si>
+  <si>
+    <t>兆干通讯</t>
+  </si>
+  <si>
+    <t>2A37</t>
+  </si>
+  <si>
+    <t>鼎行通讯</t>
+  </si>
+  <si>
+    <t>2A38(原2D09)</t>
+  </si>
+  <si>
+    <t>鸿业通讯</t>
+  </si>
+  <si>
+    <t>2A39</t>
+  </si>
+  <si>
+    <t>飞天通讯</t>
+  </si>
+  <si>
+    <t>2A40A</t>
+  </si>
+  <si>
+    <t>中圣通讯</t>
+  </si>
+  <si>
+    <t>2A41</t>
+  </si>
+  <si>
+    <t>新龙威</t>
+  </si>
+  <si>
+    <t>2A42</t>
+  </si>
+  <si>
+    <t>风驰通讯</t>
+  </si>
+  <si>
+    <t>2A43</t>
+  </si>
+  <si>
+    <t>金阳光</t>
+  </si>
+  <si>
+    <t>2A44</t>
+  </si>
+  <si>
+    <t>豫洲通讯</t>
+  </si>
+  <si>
+    <t>2A45</t>
+  </si>
+  <si>
+    <t>正兴通讯</t>
+  </si>
+  <si>
+    <t>2A46</t>
+  </si>
+  <si>
+    <t>誉达科贸</t>
+  </si>
+  <si>
+    <t>2A47</t>
+  </si>
+  <si>
+    <t>黎纳通讯</t>
+  </si>
+  <si>
+    <t>2A48</t>
+  </si>
+  <si>
+    <t>诚毅电子</t>
+  </si>
+  <si>
+    <t>2A49</t>
+  </si>
+  <si>
+    <t>创新时代</t>
+  </si>
+  <si>
+    <t>2A50</t>
+  </si>
+  <si>
+    <t>威铭通讯</t>
+  </si>
+  <si>
+    <t>2A51</t>
+  </si>
+  <si>
+    <t>揽日通讯</t>
+  </si>
+  <si>
+    <t>2A52</t>
+  </si>
+  <si>
+    <t>誉佳通讯</t>
+  </si>
+  <si>
+    <t>2A53</t>
+  </si>
+  <si>
+    <t>霖鑫通讯</t>
+  </si>
+  <si>
+    <t>2A54</t>
+  </si>
+  <si>
+    <t>乐信通讯</t>
+  </si>
+  <si>
+    <t>2B02</t>
+  </si>
+  <si>
+    <t>弘博商贸</t>
+  </si>
+  <si>
+    <t>2B03</t>
+  </si>
+  <si>
+    <t>众宏通讯</t>
+  </si>
+  <si>
+    <t>2B07</t>
+  </si>
+  <si>
+    <t>安东通讯</t>
+  </si>
+  <si>
+    <t>2B08</t>
+  </si>
+  <si>
+    <t>万达通讯</t>
+  </si>
+  <si>
+    <t>2B10</t>
+  </si>
+  <si>
+    <t>科贸通讯</t>
+  </si>
+  <si>
+    <t>2B12</t>
+  </si>
+  <si>
+    <t>天宇通讯</t>
+  </si>
+  <si>
+    <t>2B13</t>
+  </si>
+  <si>
+    <t>三鑫通讯</t>
+  </si>
+  <si>
+    <t>2B14</t>
+  </si>
+  <si>
+    <t>华尚通讯</t>
+  </si>
+  <si>
+    <t>2B15-16</t>
+  </si>
+  <si>
+    <t>郑州华远</t>
+  </si>
+  <si>
+    <t>2B17</t>
+  </si>
+  <si>
+    <t>万杰通讯</t>
+  </si>
+  <si>
+    <t>2B19</t>
+  </si>
+  <si>
+    <t>华厦通讯</t>
+  </si>
+  <si>
+    <t>2B20</t>
+  </si>
+  <si>
+    <t>萌兴通讯</t>
+  </si>
+  <si>
+    <t>2B21</t>
+  </si>
+  <si>
+    <t>永盛通讯</t>
+  </si>
+  <si>
+    <t>2B22</t>
+  </si>
+  <si>
+    <t>谦和通讯</t>
+  </si>
+  <si>
+    <t>2B23</t>
+  </si>
+  <si>
+    <t>大唐通讯</t>
+  </si>
+  <si>
+    <t>2B24</t>
+  </si>
+  <si>
+    <t>红鑫通讯</t>
+  </si>
+  <si>
+    <t>2B27</t>
+  </si>
+  <si>
+    <t>通盛通讯</t>
+  </si>
+  <si>
+    <t>2B28</t>
+  </si>
+  <si>
+    <t>海峡通讯</t>
+  </si>
+  <si>
+    <t>2B28A</t>
+  </si>
+  <si>
+    <t>万亿通讯</t>
+  </si>
+  <si>
+    <t>2B30</t>
+  </si>
+  <si>
+    <t>松联通讯</t>
+  </si>
+  <si>
+    <t>2B31</t>
+  </si>
+  <si>
+    <t>东临通讯</t>
+  </si>
+  <si>
+    <t>2B31A</t>
+  </si>
+  <si>
+    <t>亿诺通讯</t>
+  </si>
+  <si>
+    <t>2B32</t>
+  </si>
+  <si>
+    <t>世程通讯</t>
+  </si>
+  <si>
+    <t>2B33</t>
+  </si>
+  <si>
+    <t>飞越通讯</t>
+  </si>
+  <si>
+    <t>2B34</t>
+  </si>
+  <si>
+    <t>富康通讯</t>
+  </si>
+  <si>
+    <t>2B35</t>
+  </si>
+  <si>
+    <t>宏宇通讯</t>
+  </si>
+  <si>
+    <t>2B36</t>
+  </si>
+  <si>
+    <t>瑞涛苹果</t>
+  </si>
+  <si>
+    <t>2B37</t>
+  </si>
+  <si>
+    <t>鑫通胜</t>
+  </si>
+  <si>
+    <t>2B38</t>
+  </si>
+  <si>
+    <t>鑫凯格</t>
+  </si>
+  <si>
+    <t>2C06</t>
+  </si>
+  <si>
+    <t>郑州一达</t>
+  </si>
+  <si>
+    <t>2C07</t>
+  </si>
+  <si>
+    <t>初心通讯</t>
+  </si>
+  <si>
+    <t>2C09</t>
+  </si>
+  <si>
+    <t>天胜通讯</t>
+  </si>
+  <si>
+    <t>2C10</t>
+  </si>
+  <si>
+    <t>中发通讯</t>
+  </si>
+  <si>
+    <t>2C11A</t>
+  </si>
+  <si>
+    <t>顺发通讯</t>
+  </si>
+  <si>
+    <t>2C12</t>
+  </si>
+  <si>
+    <t>鲁豫通讯</t>
+  </si>
+  <si>
+    <t>2C13A</t>
+  </si>
+  <si>
+    <t>九洲通讯</t>
+  </si>
+  <si>
+    <t>2C13B</t>
+  </si>
+  <si>
+    <t>鸿之联</t>
+  </si>
+  <si>
+    <t>2C14</t>
+  </si>
+  <si>
+    <t>久月通讯</t>
+  </si>
+  <si>
+    <t>2C16</t>
+  </si>
+  <si>
+    <t>汇通通讯</t>
+  </si>
+  <si>
+    <t>2C18</t>
+  </si>
+  <si>
+    <t>恒盛通讯</t>
+  </si>
+  <si>
+    <t>2C19</t>
+  </si>
+  <si>
+    <t>众和通讯</t>
+  </si>
+  <si>
+    <t>2C20</t>
+  </si>
+  <si>
+    <t>致和通讯</t>
+  </si>
+  <si>
+    <t>2C21</t>
+  </si>
+  <si>
+    <t>鼎行国产</t>
+  </si>
+  <si>
+    <t>2C22</t>
+  </si>
+  <si>
+    <t>宇迅达</t>
+  </si>
+  <si>
+    <t>2C23</t>
+  </si>
+  <si>
+    <t>闽华通讯</t>
+  </si>
+  <si>
+    <t>2C24</t>
+  </si>
+  <si>
+    <t>融盛通讯</t>
+  </si>
+  <si>
+    <t>2C25</t>
+  </si>
+  <si>
+    <t>新起点</t>
+  </si>
+  <si>
+    <t>2C25A</t>
+  </si>
+  <si>
+    <t>宏利达</t>
+  </si>
+  <si>
+    <t>2C26</t>
+  </si>
+  <si>
+    <t>叁陆玖</t>
+  </si>
+  <si>
+    <t>2C26A</t>
+  </si>
+  <si>
+    <t>鑫锦荣</t>
+  </si>
+  <si>
+    <t>2C27</t>
+  </si>
+  <si>
+    <t>德鸿通讯</t>
+  </si>
+  <si>
+    <t>2C28</t>
+  </si>
+  <si>
+    <t>联魅电科</t>
+  </si>
+  <si>
+    <t>2C29</t>
+  </si>
+  <si>
+    <t>伟达通讯</t>
+  </si>
+  <si>
+    <t>2C30</t>
+  </si>
+  <si>
+    <t>东润小米</t>
+  </si>
+  <si>
+    <t>2C32</t>
+  </si>
+  <si>
+    <t>宇星科技</t>
+  </si>
+  <si>
+    <t>2C33</t>
+  </si>
+  <si>
+    <t>2C34</t>
+  </si>
+  <si>
+    <t>凯森商贸</t>
+  </si>
+  <si>
+    <t>2C35</t>
+  </si>
+  <si>
+    <t>大宇电讯</t>
+  </si>
+  <si>
+    <t>2C36</t>
+  </si>
+  <si>
+    <t>两岸通讯</t>
+  </si>
+  <si>
+    <t>2C37</t>
+  </si>
+  <si>
+    <t>鑫隆源</t>
+  </si>
+  <si>
+    <t>2C38</t>
+  </si>
+  <si>
+    <t>海天商贸</t>
+  </si>
+  <si>
+    <t>2C39</t>
+  </si>
+  <si>
+    <t>涛涛通讯</t>
+  </si>
+  <si>
+    <t>2C39A</t>
+  </si>
+  <si>
+    <t>3G时代OV部</t>
+  </si>
+  <si>
+    <t>2C40</t>
+  </si>
+  <si>
+    <t>信合通讯</t>
+  </si>
+  <si>
+    <t>2C41</t>
+  </si>
+  <si>
+    <t>波越通讯</t>
+  </si>
+  <si>
+    <t>2C42</t>
+  </si>
+  <si>
+    <t>新一方</t>
+  </si>
+  <si>
+    <t>2C43</t>
+  </si>
+  <si>
+    <t>茂源通讯</t>
+  </si>
+  <si>
+    <t>2C44A</t>
+  </si>
+  <si>
+    <t>恒波通讯</t>
+  </si>
+  <si>
+    <t>2C45</t>
+  </si>
+  <si>
+    <t>未浩贸易</t>
+  </si>
+  <si>
+    <t>2C46</t>
+  </si>
+  <si>
+    <t>云华通讯</t>
+  </si>
+  <si>
+    <t>2C47</t>
+  </si>
+  <si>
+    <t>珍珍通讯</t>
+  </si>
+  <si>
+    <t>2C48</t>
+  </si>
+  <si>
+    <t>河南北方</t>
+  </si>
+  <si>
+    <t>2C49</t>
+  </si>
+  <si>
+    <t>瑞涛国产</t>
+  </si>
+  <si>
+    <t>2C50</t>
+  </si>
+  <si>
+    <t>瑞英通讯</t>
+  </si>
+  <si>
+    <t>2C51</t>
+  </si>
+  <si>
+    <t>富达通讯</t>
+  </si>
+  <si>
+    <t>2C52</t>
+  </si>
+  <si>
+    <t>龙祥通讯</t>
+  </si>
+  <si>
+    <t>2C54</t>
+  </si>
+  <si>
+    <t>欣鑫通讯</t>
+  </si>
+  <si>
+    <t>2C56</t>
+  </si>
+  <si>
+    <t>中亚通讯</t>
+  </si>
+  <si>
+    <t>2C57</t>
+  </si>
+  <si>
+    <t>启智通讯</t>
+  </si>
+  <si>
+    <t>2C58</t>
+  </si>
+  <si>
+    <t>淦淦通讯</t>
+  </si>
+  <si>
+    <t>2C59</t>
+  </si>
+  <si>
+    <t>浩通通讯</t>
+  </si>
+  <si>
+    <t>2C60</t>
+  </si>
+  <si>
+    <t>浩轩通讯</t>
+  </si>
+  <si>
+    <t>2C62</t>
+  </si>
+  <si>
+    <t>大河通讯</t>
+  </si>
+  <si>
+    <t>2C63</t>
+  </si>
+  <si>
+    <t>郑州佳联</t>
+  </si>
+  <si>
+    <t>2D02</t>
+  </si>
+  <si>
+    <t>晨曦通讯</t>
+  </si>
+  <si>
+    <t>2D03</t>
+  </si>
+  <si>
+    <t>优优科技</t>
+  </si>
+  <si>
+    <t>2D04</t>
+  </si>
+  <si>
+    <t>窑窑通讯</t>
+  </si>
+  <si>
+    <t>2D07</t>
+  </si>
+  <si>
+    <t>正阳通讯</t>
+  </si>
+  <si>
+    <t>2D08</t>
+  </si>
+  <si>
+    <t>金马通讯</t>
+  </si>
+  <si>
+    <t>2D09</t>
+  </si>
+  <si>
+    <t>瑞成通讯</t>
+  </si>
+  <si>
+    <t>2D12</t>
+  </si>
+  <si>
+    <t>超盛通讯</t>
+  </si>
+  <si>
+    <t>2D13</t>
+  </si>
+  <si>
+    <t>华通通讯</t>
+  </si>
+  <si>
+    <t>2D20</t>
+  </si>
+  <si>
+    <t>郑州弘鑫</t>
+  </si>
+  <si>
+    <t>2D20A</t>
+  </si>
+  <si>
+    <t>孟飞通讯</t>
+  </si>
+  <si>
+    <t>2D21</t>
+  </si>
+  <si>
+    <t>天天通讯</t>
+  </si>
+  <si>
+    <t>2D22</t>
+  </si>
+  <si>
+    <t>智能易讯</t>
+  </si>
+  <si>
+    <t>2D23</t>
+  </si>
+  <si>
+    <t>丽达通讯</t>
+  </si>
+  <si>
+    <t>2D24</t>
+  </si>
+  <si>
+    <t>心悦贸易</t>
+  </si>
+  <si>
+    <t>2D24A</t>
+  </si>
+  <si>
+    <t>众成通讯</t>
+  </si>
+  <si>
+    <t>2D25</t>
+  </si>
+  <si>
+    <t>金诺通讯</t>
+  </si>
+  <si>
+    <t>2D26</t>
+  </si>
+  <si>
+    <t>翼祥通讯</t>
+  </si>
+  <si>
+    <t>2D27</t>
+  </si>
+  <si>
+    <t>华贸通讯</t>
+  </si>
+  <si>
+    <t>2D28</t>
+  </si>
+  <si>
+    <t>鑫银泰</t>
+  </si>
+  <si>
+    <t>2D29</t>
+  </si>
+  <si>
+    <t>祥源通讯</t>
+  </si>
+  <si>
+    <t>2D30</t>
+  </si>
+  <si>
+    <t>金海通讯</t>
+  </si>
+  <si>
+    <t>2D33</t>
+  </si>
+  <si>
+    <t>恒华通讯</t>
+  </si>
+  <si>
+    <t>2D34</t>
+  </si>
+  <si>
+    <t>闵南电信</t>
+  </si>
+  <si>
+    <t>2D35</t>
+  </si>
+  <si>
+    <t>魅鑫商贸</t>
+  </si>
+  <si>
+    <t>2D37</t>
+  </si>
+  <si>
+    <t>万通通讯</t>
+  </si>
+  <si>
+    <t>2D38</t>
+  </si>
+  <si>
+    <t>鸿运通讯</t>
+  </si>
+  <si>
+    <t>2D39</t>
+  </si>
+  <si>
+    <t>神马通讯</t>
+  </si>
+  <si>
+    <t>2D40</t>
+  </si>
+  <si>
+    <t>龙腾通讯</t>
+  </si>
+  <si>
+    <t>2D41</t>
+  </si>
+  <si>
+    <t>申明通讯</t>
+  </si>
+  <si>
+    <t>2D41A</t>
+  </si>
+  <si>
+    <t>和美通讯</t>
+  </si>
+  <si>
+    <t>2D42</t>
+  </si>
+  <si>
+    <t>翼达通讯</t>
+  </si>
+  <si>
+    <t>2D43</t>
+  </si>
+  <si>
+    <t>蓝宇通讯</t>
+  </si>
+  <si>
+    <t>2D44</t>
+  </si>
+  <si>
+    <t>2D45</t>
+  </si>
+  <si>
+    <t>长河天成</t>
+  </si>
+  <si>
+    <t>2D48</t>
+  </si>
+  <si>
+    <t>恒惠通讯</t>
+  </si>
+  <si>
+    <t>2D49</t>
+  </si>
+  <si>
+    <t>小辉通讯</t>
+  </si>
+  <si>
+    <t>3A01</t>
+  </si>
+  <si>
+    <t>汉飞科技</t>
+  </si>
+  <si>
+    <t>3A02</t>
+  </si>
+  <si>
+    <t>万源通讯</t>
+  </si>
+  <si>
+    <t>3A05</t>
+  </si>
+  <si>
+    <t>3A10</t>
+  </si>
+  <si>
+    <t>郑州新星</t>
+  </si>
+  <si>
+    <t>3A12</t>
+  </si>
+  <si>
+    <t>利鑫通讯</t>
+  </si>
+  <si>
+    <t>3A13</t>
+  </si>
+  <si>
+    <t>宇丰通讯</t>
+  </si>
+  <si>
+    <t>3A14</t>
+  </si>
+  <si>
+    <t>兄弟联盟</t>
+  </si>
+  <si>
+    <t>3A15</t>
+  </si>
+  <si>
+    <t>志诚通讯</t>
+  </si>
+  <si>
+    <t>3A18</t>
+  </si>
+  <si>
+    <t>森林通讯</t>
+  </si>
+  <si>
+    <t>3A19</t>
+  </si>
+  <si>
+    <t>启航通讯</t>
+  </si>
+  <si>
+    <t>3A20</t>
+  </si>
+  <si>
+    <t>华翼通讯</t>
+  </si>
+  <si>
+    <t>3A22</t>
+  </si>
+  <si>
+    <t>永安通讯</t>
+  </si>
+  <si>
+    <t>3A24</t>
+  </si>
+  <si>
+    <t>胜恒通讯</t>
+  </si>
+  <si>
+    <t>3A25</t>
+  </si>
+  <si>
+    <t>天和通讯</t>
+  </si>
+  <si>
+    <t>3A26</t>
+  </si>
+  <si>
+    <t>宇威通讯</t>
+  </si>
+  <si>
+    <t>3A27</t>
+  </si>
+  <si>
+    <t>舒雅通讯</t>
+  </si>
+  <si>
+    <t>3A28</t>
+  </si>
+  <si>
+    <t>无限通讯</t>
+  </si>
+  <si>
+    <t>3A29</t>
+  </si>
+  <si>
+    <t>心怡通讯</t>
+  </si>
+  <si>
+    <t>3A30</t>
+  </si>
+  <si>
+    <t>3A31</t>
+  </si>
+  <si>
+    <t>星光通讯</t>
+  </si>
+  <si>
+    <t>3A32</t>
+  </si>
+  <si>
+    <t>龙达通讯</t>
+  </si>
+  <si>
+    <t>3A33</t>
+  </si>
+  <si>
+    <t>天鸿通讯</t>
+  </si>
+  <si>
+    <t>3A35</t>
+  </si>
+  <si>
+    <t>宏盛通讯</t>
+  </si>
+  <si>
+    <t>3A35A</t>
+  </si>
+  <si>
+    <t>鑫之源</t>
+  </si>
+  <si>
+    <t>3A36</t>
+  </si>
+  <si>
+    <t>3A37</t>
+  </si>
+  <si>
+    <t>郑州志诚</t>
+  </si>
+  <si>
+    <t>3A38</t>
+  </si>
+  <si>
+    <t>河南易雅</t>
+  </si>
+  <si>
+    <t>3A39</t>
+  </si>
+  <si>
+    <t>羿龙通讯</t>
+  </si>
+  <si>
+    <t>3A41</t>
+  </si>
+  <si>
+    <t>永顺通讯</t>
+  </si>
+  <si>
+    <t>3A42</t>
+  </si>
+  <si>
+    <t>鑫昌通讯</t>
+  </si>
+  <si>
+    <t>3A44</t>
+  </si>
+  <si>
+    <t>华辰通讯</t>
+  </si>
+  <si>
+    <t>3A45</t>
+  </si>
+  <si>
+    <t>瀚达科贸</t>
+  </si>
+  <si>
+    <t>3A46</t>
+  </si>
+  <si>
+    <t>亨通通讯</t>
+  </si>
+  <si>
+    <t>3A48</t>
+  </si>
+  <si>
+    <t>宁宁通讯</t>
+  </si>
+  <si>
+    <t>3A49</t>
+  </si>
+  <si>
+    <t>世纪风</t>
+  </si>
+  <si>
+    <t>3A50</t>
+  </si>
+  <si>
+    <t>金峰通讯</t>
+  </si>
+  <si>
+    <t>3A51</t>
+  </si>
+  <si>
+    <t>东海通讯</t>
+  </si>
+  <si>
+    <t>3A52</t>
+  </si>
+  <si>
+    <t>易达通讯</t>
+  </si>
+  <si>
+    <t>3A53</t>
+  </si>
+  <si>
+    <t>中峰通讯</t>
+  </si>
+  <si>
+    <t>3B01</t>
+  </si>
+  <si>
+    <t>云坤通讯</t>
+  </si>
+  <si>
+    <t>3B10</t>
+  </si>
+  <si>
+    <t>高阔科技</t>
+  </si>
+  <si>
+    <t>3B12</t>
+  </si>
+  <si>
+    <t>安信通讯</t>
+  </si>
+  <si>
+    <t>3B14</t>
+  </si>
+  <si>
+    <t>轩昂通讯</t>
+  </si>
+  <si>
+    <t>3B15</t>
+  </si>
+  <si>
+    <t>宏辉通讯</t>
+  </si>
+  <si>
+    <t>3B16</t>
+  </si>
+  <si>
+    <t>好机友</t>
+  </si>
+  <si>
+    <t>3B17</t>
+  </si>
+  <si>
+    <t>昱成商贸</t>
+  </si>
+  <si>
+    <t>3B18</t>
+  </si>
+  <si>
+    <t>金鹰通讯</t>
+  </si>
+  <si>
+    <t>3B19</t>
+  </si>
+  <si>
+    <t>龙威通讯</t>
+  </si>
+  <si>
+    <t>3B20</t>
+  </si>
+  <si>
+    <t>永兴隆</t>
+  </si>
+  <si>
+    <t>3B21</t>
+  </si>
+  <si>
+    <t>蔚蓝通讯</t>
+  </si>
+  <si>
+    <t>3B22</t>
+  </si>
+  <si>
+    <t>京诚通讯</t>
+  </si>
+  <si>
+    <t>3B23</t>
+  </si>
+  <si>
+    <t>鑫兴盛</t>
+  </si>
+  <si>
+    <t>3B24</t>
+  </si>
+  <si>
+    <t>帝友通讯</t>
+  </si>
+  <si>
+    <t>3B27</t>
+  </si>
+  <si>
+    <t>豫通通讯</t>
+  </si>
+  <si>
+    <t>3B28</t>
+  </si>
+  <si>
+    <t>华峰通讯</t>
+  </si>
+  <si>
+    <t>3B32</t>
+  </si>
+  <si>
+    <t>伟业商贸</t>
+  </si>
+  <si>
+    <t>3B33</t>
+  </si>
+  <si>
+    <t>虹阳通讯</t>
+  </si>
+  <si>
+    <t>3B34</t>
+  </si>
+  <si>
+    <t>呈耀商贸</t>
+  </si>
+  <si>
+    <t>3B35</t>
+  </si>
+  <si>
+    <t>路博通讯</t>
+  </si>
+  <si>
+    <t>3B36</t>
+  </si>
+  <si>
+    <t>中环通讯</t>
+  </si>
+  <si>
+    <t>3C01</t>
+  </si>
+  <si>
+    <t>赛朗通讯</t>
+  </si>
+  <si>
+    <t>3C02</t>
+  </si>
+  <si>
+    <t>海洋通讯</t>
+  </si>
+  <si>
+    <t>3C07</t>
+  </si>
+  <si>
+    <t>有数通讯</t>
+  </si>
+  <si>
+    <t>3C09</t>
+  </si>
+  <si>
+    <t>飞腾通讯</t>
+  </si>
+  <si>
+    <t>3C10</t>
+  </si>
+  <si>
+    <t>捷达通讯</t>
+  </si>
+  <si>
+    <t>3C11</t>
+  </si>
+  <si>
+    <t>宇达通讯</t>
+  </si>
+  <si>
+    <t>3C12</t>
+  </si>
+  <si>
+    <t>嘉祥通讯</t>
+  </si>
+  <si>
+    <t>3C17</t>
+  </si>
+  <si>
+    <t>传音科贸</t>
+  </si>
+  <si>
+    <t>3C19</t>
+  </si>
+  <si>
+    <t>欣诚通讯</t>
+  </si>
+  <si>
+    <t>3C21</t>
+  </si>
+  <si>
+    <t>河马通讯</t>
+  </si>
+  <si>
+    <t>3C26</t>
+  </si>
+  <si>
+    <t>众城通讯</t>
+  </si>
+  <si>
+    <t>3C28</t>
+  </si>
+  <si>
+    <t>联络通讯</t>
+  </si>
+  <si>
+    <t>3C29</t>
+  </si>
+  <si>
+    <t>翼博通讯</t>
+  </si>
+  <si>
+    <t>3C32</t>
+  </si>
+  <si>
+    <t>亿隆通讯</t>
+  </si>
+  <si>
+    <t>3C33</t>
+  </si>
+  <si>
+    <t>德学通讯</t>
+  </si>
+  <si>
+    <t>3C36</t>
+  </si>
+  <si>
+    <t>思玥通讯</t>
+  </si>
+  <si>
+    <t>3C37</t>
+  </si>
+  <si>
+    <t>七星科技</t>
+  </si>
+  <si>
+    <t>3C38</t>
+  </si>
+  <si>
+    <t>东利源升</t>
+  </si>
+  <si>
+    <t>3C39</t>
+  </si>
+  <si>
+    <t>飞虹通讯</t>
+  </si>
+  <si>
+    <t>3C41</t>
+  </si>
+  <si>
+    <t>广治通讯</t>
+  </si>
+  <si>
+    <t>3C42</t>
+  </si>
+  <si>
+    <t>鼎峰通讯</t>
+  </si>
+  <si>
+    <t>3C47</t>
+  </si>
+  <si>
+    <t>豪文通讯</t>
+  </si>
+  <si>
+    <t>3C48</t>
+  </si>
+  <si>
+    <t>英杰通讯</t>
+  </si>
+  <si>
+    <t>3C49</t>
+  </si>
+  <si>
+    <t>苹秀通讯</t>
+  </si>
+  <si>
+    <t>3C50</t>
+  </si>
+  <si>
+    <t>东方通讯</t>
+  </si>
+  <si>
+    <t>3C51</t>
+  </si>
+  <si>
+    <t>卓越通讯</t>
+  </si>
+  <si>
+    <t>3C52</t>
+  </si>
+  <si>
+    <t>机汇城</t>
+  </si>
+  <si>
+    <t>3C53</t>
+  </si>
+  <si>
+    <t>名扬科技</t>
+  </si>
+  <si>
+    <t>3C54</t>
+  </si>
+  <si>
+    <t>康阜通讯</t>
+  </si>
+  <si>
+    <t>3C55</t>
+  </si>
+  <si>
+    <t>豫创通讯</t>
+  </si>
+  <si>
+    <t>3C56</t>
+  </si>
+  <si>
+    <t>万豪优品</t>
+  </si>
+  <si>
+    <t>3C57</t>
+  </si>
+  <si>
+    <t>翼捷科技</t>
+  </si>
+  <si>
+    <t>3C58</t>
+  </si>
+  <si>
+    <t>鑫宇通讯</t>
+  </si>
+  <si>
+    <t>3C59</t>
+  </si>
+  <si>
+    <t>晨辉通讯</t>
+  </si>
+  <si>
+    <t>3C60</t>
+  </si>
+  <si>
+    <t>鑫方圆</t>
+  </si>
+  <si>
+    <t>3C61</t>
+  </si>
+  <si>
+    <t>曦东通讯</t>
+  </si>
+  <si>
+    <t>3C62</t>
+  </si>
+  <si>
+    <t>郑州鸿兴</t>
+  </si>
+  <si>
+    <t>3C63</t>
+  </si>
+  <si>
+    <t>3C64</t>
+  </si>
+  <si>
+    <t>蓝创通讯</t>
+  </si>
+  <si>
+    <t>3D02</t>
+  </si>
+  <si>
+    <t>鑫源通讯</t>
+  </si>
+  <si>
+    <t>3D03</t>
+  </si>
+  <si>
+    <t>超博晟</t>
+  </si>
+  <si>
+    <t>3D04</t>
+  </si>
+  <si>
+    <t>尚讯通</t>
+  </si>
+  <si>
+    <t>3D07</t>
+  </si>
+  <si>
+    <t>恒源通讯</t>
+  </si>
+  <si>
+    <t>3D08</t>
+  </si>
+  <si>
     <t>汇海源</t>
   </si>
   <si>
-    <t>1C03</t>
-  </si>
-  <si>
-    <t>鼎好通讯</t>
-  </si>
-  <si>
-    <t>1C08</t>
-  </si>
-  <si>
-    <t>源升科技</t>
-  </si>
-  <si>
-    <t>1C10</t>
-  </si>
-  <si>
-    <t>东利通讯</t>
-  </si>
-  <si>
-    <t>1C11</t>
-  </si>
-  <si>
-    <t>联诚通讯</t>
-  </si>
-  <si>
-    <t>1C12</t>
-  </si>
-  <si>
-    <t>鸿润通讯</t>
-  </si>
-  <si>
-    <t>1C13</t>
-  </si>
-  <si>
-    <t>1C14</t>
-  </si>
-  <si>
-    <t>惠鑫通讯</t>
-  </si>
-  <si>
-    <t>1C18</t>
-  </si>
-  <si>
-    <t>蜂星通讯</t>
-  </si>
-  <si>
-    <t>1C19</t>
-  </si>
-  <si>
-    <t>腾达通讯</t>
-  </si>
-  <si>
-    <t>1C20</t>
-  </si>
-  <si>
-    <t>腾飞通讯</t>
-  </si>
-  <si>
-    <t>1C21</t>
-  </si>
-  <si>
-    <t>蝶变商城</t>
-  </si>
-  <si>
-    <t>1C22</t>
-  </si>
-  <si>
-    <t>新时代</t>
-  </si>
-  <si>
-    <t>1C23</t>
-  </si>
-  <si>
-    <t>高朋通讯</t>
-  </si>
-  <si>
-    <t>1C24</t>
-  </si>
-  <si>
-    <t>星宇通讯</t>
-  </si>
-  <si>
-    <t>1C25</t>
-  </si>
-  <si>
-    <t>巨龙通讯</t>
-  </si>
-  <si>
-    <t>1C26</t>
-  </si>
-  <si>
-    <t>杰达通讯</t>
-  </si>
-  <si>
-    <t>1C27</t>
-  </si>
-  <si>
-    <t>坤泰通讯</t>
-  </si>
-  <si>
-    <t>1C28</t>
-  </si>
-  <si>
-    <t>亚昌科技</t>
-  </si>
-  <si>
-    <t>1C31</t>
-  </si>
-  <si>
-    <t>荣耀通讯</t>
-  </si>
-  <si>
-    <t>1C32</t>
-  </si>
-  <si>
-    <t>汇想通讯</t>
-  </si>
-  <si>
-    <t>1C33</t>
-  </si>
-  <si>
-    <t>万丰通讯</t>
-  </si>
-  <si>
-    <t>1C34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 勤之丰</t>
-  </si>
-  <si>
-    <t>1C35</t>
-  </si>
-  <si>
-    <t>昌盛通讯</t>
-  </si>
-  <si>
-    <t>1C35A</t>
-  </si>
-  <si>
-    <t>海星通讯</t>
-  </si>
-  <si>
-    <t>1C36</t>
-  </si>
-  <si>
-    <t>新华电讯</t>
-  </si>
-  <si>
-    <t>1C37</t>
-  </si>
-  <si>
-    <t>宏海通讯</t>
-  </si>
-  <si>
-    <t>1D03</t>
-  </si>
-  <si>
-    <t>神马通讯</t>
-  </si>
-  <si>
-    <t>1D04,05,06</t>
-  </si>
-  <si>
-    <t>蓝天通讯</t>
-  </si>
-  <si>
-    <t>1D08</t>
-  </si>
-  <si>
-    <t>顺城通讯</t>
-  </si>
-  <si>
-    <t>1D09</t>
-  </si>
-  <si>
-    <t>永利通讯</t>
-  </si>
-  <si>
-    <t>1D10</t>
-  </si>
-  <si>
-    <t>鼎泰丰</t>
-  </si>
-  <si>
-    <t>1D11</t>
-  </si>
-  <si>
-    <t>鑫程通讯</t>
-  </si>
-  <si>
-    <t>1D12</t>
-  </si>
-  <si>
-    <t>丰凯通讯</t>
-  </si>
-  <si>
-    <t>1D13华为</t>
-  </si>
-  <si>
-    <t>1D13小米</t>
-  </si>
-  <si>
-    <t>昊天通讯</t>
-  </si>
-  <si>
-    <t>1D15</t>
-  </si>
-  <si>
-    <t>成泰通讯</t>
-  </si>
-  <si>
-    <t>1D15A</t>
-  </si>
-  <si>
-    <t>文峥通讯</t>
-  </si>
-  <si>
-    <t>1D16</t>
-  </si>
-  <si>
-    <t>赤城通讯</t>
-  </si>
-  <si>
-    <t>1D19</t>
-  </si>
-  <si>
-    <t>美联电子</t>
-  </si>
-  <si>
-    <t>1D21</t>
-  </si>
-  <si>
-    <t>华宏通讯</t>
-  </si>
-  <si>
-    <t>1D22</t>
-  </si>
-  <si>
-    <t>一鸣通讯</t>
-  </si>
-  <si>
-    <t>1D23</t>
-  </si>
-  <si>
-    <t>福聚鑫</t>
-  </si>
-  <si>
-    <t>1D24</t>
-  </si>
-  <si>
-    <t>盛祥通讯</t>
-  </si>
-  <si>
-    <t>1D25</t>
-  </si>
-  <si>
-    <t>盛龙通讯</t>
-  </si>
-  <si>
-    <t>1D27</t>
-  </si>
-  <si>
-    <t>四方通讯</t>
-  </si>
-  <si>
-    <t>1D28</t>
-  </si>
-  <si>
-    <t>亚光商贸</t>
-  </si>
-  <si>
-    <t>1D31</t>
-  </si>
-  <si>
-    <t>风行通讯</t>
-  </si>
-  <si>
-    <t>1D33</t>
-  </si>
-  <si>
-    <t>万杰通讯</t>
-  </si>
-  <si>
-    <t>1D42</t>
-  </si>
-  <si>
-    <t>大方通讯</t>
-  </si>
-  <si>
-    <t>1D43</t>
-  </si>
-  <si>
-    <t>佰邦电子</t>
-  </si>
-  <si>
-    <t>1D45</t>
-  </si>
-  <si>
-    <t>月达通讯</t>
-  </si>
-  <si>
-    <t>1D46</t>
-  </si>
-  <si>
-    <t>锦天亿</t>
-  </si>
-  <si>
-    <t>1D47</t>
-  </si>
-  <si>
-    <t>完美经纬</t>
-  </si>
-  <si>
-    <t>1D48</t>
-  </si>
-  <si>
-    <t>亿信通讯</t>
-  </si>
-  <si>
-    <t>1D49</t>
-  </si>
-  <si>
-    <t>翼锋通讯</t>
-  </si>
-  <si>
-    <t>1D50</t>
-  </si>
-  <si>
-    <t>恒鑫通讯</t>
-  </si>
-  <si>
-    <t>1D51</t>
-  </si>
-  <si>
-    <t>港海通讯</t>
-  </si>
-  <si>
-    <t>2A02</t>
-  </si>
-  <si>
-    <t>2A03</t>
-  </si>
-  <si>
-    <t>飞儿通讯</t>
-  </si>
-  <si>
-    <t>2A04</t>
-  </si>
-  <si>
-    <t>世纪联盟</t>
-  </si>
-  <si>
-    <t>2A05</t>
-  </si>
-  <si>
-    <t>鸿诚电讯</t>
-  </si>
-  <si>
-    <t>2A07</t>
-  </si>
-  <si>
-    <t>宏升通讯</t>
-  </si>
-  <si>
-    <t>2A08</t>
-  </si>
-  <si>
-    <t>恒大通讯</t>
-  </si>
-  <si>
-    <t>2A09</t>
-  </si>
-  <si>
-    <t>拓飞魅族</t>
-  </si>
-  <si>
-    <t>2A10</t>
-  </si>
-  <si>
-    <t>中华龙腾</t>
-  </si>
-  <si>
-    <t>2A11</t>
-  </si>
-  <si>
-    <t>兆干通讯</t>
-  </si>
-  <si>
-    <t>2A12</t>
-  </si>
-  <si>
-    <t>惠玲通讯</t>
-  </si>
-  <si>
-    <t>2A14</t>
-  </si>
-  <si>
-    <t>伟达通讯</t>
-  </si>
-  <si>
-    <t>2A16</t>
-  </si>
-  <si>
-    <t>宏达通讯</t>
-  </si>
-  <si>
-    <t>2A18</t>
-  </si>
-  <si>
-    <t>鑫锋通讯</t>
-  </si>
-  <si>
-    <t>2A19</t>
-  </si>
-  <si>
-    <t>天壹通讯</t>
-  </si>
-  <si>
-    <t>2A23</t>
-  </si>
-  <si>
-    <t>今运通讯</t>
-  </si>
-  <si>
-    <t>2A24</t>
-  </si>
-  <si>
-    <t>天伟商贸</t>
-  </si>
-  <si>
-    <t>2A25</t>
-  </si>
-  <si>
-    <t>红旗通讯</t>
-  </si>
-  <si>
-    <t>2A26</t>
-  </si>
-  <si>
-    <t>恒信和</t>
-  </si>
-  <si>
-    <t>2A28</t>
-  </si>
-  <si>
-    <t>飞州时代</t>
-  </si>
-  <si>
-    <t>2A30</t>
-  </si>
-  <si>
-    <t>亿新通讯</t>
-  </si>
-  <si>
-    <t>2A32</t>
-  </si>
-  <si>
-    <t>北方通讯</t>
-  </si>
-  <si>
-    <t>2A34</t>
-  </si>
-  <si>
-    <t>兴泰科技</t>
-  </si>
-  <si>
-    <t>2A35</t>
-  </si>
-  <si>
-    <t>国瑞通讯</t>
-  </si>
-  <si>
-    <t>2A36</t>
-  </si>
-  <si>
-    <t>五星科技</t>
-  </si>
-  <si>
-    <t>2A37</t>
-  </si>
-  <si>
-    <t>顺风通讯</t>
-  </si>
-  <si>
-    <t>2A38</t>
-  </si>
-  <si>
-    <t>鸿业通讯</t>
-  </si>
-  <si>
-    <t>2A39</t>
-  </si>
-  <si>
-    <t>飞天通讯</t>
-  </si>
-  <si>
-    <t>2A40A</t>
-  </si>
-  <si>
-    <t>中圣通讯</t>
-  </si>
-  <si>
-    <t>2A41</t>
-  </si>
-  <si>
-    <t>新龙威</t>
-  </si>
-  <si>
-    <t>2A42</t>
-  </si>
-  <si>
-    <t>聚翼通</t>
-  </si>
-  <si>
-    <t>2A43</t>
-  </si>
-  <si>
-    <t>金阳光</t>
-  </si>
-  <si>
-    <t>2A44</t>
-  </si>
-  <si>
-    <t>豫洲通讯</t>
-  </si>
-  <si>
-    <t>2A45</t>
-  </si>
-  <si>
-    <t>正兴通讯</t>
-  </si>
-  <si>
-    <t>2A46</t>
-  </si>
-  <si>
-    <t>誉达科贸</t>
-  </si>
-  <si>
-    <t>2A47</t>
-  </si>
-  <si>
-    <t>黎纳通讯</t>
-  </si>
-  <si>
-    <t>2A48</t>
-  </si>
-  <si>
-    <t>诚毅电子</t>
-  </si>
-  <si>
-    <t>2A49</t>
-  </si>
-  <si>
-    <t>创新时代</t>
-  </si>
-  <si>
-    <t>2A50</t>
-  </si>
-  <si>
-    <t>威铭通讯</t>
-  </si>
-  <si>
-    <t>2A51</t>
-  </si>
-  <si>
-    <t>揽日通讯</t>
-  </si>
-  <si>
-    <t>2A52</t>
-  </si>
-  <si>
-    <t>誉佳通讯</t>
-  </si>
-  <si>
-    <t>2A53</t>
-  </si>
-  <si>
-    <t>霖鑫通讯</t>
-  </si>
-  <si>
-    <t>2A54</t>
-  </si>
-  <si>
-    <t>乐信通讯</t>
-  </si>
-  <si>
-    <t>2B02</t>
-  </si>
-  <si>
-    <t>弘博商贸</t>
-  </si>
-  <si>
-    <t>2B03</t>
-  </si>
-  <si>
-    <t>润杰通讯</t>
-  </si>
-  <si>
-    <t>2B05</t>
-  </si>
-  <si>
-    <t>众宏通讯</t>
-  </si>
-  <si>
-    <t>2B07</t>
-  </si>
-  <si>
-    <t>安东通讯</t>
-  </si>
-  <si>
-    <t>2B08</t>
-  </si>
-  <si>
-    <t>汇金通讯</t>
-  </si>
-  <si>
-    <t>2B09</t>
-  </si>
-  <si>
-    <t>万达通讯</t>
-  </si>
-  <si>
-    <t>2B10</t>
-  </si>
-  <si>
-    <t>科贸通讯</t>
-  </si>
-  <si>
-    <t>2B12</t>
-  </si>
-  <si>
-    <t>天宇通讯</t>
-  </si>
-  <si>
-    <t>2B13</t>
-  </si>
-  <si>
-    <t>三鑫通讯</t>
-  </si>
-  <si>
-    <t>2B14</t>
-  </si>
-  <si>
-    <t>华尚通讯</t>
-  </si>
-  <si>
-    <t>2B15-16</t>
-  </si>
-  <si>
-    <t>骆驼通讯</t>
-  </si>
-  <si>
-    <t>2B17</t>
-  </si>
-  <si>
-    <t>华厦通讯</t>
-  </si>
-  <si>
-    <t>2B20</t>
-  </si>
-  <si>
-    <t>萌兴通讯</t>
-  </si>
-  <si>
-    <t>2B21</t>
-  </si>
-  <si>
-    <t>汇通通讯</t>
-  </si>
-  <si>
-    <t>2B22</t>
-  </si>
-  <si>
-    <t>谦和通讯</t>
-  </si>
-  <si>
-    <t>2B23</t>
-  </si>
-  <si>
-    <t>大唐通讯</t>
-  </si>
-  <si>
-    <t>2B24</t>
-  </si>
-  <si>
-    <t>红鑫通讯</t>
-  </si>
-  <si>
-    <t>2B27</t>
-  </si>
-  <si>
-    <t>通盛通讯</t>
-  </si>
-  <si>
-    <t>2B28</t>
-  </si>
-  <si>
-    <t>海峡通讯</t>
-  </si>
-  <si>
-    <t>2B28A</t>
-  </si>
-  <si>
-    <t>万亿通讯</t>
-  </si>
-  <si>
-    <t>2B30</t>
-  </si>
-  <si>
-    <t>腾翔通讯</t>
-  </si>
-  <si>
-    <t>2B31</t>
-  </si>
-  <si>
-    <t>亿诺通讯</t>
-  </si>
-  <si>
-    <t>2B32</t>
-  </si>
-  <si>
-    <t>世程通讯</t>
-  </si>
-  <si>
-    <t>2B33</t>
-  </si>
-  <si>
-    <t>飞越通讯</t>
-  </si>
-  <si>
-    <t>2B34</t>
-  </si>
-  <si>
-    <t>宏宇通讯</t>
-  </si>
-  <si>
-    <t>2B36</t>
-  </si>
-  <si>
-    <t>河南北方</t>
-  </si>
-  <si>
-    <t>2B37</t>
-  </si>
-  <si>
-    <t>鑫通胜</t>
-  </si>
-  <si>
-    <t>2B38</t>
+    <t>3D10</t>
+  </si>
+  <si>
+    <t>旷视创天</t>
+  </si>
+  <si>
+    <t>3D12</t>
+  </si>
+  <si>
+    <t>东皇通讯</t>
+  </si>
+  <si>
+    <t>3D13</t>
+  </si>
+  <si>
+    <t>兴凯通讯</t>
+  </si>
+  <si>
+    <t>3D16</t>
+  </si>
+  <si>
+    <t>郑州裕美</t>
+  </si>
+  <si>
+    <t>3D18</t>
+  </si>
+  <si>
+    <t>华豫通讯</t>
+  </si>
+  <si>
+    <t>3D20</t>
+  </si>
+  <si>
+    <t>远诚通讯</t>
+  </si>
+  <si>
+    <t>3D22</t>
+  </si>
+  <si>
+    <t>亚星通讯</t>
+  </si>
+  <si>
+    <t>3D23</t>
+  </si>
+  <si>
+    <t>中原恒辉</t>
+  </si>
+  <si>
+    <t>3D25</t>
+  </si>
+  <si>
+    <t>晓航通讯</t>
+  </si>
+  <si>
+    <t>3D26</t>
   </si>
   <si>
     <t>国翔通讯</t>
   </si>
   <si>
-    <t>2C02</t>
-  </si>
-  <si>
-    <t>超盛通讯</t>
-  </si>
-  <si>
-    <t>2C04</t>
-  </si>
-  <si>
-    <t>鑫凯格</t>
-  </si>
-  <si>
-    <t>2C06</t>
-  </si>
-  <si>
-    <t>郑州一达</t>
-  </si>
-  <si>
-    <t>2C07</t>
-  </si>
-  <si>
-    <t>波涛通讯</t>
-  </si>
-  <si>
-    <t>2C07A</t>
-  </si>
-  <si>
-    <t>松联通讯</t>
-  </si>
-  <si>
-    <t>2C08</t>
-  </si>
-  <si>
-    <t>东临通讯</t>
-  </si>
-  <si>
-    <t>2C08A</t>
-  </si>
-  <si>
-    <t>湘腾通讯</t>
-  </si>
-  <si>
-    <t>2C09</t>
-  </si>
-  <si>
-    <t>初心通讯</t>
-  </si>
-  <si>
-    <t>2C10</t>
-  </si>
-  <si>
-    <t>中发通讯</t>
-  </si>
-  <si>
-    <t>2C11A</t>
-  </si>
-  <si>
-    <t>顺发通讯</t>
-  </si>
-  <si>
-    <t>2C12</t>
-  </si>
-  <si>
-    <t>鲁豫通讯</t>
-  </si>
-  <si>
-    <t>2C13A</t>
-  </si>
-  <si>
-    <t>九洲通讯</t>
-  </si>
-  <si>
-    <t>2C13B</t>
-  </si>
-  <si>
-    <t>鸿之联</t>
-  </si>
-  <si>
-    <t>2C14</t>
-  </si>
-  <si>
-    <t>致和通讯</t>
-  </si>
-  <si>
-    <t>2C15</t>
-  </si>
-  <si>
-    <t>久月通讯</t>
-  </si>
-  <si>
-    <t>2C16</t>
-  </si>
-  <si>
-    <t>恒盛通讯</t>
-  </si>
-  <si>
-    <t>2C19</t>
-  </si>
-  <si>
-    <t>众和通讯</t>
-  </si>
-  <si>
-    <t>2C20</t>
-  </si>
-  <si>
-    <t>鼎行国产</t>
-  </si>
-  <si>
-    <t>2C22</t>
-  </si>
-  <si>
-    <t>宇迅达</t>
-  </si>
-  <si>
-    <t>2C23</t>
-  </si>
-  <si>
-    <t>闽华通讯</t>
-  </si>
-  <si>
-    <t>2C24</t>
-  </si>
-  <si>
-    <t>融盛通讯</t>
-  </si>
-  <si>
-    <t>2C25</t>
-  </si>
-  <si>
-    <t>新起点</t>
-  </si>
-  <si>
-    <t>2C25A</t>
-  </si>
-  <si>
-    <t>宏利达</t>
-  </si>
-  <si>
-    <t>2C26</t>
-  </si>
-  <si>
-    <t>叁陆玖</t>
-  </si>
-  <si>
-    <t>2C26A</t>
-  </si>
-  <si>
-    <t>鑫锦荣</t>
-  </si>
-  <si>
-    <t>2C27</t>
-  </si>
-  <si>
-    <t>德鸿通讯</t>
-  </si>
-  <si>
-    <t>2C28</t>
-  </si>
-  <si>
-    <t>联魅电科</t>
-  </si>
-  <si>
-    <t>2C29</t>
-  </si>
-  <si>
-    <t>河马通讯</t>
-  </si>
-  <si>
-    <t>2C30</t>
-  </si>
-  <si>
-    <t>东润小米</t>
-  </si>
-  <si>
-    <t>2C32</t>
-  </si>
-  <si>
-    <t>宇星科技</t>
-  </si>
-  <si>
-    <t>2C33</t>
-  </si>
-  <si>
-    <t>2C34</t>
-  </si>
-  <si>
-    <t>凯森商贸</t>
-  </si>
-  <si>
-    <t>2C35</t>
-  </si>
-  <si>
-    <t>大宇电讯</t>
-  </si>
-  <si>
-    <t>2C36</t>
-  </si>
-  <si>
-    <t>两岸通讯</t>
-  </si>
-  <si>
-    <t>2C37</t>
-  </si>
-  <si>
-    <t>鑫隆源</t>
-  </si>
-  <si>
-    <t>2C38</t>
-  </si>
-  <si>
-    <t>海天商贸</t>
-  </si>
-  <si>
-    <t>2C39</t>
-  </si>
-  <si>
-    <t>3G时代OV部</t>
-  </si>
-  <si>
-    <t>2C40</t>
-  </si>
-  <si>
-    <t>信合通讯</t>
-  </si>
-  <si>
-    <t>2C41</t>
-  </si>
-  <si>
-    <t>七月通讯</t>
-  </si>
-  <si>
-    <t>2C41A</t>
-  </si>
-  <si>
-    <t>波越通讯</t>
-  </si>
-  <si>
-    <t>2C42</t>
-  </si>
-  <si>
-    <t>新一方</t>
-  </si>
-  <si>
-    <t>2C43</t>
-  </si>
-  <si>
-    <t>茂源通讯</t>
-  </si>
-  <si>
-    <t>2C44A</t>
-  </si>
-  <si>
-    <t>恒波通讯</t>
-  </si>
-  <si>
-    <t>2C45</t>
-  </si>
-  <si>
-    <t>未浩贸易</t>
-  </si>
-  <si>
-    <t>2C46</t>
-  </si>
-  <si>
-    <t>云华通讯</t>
-  </si>
-  <si>
-    <t>2C47</t>
-  </si>
-  <si>
-    <t>珍珍通讯</t>
-  </si>
-  <si>
-    <t>2C48</t>
-  </si>
-  <si>
-    <t>瑞涛苹果</t>
-  </si>
-  <si>
-    <t>2C49</t>
-  </si>
-  <si>
-    <t>瑞涛国产</t>
-  </si>
-  <si>
-    <t>2C50</t>
-  </si>
-  <si>
-    <t>瑞英通讯</t>
-  </si>
-  <si>
-    <t>2C51</t>
-  </si>
-  <si>
-    <t>富达通讯</t>
-  </si>
-  <si>
-    <t>2C52</t>
-  </si>
-  <si>
-    <t>龙祥通讯</t>
-  </si>
-  <si>
-    <t>2C54</t>
-  </si>
-  <si>
-    <t>欣鑫通讯</t>
-  </si>
-  <si>
-    <t>2C56</t>
-  </si>
-  <si>
-    <t>中亚通讯</t>
-  </si>
-  <si>
-    <t>2C57</t>
-  </si>
-  <si>
-    <t>淦淦通讯</t>
-  </si>
-  <si>
-    <t>2C59</t>
-  </si>
-  <si>
-    <t>浩通通讯</t>
-  </si>
-  <si>
-    <t>2C60</t>
-  </si>
-  <si>
-    <t>浩轩通讯</t>
-  </si>
-  <si>
-    <t>2C62</t>
-  </si>
-  <si>
-    <t>大河通讯</t>
-  </si>
-  <si>
-    <t>2C63</t>
-  </si>
-  <si>
-    <t>嘉祥通讯</t>
-  </si>
-  <si>
-    <t>2C64</t>
-  </si>
-  <si>
-    <t>郑州佳联</t>
-  </si>
-  <si>
-    <t>2D02</t>
-  </si>
-  <si>
-    <t>晨曦通讯</t>
-  </si>
-  <si>
-    <t>2D03</t>
-  </si>
-  <si>
-    <t>优优科技</t>
-  </si>
-  <si>
-    <t>2D04</t>
-  </si>
-  <si>
-    <t>窑窑通讯</t>
-  </si>
-  <si>
-    <t>2D07</t>
-  </si>
-  <si>
-    <t>雷宇通讯</t>
-  </si>
-  <si>
-    <t>2D08</t>
-  </si>
-  <si>
-    <t>佑晟通讯</t>
-  </si>
-  <si>
-    <t>2D09</t>
-  </si>
-  <si>
-    <t>瑞成通讯</t>
-  </si>
-  <si>
-    <t>2D12</t>
-  </si>
-  <si>
-    <t>富康通讯</t>
-  </si>
-  <si>
-    <t>2D13</t>
-  </si>
-  <si>
-    <t>郑州华远</t>
-  </si>
-  <si>
-    <t>2D16</t>
-  </si>
-  <si>
-    <t>金诺通讯</t>
-  </si>
-  <si>
-    <t>2D17</t>
-  </si>
-  <si>
-    <t>振华科技</t>
-  </si>
-  <si>
-    <t>2D18</t>
-  </si>
-  <si>
-    <t>华通通讯</t>
-  </si>
-  <si>
-    <t>2D20</t>
-  </si>
-  <si>
-    <t>郑州弘鑫</t>
-  </si>
-  <si>
-    <t>2D20A</t>
-  </si>
-  <si>
-    <t>孟飞通讯</t>
-  </si>
-  <si>
-    <t>2D21</t>
-  </si>
-  <si>
-    <t>天天通讯</t>
-  </si>
-  <si>
-    <t>2D22</t>
-  </si>
-  <si>
-    <t>智能易讯</t>
-  </si>
-  <si>
-    <t>2D23</t>
-  </si>
-  <si>
-    <t>丽达通讯</t>
-  </si>
-  <si>
-    <t>2D24</t>
-  </si>
-  <si>
-    <t>心悦贸易</t>
-  </si>
-  <si>
-    <t>2D24A</t>
-  </si>
-  <si>
-    <t>众成通讯</t>
-  </si>
-  <si>
-    <t>2D25</t>
-  </si>
-  <si>
-    <t>金马通讯</t>
-  </si>
-  <si>
-    <t>2D26</t>
-  </si>
-  <si>
-    <t>2D26A</t>
-  </si>
-  <si>
-    <t>翼祥通讯</t>
-  </si>
-  <si>
-    <t>2D27</t>
-  </si>
-  <si>
-    <t>华贸通讯</t>
-  </si>
-  <si>
-    <t>2D28</t>
-  </si>
-  <si>
-    <t>鑫银泰</t>
-  </si>
-  <si>
-    <t>2D29</t>
-  </si>
-  <si>
-    <t>祥源通讯</t>
-  </si>
-  <si>
-    <t>2D30</t>
-  </si>
-  <si>
-    <t>正阳通讯</t>
-  </si>
-  <si>
-    <t>2D31</t>
-  </si>
-  <si>
-    <t>宏盛通讯</t>
-  </si>
-  <si>
-    <t>2D32</t>
-  </si>
-  <si>
-    <t>金海通讯</t>
-  </si>
-  <si>
-    <t>2D33</t>
-  </si>
-  <si>
-    <t>恒华通讯</t>
-  </si>
-  <si>
-    <t>2D34</t>
-  </si>
-  <si>
-    <t>闵南电信</t>
-  </si>
-  <si>
-    <t>2D35</t>
-  </si>
-  <si>
-    <t>魅鑫商贸</t>
-  </si>
-  <si>
-    <t>2D37</t>
-  </si>
-  <si>
-    <t>万通通讯</t>
-  </si>
-  <si>
-    <t>2D38</t>
-  </si>
-  <si>
-    <t>鸿运通讯</t>
-  </si>
-  <si>
-    <t>2D39</t>
-  </si>
-  <si>
-    <t>天胜通讯</t>
-  </si>
-  <si>
-    <t>2D40</t>
-  </si>
-  <si>
-    <t>龙腾通讯</t>
-  </si>
-  <si>
-    <t>2D41</t>
-  </si>
-  <si>
-    <t>申明通讯</t>
-  </si>
-  <si>
-    <t>2D41A</t>
-  </si>
-  <si>
-    <t>和美通讯</t>
-  </si>
-  <si>
-    <t>2D42</t>
-  </si>
-  <si>
-    <t>翼达通讯</t>
-  </si>
-  <si>
-    <t>2D43</t>
-  </si>
-  <si>
-    <t>蓝宇通讯</t>
-  </si>
-  <si>
-    <t>2D44</t>
-  </si>
-  <si>
-    <t>2D45</t>
-  </si>
-  <si>
-    <t>盛达通讯</t>
-  </si>
-  <si>
-    <t>2D46-2D47</t>
-  </si>
-  <si>
-    <t>长河天成</t>
-  </si>
-  <si>
-    <t>2D48</t>
-  </si>
-  <si>
-    <t>恒惠通讯</t>
-  </si>
-  <si>
-    <t>2D49</t>
-  </si>
-  <si>
-    <t>小辉通讯</t>
-  </si>
-  <si>
-    <t>3A01</t>
-  </si>
-  <si>
-    <t>汉飞科技</t>
-  </si>
-  <si>
-    <t>3A02</t>
-  </si>
-  <si>
-    <t>万源通讯</t>
-  </si>
-  <si>
-    <t>3A05</t>
-  </si>
-  <si>
-    <t>郑州宏远</t>
-  </si>
-  <si>
-    <t>3A08</t>
-  </si>
-  <si>
-    <t>3A10</t>
-  </si>
-  <si>
-    <t>郑州新星</t>
-  </si>
-  <si>
-    <t>3A12</t>
-  </si>
-  <si>
-    <t>利鑫通讯</t>
-  </si>
-  <si>
-    <t>3A13</t>
-  </si>
-  <si>
-    <t>宇丰通讯</t>
-  </si>
-  <si>
-    <t>3A14</t>
-  </si>
-  <si>
-    <t>兄弟联盟</t>
-  </si>
-  <si>
-    <t>3A15</t>
-  </si>
-  <si>
-    <t>志诚通讯</t>
-  </si>
-  <si>
-    <t>3A18</t>
-  </si>
-  <si>
-    <t>森林通讯</t>
-  </si>
-  <si>
-    <t>3A19</t>
-  </si>
-  <si>
-    <t>启航通讯</t>
-  </si>
-  <si>
-    <t>3A20</t>
-  </si>
-  <si>
-    <t>华翼通讯</t>
-  </si>
-  <si>
-    <t>3A22</t>
-  </si>
-  <si>
-    <t>永安通讯</t>
-  </si>
-  <si>
-    <t>3A24</t>
-  </si>
-  <si>
-    <t>胜恒通讯</t>
-  </si>
-  <si>
-    <t>3A25</t>
-  </si>
-  <si>
-    <t>天和通讯</t>
-  </si>
-  <si>
-    <t>3A26</t>
-  </si>
-  <si>
-    <t>宇威通讯</t>
-  </si>
-  <si>
-    <t>3A27</t>
-  </si>
-  <si>
-    <t>舒雅通讯</t>
-  </si>
-  <si>
-    <t>3A28</t>
-  </si>
-  <si>
-    <t>无限通讯</t>
-  </si>
-  <si>
-    <t>3A29</t>
-  </si>
-  <si>
-    <t>程浩通讯</t>
-  </si>
-  <si>
-    <t>3A30</t>
-  </si>
-  <si>
-    <t>3A31</t>
-  </si>
-  <si>
-    <t>星光通讯</t>
-  </si>
-  <si>
-    <t>3A32</t>
-  </si>
-  <si>
-    <t>龙达通讯</t>
-  </si>
-  <si>
-    <t>3A33</t>
-  </si>
-  <si>
-    <t>天鸿通讯</t>
-  </si>
-  <si>
-    <t>3A35</t>
-  </si>
-  <si>
-    <t>鑫之源</t>
-  </si>
-  <si>
-    <t>3A36</t>
-  </si>
-  <si>
-    <t>3A37</t>
-  </si>
-  <si>
-    <t>郑州志诚</t>
-  </si>
-  <si>
-    <t>3A38</t>
-  </si>
-  <si>
-    <t>河南易雅</t>
-  </si>
-  <si>
-    <t>3A39</t>
-  </si>
-  <si>
-    <t>羿龙通讯</t>
-  </si>
-  <si>
-    <t>3A41</t>
-  </si>
-  <si>
-    <t>永顺通讯</t>
-  </si>
-  <si>
-    <t>3A42</t>
-  </si>
-  <si>
-    <t>鑫昌通讯</t>
-  </si>
-  <si>
-    <t>3A44</t>
-  </si>
-  <si>
-    <t>华辰通讯</t>
-  </si>
-  <si>
-    <t>3A45</t>
-  </si>
-  <si>
-    <t>瀚达科贸</t>
-  </si>
-  <si>
-    <t>3A46</t>
-  </si>
-  <si>
-    <t>亨通通讯</t>
-  </si>
-  <si>
-    <t>3A48</t>
-  </si>
-  <si>
-    <t>宁宁通讯</t>
-  </si>
-  <si>
-    <t>3A49</t>
-  </si>
-  <si>
-    <t>世纪风</t>
-  </si>
-  <si>
-    <t>3A50</t>
-  </si>
-  <si>
-    <t>金峰通讯</t>
-  </si>
-  <si>
-    <t>3A51</t>
-  </si>
-  <si>
-    <t>东海通讯</t>
-  </si>
-  <si>
-    <t>3A52</t>
-  </si>
-  <si>
-    <t>易达通讯</t>
-  </si>
-  <si>
-    <t>3A53</t>
-  </si>
-  <si>
-    <t>中峰通讯</t>
-  </si>
-  <si>
-    <t>3B01</t>
-  </si>
-  <si>
-    <t>云坤通讯</t>
-  </si>
-  <si>
-    <t>3B10</t>
-  </si>
-  <si>
-    <t>高阔科技</t>
-  </si>
-  <si>
-    <t>3B12</t>
-  </si>
-  <si>
-    <t>安信通讯</t>
-  </si>
-  <si>
-    <t>3B14</t>
-  </si>
-  <si>
-    <t>轩昂通讯</t>
-  </si>
-  <si>
-    <t>3B15</t>
-  </si>
-  <si>
-    <t>宏辉通讯</t>
-  </si>
-  <si>
-    <t>3B16</t>
-  </si>
-  <si>
-    <t>好机友</t>
-  </si>
-  <si>
-    <t>3B17</t>
-  </si>
-  <si>
-    <t>昱成商贸</t>
-  </si>
-  <si>
-    <t>3B18</t>
-  </si>
-  <si>
-    <t>金鹰通讯</t>
-  </si>
-  <si>
-    <t>3B19</t>
-  </si>
-  <si>
-    <t>龙威通讯</t>
-  </si>
-  <si>
-    <t>3B20</t>
-  </si>
-  <si>
-    <t>永兴隆</t>
-  </si>
-  <si>
-    <t>3B21</t>
-  </si>
-  <si>
-    <t>蔚蓝通讯</t>
-  </si>
-  <si>
-    <t>3B22</t>
-  </si>
-  <si>
-    <t>京诚通讯</t>
-  </si>
-  <si>
-    <t>3B23</t>
-  </si>
-  <si>
-    <t>鑫兴盛</t>
-  </si>
-  <si>
-    <t>3B24</t>
-  </si>
-  <si>
-    <t>帝友通讯</t>
-  </si>
-  <si>
-    <t>3B27</t>
-  </si>
-  <si>
-    <t>豫通通讯</t>
-  </si>
-  <si>
-    <t>3B28</t>
-  </si>
-  <si>
-    <t>华峰通讯</t>
-  </si>
-  <si>
-    <t>3B32</t>
-  </si>
-  <si>
-    <t>伟业商贸</t>
-  </si>
-  <si>
-    <t>3B33</t>
-  </si>
-  <si>
-    <t>虹阳通讯</t>
-  </si>
-  <si>
-    <t>3B34</t>
-  </si>
-  <si>
-    <t>呈耀商贸</t>
-  </si>
-  <si>
-    <t>3B35</t>
-  </si>
-  <si>
-    <t>路博通讯</t>
-  </si>
-  <si>
-    <t>3B36</t>
-  </si>
-  <si>
-    <t>中环通讯</t>
-  </si>
-  <si>
-    <t>3C01</t>
-  </si>
-  <si>
-    <t>赛朗通讯</t>
-  </si>
-  <si>
-    <t>3C02</t>
-  </si>
-  <si>
-    <t>海洋通讯</t>
-  </si>
-  <si>
-    <t>3C07</t>
-  </si>
-  <si>
-    <t>有数通讯</t>
-  </si>
-  <si>
-    <t>3C09</t>
-  </si>
-  <si>
-    <t>飞腾通讯</t>
-  </si>
-  <si>
-    <t>3C10</t>
-  </si>
-  <si>
-    <t>捷达通讯</t>
-  </si>
-  <si>
-    <t>3C11</t>
-  </si>
-  <si>
-    <t>宇达通讯</t>
-  </si>
-  <si>
-    <t>3C12</t>
-  </si>
-  <si>
-    <t>传音科贸</t>
-  </si>
-  <si>
-    <t>3C19</t>
-  </si>
-  <si>
-    <t>欣诚通讯</t>
-  </si>
-  <si>
-    <t>3C21</t>
-  </si>
-  <si>
-    <t>众城通讯</t>
-  </si>
-  <si>
-    <t>3C28</t>
-  </si>
-  <si>
-    <t>联络通讯</t>
-  </si>
-  <si>
-    <t>3C29</t>
-  </si>
-  <si>
-    <t>翼博通讯</t>
-  </si>
-  <si>
-    <t>3C32</t>
-  </si>
-  <si>
-    <t>亿隆通讯</t>
-  </si>
-  <si>
-    <t>3C33</t>
-  </si>
-  <si>
-    <t>德学通讯</t>
-  </si>
-  <si>
-    <t>3C36</t>
-  </si>
-  <si>
-    <t>思玥通讯</t>
-  </si>
-  <si>
-    <t>3C37</t>
-  </si>
-  <si>
-    <t>七星科技</t>
-  </si>
-  <si>
-    <t>3C38</t>
-  </si>
-  <si>
-    <t>东利源升</t>
-  </si>
-  <si>
-    <t>3C39</t>
-  </si>
-  <si>
-    <t>飞虹通讯</t>
-  </si>
-  <si>
-    <t>3C41</t>
-  </si>
-  <si>
-    <t>广治通讯</t>
-  </si>
-  <si>
-    <t>3C42</t>
-  </si>
-  <si>
-    <t>鼎峰通讯</t>
-  </si>
-  <si>
-    <t>3C47</t>
-  </si>
-  <si>
-    <t>豪文通讯</t>
-  </si>
-  <si>
-    <t>3C48</t>
-  </si>
-  <si>
-    <t>英杰通讯</t>
-  </si>
-  <si>
-    <t>3C49</t>
-  </si>
-  <si>
-    <t>苹秀通讯</t>
-  </si>
-  <si>
-    <t>3C50</t>
-  </si>
-  <si>
-    <t>东方通讯</t>
-  </si>
-  <si>
-    <t>3C51</t>
-  </si>
-  <si>
-    <t>卓越通讯</t>
-  </si>
-  <si>
-    <t>3C52</t>
-  </si>
-  <si>
-    <t>机汇城</t>
-  </si>
-  <si>
-    <t>3C53</t>
-  </si>
-  <si>
-    <t>名扬科技</t>
-  </si>
-  <si>
-    <t>3C54</t>
-  </si>
-  <si>
-    <t>康阜通讯</t>
-  </si>
-  <si>
-    <t>3C55</t>
-  </si>
-  <si>
-    <t>豫创通讯</t>
-  </si>
-  <si>
-    <t>3C56</t>
-  </si>
-  <si>
-    <t>万豪优品</t>
-  </si>
-  <si>
-    <t>3C57</t>
-  </si>
-  <si>
-    <t>翼捷科技</t>
-  </si>
-  <si>
-    <t>3C58</t>
-  </si>
-  <si>
-    <t>鑫宇通讯</t>
-  </si>
-  <si>
-    <t>3C59</t>
-  </si>
-  <si>
-    <t>晨辉通讯</t>
-  </si>
-  <si>
-    <t>3C60</t>
-  </si>
-  <si>
-    <t>鑫方圆</t>
-  </si>
-  <si>
-    <t>3C61</t>
-  </si>
-  <si>
-    <t>曦东通讯</t>
-  </si>
-  <si>
-    <t>3C62</t>
-  </si>
-  <si>
-    <t>郑州鸿兴</t>
-  </si>
-  <si>
-    <t>3C63</t>
-  </si>
-  <si>
-    <t>3C64</t>
-  </si>
-  <si>
-    <t>蓝创通讯</t>
-  </si>
-  <si>
-    <t>3D02</t>
-  </si>
-  <si>
-    <t>鑫源通讯</t>
-  </si>
-  <si>
-    <t>3D03</t>
-  </si>
-  <si>
-    <t>超博晟</t>
-  </si>
-  <si>
-    <t>3D04</t>
-  </si>
-  <si>
-    <t>尚讯通</t>
-  </si>
-  <si>
-    <t>3D07</t>
-  </si>
-  <si>
-    <t>恒源通讯</t>
-  </si>
-  <si>
-    <t>3D08</t>
-  </si>
-  <si>
-    <t>利龙通讯</t>
-  </si>
-  <si>
-    <t>3D10</t>
-  </si>
-  <si>
-    <t>旷视创天</t>
-  </si>
-  <si>
-    <t>3D12</t>
-  </si>
-  <si>
-    <t>东皇通讯</t>
-  </si>
-  <si>
-    <t>3D13</t>
-  </si>
-  <si>
-    <t>兴凯通讯</t>
-  </si>
-  <si>
-    <t>3D16</t>
-  </si>
-  <si>
-    <t>郑州裕美</t>
-  </si>
-  <si>
-    <t>3D18</t>
-  </si>
-  <si>
-    <t>华豫通讯</t>
-  </si>
-  <si>
-    <t>3D20</t>
-  </si>
-  <si>
-    <t>远诚通讯</t>
-  </si>
-  <si>
-    <t>3D22</t>
-  </si>
-  <si>
-    <t>亚星通讯</t>
-  </si>
-  <si>
-    <t>3D23</t>
-  </si>
-  <si>
-    <t>中原恒辉</t>
-  </si>
-  <si>
-    <t>3D25</t>
-  </si>
-  <si>
-    <t>晓航通讯</t>
-  </si>
-  <si>
-    <t>3D26</t>
+    <t>3D27</t>
   </si>
   <si>
     <t>华为科技</t>
@@ -2601,7 +2544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C381"/>
+  <dimension ref="A1:C371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2765,7 +2708,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -2776,7 +2719,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -2787,7 +2730,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -2798,7 +2741,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -2809,7 +2752,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -2820,7 +2763,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>550</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -2831,7 +2774,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>154</v>
+        <v>3876</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -2842,7 +2785,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>3876</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -2853,7 +2796,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>241</v>
+        <v>578</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
@@ -2864,7 +2807,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>578</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -2875,7 +2818,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>138</v>
+        <v>502</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
@@ -2886,7 +2829,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>252</v>
+        <v>421</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -2897,7 +2840,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
@@ -2908,7 +2851,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>421</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
@@ -2919,32 +2862,32 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>214</v>
+        <v>889</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>502</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
         <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>889</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -2952,7 +2895,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>213</v>
+        <v>420</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
@@ -2963,7 +2906,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -2974,7 +2917,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>420</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -2985,7 +2928,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -2996,7 +2939,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>165</v>
+        <v>3051</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
@@ -3007,7 +2950,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
@@ -3018,7 +2961,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>3051</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
@@ -3029,7 +2972,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>347</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
@@ -3040,7 +2983,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>172</v>
+        <v>402</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
@@ -3051,7 +2994,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>169</v>
+        <v>579</v>
       </c>
       <c r="B41" t="s">
         <v>79</v>
@@ -3062,7 +3005,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>402</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
@@ -3073,7 +3016,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>579</v>
+        <v>242</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -3084,7 +3027,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>283</v>
+        <v>498</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
@@ -3095,7 +3038,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -3106,7 +3049,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
@@ -3117,7 +3060,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
@@ -3128,7 +3071,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -3139,7 +3082,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>178</v>
+        <v>419</v>
       </c>
       <c r="B49" t="s">
         <v>95</v>
@@ -3150,7 +3093,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>410</v>
+        <v>649</v>
       </c>
       <c r="B50" t="s">
         <v>97</v>
@@ -3161,7 +3104,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>419</v>
+        <v>3054</v>
       </c>
       <c r="B51" t="s">
         <v>99</v>
@@ -3172,7 +3115,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>164</v>
+        <v>581</v>
       </c>
       <c r="B52" t="s">
         <v>101</v>
@@ -3183,7 +3126,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>649</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s">
         <v>103</v>
@@ -3194,7 +3137,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>3054</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s">
         <v>105</v>
@@ -3205,7 +3148,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>581</v>
+        <v>262</v>
       </c>
       <c r="B55" t="s">
         <v>107</v>
@@ -3216,43 +3159,43 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>582</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
         <v>109</v>
-      </c>
-      <c r="C56" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
         <v>111</v>
-      </c>
-      <c r="C57" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
         <v>113</v>
-      </c>
-      <c r="C58" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
         <v>115</v>
@@ -3260,7 +3203,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>377</v>
+        <v>3692</v>
       </c>
       <c r="B60" t="s">
         <v>116</v>
@@ -3271,7 +3214,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>329</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
         <v>118</v>
@@ -3282,7 +3225,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="B62" t="s">
         <v>120</v>
@@ -3293,7 +3236,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>3692</v>
+        <v>3824</v>
       </c>
       <c r="B63" t="s">
         <v>122</v>
@@ -3304,7 +3247,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>139</v>
+        <v>2097</v>
       </c>
       <c r="B64" t="s">
         <v>124</v>
@@ -3315,7 +3258,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
         <v>126</v>
@@ -3326,7 +3269,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>3824</v>
+        <v>380</v>
       </c>
       <c r="B66" t="s">
         <v>128</v>
@@ -3337,7 +3280,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>2097</v>
+        <v>1040</v>
       </c>
       <c r="B67" t="s">
         <v>130</v>
@@ -3348,7 +3291,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
         <v>132</v>
@@ -3359,7 +3302,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>380</v>
+        <v>5112</v>
       </c>
       <c r="B69" t="s">
         <v>134</v>
@@ -3370,7 +3313,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>1040</v>
+        <v>331</v>
       </c>
       <c r="B70" t="s">
         <v>136</v>
@@ -3381,7 +3324,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>156</v>
+        <v>647</v>
       </c>
       <c r="B71" t="s">
         <v>138</v>
@@ -3392,7 +3335,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>5112</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s">
         <v>140</v>
@@ -3403,7 +3346,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>145</v>
+        <v>466</v>
       </c>
       <c r="B73" t="s">
         <v>142</v>
@@ -3414,7 +3357,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B74" t="s">
         <v>144</v>
@@ -3425,7 +3368,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>647</v>
+        <v>409</v>
       </c>
       <c r="B75" t="s">
         <v>146</v>
@@ -3436,7 +3379,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>297</v>
+        <v>415</v>
       </c>
       <c r="B76" t="s">
         <v>148</v>
@@ -3447,7 +3390,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>466</v>
+        <v>166</v>
       </c>
       <c r="B77" t="s">
         <v>150</v>
@@ -3458,7 +3401,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B78" t="s">
         <v>152</v>
@@ -3469,54 +3412,54 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>409</v>
+        <v>339</v>
       </c>
       <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
         <v>154</v>
-      </c>
-      <c r="C79" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>415</v>
+        <v>340</v>
       </c>
       <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
         <v>156</v>
-      </c>
-      <c r="C80" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>166</v>
+        <v>468</v>
       </c>
       <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
         <v>158</v>
-      </c>
-      <c r="C81" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
         <v>160</v>
-      </c>
-      <c r="C82" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>339</v>
+        <v>3342</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
         <v>162</v>
@@ -3524,7 +3467,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>340</v>
+        <v>184</v>
       </c>
       <c r="B84" t="s">
         <v>163</v>
@@ -3535,7 +3478,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>468</v>
+        <v>345</v>
       </c>
       <c r="B85" t="s">
         <v>165</v>
@@ -3546,7 +3489,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s">
         <v>167</v>
@@ -3557,7 +3500,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>4088</v>
+        <v>358</v>
       </c>
       <c r="B87" t="s">
         <v>169</v>
@@ -3568,7 +3511,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B88" t="s">
         <v>171</v>
@@ -3579,7 +3522,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="B89" t="s">
         <v>173</v>
@@ -3590,7 +3533,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>358</v>
+        <v>5566</v>
       </c>
       <c r="B90" t="s">
         <v>175</v>
@@ -3601,7 +3544,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>871</v>
+        <v>361</v>
       </c>
       <c r="B91" t="s">
         <v>177</v>
@@ -3612,7 +3555,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>351</v>
+        <v>521</v>
       </c>
       <c r="B92" t="s">
         <v>179</v>
@@ -3623,7 +3566,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>353</v>
+        <v>481</v>
       </c>
       <c r="B93" t="s">
         <v>181</v>
@@ -3634,7 +3577,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>356</v>
+        <v>483</v>
       </c>
       <c r="B94" t="s">
         <v>183</v>
@@ -3645,7 +3588,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>221</v>
+        <v>484</v>
       </c>
       <c r="B95" t="s">
         <v>185</v>
@@ -3656,7 +3599,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>361</v>
+        <v>505</v>
       </c>
       <c r="B96" t="s">
         <v>187</v>
@@ -3667,7 +3610,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="B97" t="s">
         <v>189</v>
@@ -3678,7 +3621,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>481</v>
+        <v>222</v>
       </c>
       <c r="B98" t="s">
         <v>191</v>
@@ -3689,7 +3632,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="B99" t="s">
         <v>193</v>
@@ -3700,7 +3643,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B100" t="s">
         <v>195</v>
@@ -3711,7 +3654,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>315</v>
+        <v>180</v>
       </c>
       <c r="B101" t="s">
         <v>197</v>
@@ -3722,7 +3665,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>551</v>
+        <v>217</v>
       </c>
       <c r="B102" t="s">
         <v>199</v>
@@ -3733,7 +3676,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>471</v>
+        <v>871</v>
       </c>
       <c r="B103" t="s">
         <v>201</v>
@@ -3744,7 +3687,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>180</v>
+        <v>435</v>
       </c>
       <c r="B104" t="s">
         <v>203</v>
@@ -3755,7 +3698,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="B105" t="s">
         <v>205</v>
@@ -3766,7 +3709,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>452</v>
+        <v>355</v>
       </c>
       <c r="B106" t="s">
         <v>207</v>
@@ -3777,7 +3720,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="B107" t="s">
         <v>209</v>
@@ -3788,7 +3731,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
         <v>211</v>
@@ -3799,7 +3742,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="B109" t="s">
         <v>213</v>
@@ -3810,7 +3753,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>254</v>
+        <v>352</v>
       </c>
       <c r="B110" t="s">
         <v>215</v>
@@ -3821,7 +3764,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>257</v>
+        <v>487</v>
       </c>
       <c r="B111" t="s">
         <v>217</v>
@@ -3832,7 +3775,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B112" t="s">
         <v>219</v>
@@ -3843,7 +3786,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>352</v>
+        <v>489</v>
       </c>
       <c r="B113" t="s">
         <v>221</v>
@@ -3854,7 +3797,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>487</v>
+        <v>3370</v>
       </c>
       <c r="B114" t="s">
         <v>223</v>
@@ -3865,7 +3808,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>209</v>
+        <v>490</v>
       </c>
       <c r="B115" t="s">
         <v>225</v>
@@ -3876,7 +3819,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B116" t="s">
         <v>227</v>
@@ -3887,7 +3830,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="n">
-        <v>3370</v>
+        <v>493</v>
       </c>
       <c r="B117" t="s">
         <v>229</v>
@@ -3898,7 +3841,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="n">
-        <v>490</v>
+        <v>387</v>
       </c>
       <c r="B118" t="s">
         <v>231</v>
@@ -3909,7 +3852,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="n">
-        <v>492</v>
+        <v>245</v>
       </c>
       <c r="B119" t="s">
         <v>233</v>
@@ -3920,7 +3863,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B120" t="s">
         <v>235</v>
@@ -3931,7 +3874,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="n">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B121" t="s">
         <v>237</v>
@@ -3942,7 +3885,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="n">
-        <v>245</v>
+        <v>496</v>
       </c>
       <c r="B122" t="s">
         <v>239</v>
@@ -3953,7 +3896,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="n">
-        <v>494</v>
+        <v>223</v>
       </c>
       <c r="B123" t="s">
         <v>241</v>
@@ -3964,7 +3907,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="n">
-        <v>373</v>
+        <v>219</v>
       </c>
       <c r="B124" t="s">
         <v>243</v>
@@ -3975,7 +3918,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="n">
-        <v>496</v>
+        <v>292</v>
       </c>
       <c r="B125" t="s">
         <v>245</v>
@@ -3986,7 +3929,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="n">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="B126" t="s">
         <v>247</v>
@@ -3997,7 +3940,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="n">
-        <v>223</v>
+        <v>3150</v>
       </c>
       <c r="B127" t="s">
         <v>249</v>
@@ -4008,7 +3951,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="n">
-        <v>219</v>
+        <v>485</v>
       </c>
       <c r="B128" t="s">
         <v>251</v>
@@ -4019,7 +3962,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="n">
-        <v>499</v>
+        <v>384</v>
       </c>
       <c r="B129" t="s">
         <v>253</v>
@@ -4030,7 +3973,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="n">
-        <v>292</v>
+        <v>3118</v>
       </c>
       <c r="B130" t="s">
         <v>255</v>
@@ -4041,7 +3984,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="n">
-        <v>554</v>
+        <v>145</v>
       </c>
       <c r="B131" t="s">
         <v>257</v>
@@ -4052,7 +3995,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="n">
-        <v>3150</v>
+        <v>250</v>
       </c>
       <c r="B132" t="s">
         <v>259</v>
@@ -4063,7 +4006,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="n">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="B133" t="s">
         <v>261</v>
@@ -4074,7 +4017,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="n">
-        <v>384</v>
+        <v>151</v>
       </c>
       <c r="B134" t="s">
         <v>263</v>
@@ -4085,7 +4028,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="n">
-        <v>2797</v>
+        <v>318</v>
       </c>
       <c r="B135" t="s">
         <v>265</v>
@@ -4096,7 +4039,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="n">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="B136" t="s">
         <v>267</v>
@@ -4107,7 +4050,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="n">
-        <v>501</v>
+        <v>388</v>
       </c>
       <c r="B137" t="s">
         <v>269</v>
@@ -4118,7 +4061,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="n">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="B138" t="s">
         <v>271</v>
@@ -4129,7 +4072,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="n">
-        <v>318</v>
+        <v>607</v>
       </c>
       <c r="B139" t="s">
         <v>273</v>
@@ -4140,7 +4083,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="n">
-        <v>191</v>
+        <v>2037</v>
       </c>
       <c r="B140" t="s">
         <v>275</v>
@@ -4151,7 +4094,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="n">
-        <v>388</v>
+        <v>274</v>
       </c>
       <c r="B141" t="s">
         <v>277</v>
@@ -4162,7 +4105,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="n">
-        <v>255</v>
+        <v>547</v>
       </c>
       <c r="B142" t="s">
         <v>279</v>
@@ -4173,7 +4116,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="n">
-        <v>607</v>
+        <v>309</v>
       </c>
       <c r="B143" t="s">
         <v>281</v>
@@ -4184,7 +4127,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="n">
-        <v>2037</v>
+        <v>319</v>
       </c>
       <c r="B144" t="s">
         <v>283</v>
@@ -4195,7 +4138,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="n">
-        <v>3684</v>
+        <v>265</v>
       </c>
       <c r="B145" t="s">
         <v>285</v>
@@ -4206,7 +4149,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="n">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="B146" t="s">
         <v>287</v>
@@ -4217,7 +4160,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="n">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="B147" t="s">
         <v>289</v>
@@ -4228,7 +4171,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="n">
-        <v>265</v>
+        <v>431</v>
       </c>
       <c r="B148" t="s">
         <v>291</v>
@@ -4239,7 +4182,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="n">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="B149" t="s">
         <v>293</v>
@@ -4250,7 +4193,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="n">
-        <v>363</v>
+        <v>2530</v>
       </c>
       <c r="B150" t="s">
         <v>295</v>
@@ -4261,7 +4204,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="n">
-        <v>256</v>
+        <v>538</v>
       </c>
       <c r="B151" t="s">
         <v>297</v>
@@ -4272,7 +4215,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="n">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B152" t="s">
         <v>299</v>
@@ -4283,7 +4226,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="n">
-        <v>534</v>
+        <v>3568</v>
       </c>
       <c r="B153" t="s">
         <v>301</v>
@@ -4294,7 +4237,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="n">
-        <v>2530</v>
+        <v>3772</v>
       </c>
       <c r="B154" t="s">
         <v>303</v>
@@ -4305,7 +4248,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B155" t="s">
         <v>305</v>
@@ -4316,7 +4259,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="n">
-        <v>184</v>
+        <v>393</v>
       </c>
       <c r="B156" t="s">
         <v>307</v>
@@ -4327,7 +4270,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B157" t="s">
         <v>309</v>
@@ -4338,7 +4281,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B158" t="s">
         <v>311</v>
@@ -4349,7 +4292,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="n">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="B159" t="s">
         <v>313</v>
@@ -4360,7 +4303,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="n">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="B160" t="s">
         <v>315</v>
@@ -4371,7 +4314,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="n">
-        <v>3772</v>
+        <v>549</v>
       </c>
       <c r="B161" t="s">
         <v>317</v>
@@ -4382,7 +4325,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="n">
-        <v>541</v>
+        <v>417</v>
       </c>
       <c r="B162" t="s">
         <v>319</v>
@@ -4393,7 +4336,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="n">
-        <v>393</v>
+        <v>193</v>
       </c>
       <c r="B163" t="s">
         <v>321</v>
@@ -4404,7 +4347,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="n">
-        <v>261</v>
+        <v>3534</v>
       </c>
       <c r="B164" t="s">
         <v>323</v>
@@ -4415,7 +4358,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="n">
-        <v>544</v>
+        <v>218</v>
       </c>
       <c r="B165" t="s">
         <v>325</v>
@@ -4426,7 +4369,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="n">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="B166" t="s">
         <v>327</v>
@@ -4437,7 +4380,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="n">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="B167" t="s">
         <v>329</v>
@@ -4448,7 +4391,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="n">
-        <v>549</v>
+        <v>3823</v>
       </c>
       <c r="B168" t="s">
         <v>331</v>
@@ -4459,7 +4402,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B169" t="s">
         <v>333</v>
@@ -4470,7 +4413,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="n">
-        <v>3534</v>
+        <v>3888</v>
       </c>
       <c r="B170" t="s">
         <v>335</v>
@@ -4481,7 +4424,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="n">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="B171" t="s">
         <v>337</v>
@@ -4492,7 +4435,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="n">
-        <v>263</v>
+        <v>365</v>
       </c>
       <c r="B172" t="s">
         <v>339</v>
@@ -4503,7 +4446,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="n">
-        <v>552</v>
+        <v>287</v>
       </c>
       <c r="B173" t="s">
         <v>341</v>
@@ -4514,7 +4457,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="n">
-        <v>3823</v>
+        <v>353</v>
       </c>
       <c r="B174" t="s">
         <v>343</v>
@@ -4525,7 +4468,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="n">
-        <v>418</v>
+        <v>2207</v>
       </c>
       <c r="B175" t="s">
         <v>345</v>
@@ -4536,7 +4479,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="n">
-        <v>3888</v>
+        <v>422</v>
       </c>
       <c r="B176" t="s">
         <v>347</v>
@@ -4547,76 +4490,76 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="n">
-        <v>140</v>
+        <v>2035</v>
       </c>
       <c r="B177" t="s">
+        <v>44</v>
+      </c>
+      <c r="C177" t="s">
         <v>349</v>
-      </c>
-      <c r="C177" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="n">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="B178" t="s">
+        <v>350</v>
+      </c>
+      <c r="C178" t="s">
         <v>351</v>
-      </c>
-      <c r="C178" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="n">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="B179" t="s">
+        <v>352</v>
+      </c>
+      <c r="C179" t="s">
         <v>353</v>
-      </c>
-      <c r="C179" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="n">
-        <v>3587</v>
+        <v>296</v>
       </c>
       <c r="B180" t="s">
+        <v>354</v>
+      </c>
+      <c r="C180" t="s">
         <v>355</v>
-      </c>
-      <c r="C180" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="n">
-        <v>2207</v>
+        <v>1039</v>
       </c>
       <c r="B181" t="s">
+        <v>356</v>
+      </c>
+      <c r="C181" t="s">
         <v>357</v>
-      </c>
-      <c r="C181" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="n">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B182" t="s">
+        <v>358</v>
+      </c>
+      <c r="C182" t="s">
         <v>359</v>
-      </c>
-      <c r="C182" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="n">
-        <v>2035</v>
+        <v>497</v>
       </c>
       <c r="B183" t="s">
-        <v>46</v>
+        <v>360</v>
       </c>
       <c r="C183" t="s">
         <v>361</v>
@@ -4624,7 +4567,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="n">
-        <v>424</v>
+        <v>5136</v>
       </c>
       <c r="B184" t="s">
         <v>362</v>
@@ -4635,7 +4578,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="n">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="B185" t="s">
         <v>364</v>
@@ -4646,7 +4589,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="n">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B186" t="s">
         <v>366</v>
@@ -4657,7 +4600,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="n">
-        <v>1039</v>
+        <v>392</v>
       </c>
       <c r="B187" t="s">
         <v>368</v>
@@ -4668,7 +4611,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="n">
-        <v>428</v>
+        <v>267</v>
       </c>
       <c r="B188" t="s">
         <v>370</v>
@@ -4679,7 +4622,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="n">
-        <v>5136</v>
+        <v>430</v>
       </c>
       <c r="B189" t="s">
         <v>372</v>
@@ -4690,7 +4633,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="n">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="B190" t="s">
         <v>374</v>
@@ -4701,7 +4644,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="n">
-        <v>4528</v>
+        <v>398</v>
       </c>
       <c r="B191" t="s">
         <v>376</v>
@@ -4712,7 +4655,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="n">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B192" t="s">
         <v>378</v>
@@ -4723,7 +4666,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="n">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B193" t="s">
         <v>380</v>
@@ -4734,7 +4677,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="n">
-        <v>267</v>
+        <v>432</v>
       </c>
       <c r="B194" t="s">
         <v>382</v>
@@ -4745,7 +4688,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="n">
-        <v>430</v>
+        <v>271</v>
       </c>
       <c r="B195" t="s">
         <v>384</v>
@@ -4756,7 +4699,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="n">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="B196" t="s">
         <v>386</v>
@@ -4767,7 +4710,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="n">
-        <v>398</v>
+        <v>312</v>
       </c>
       <c r="B197" t="s">
         <v>388</v>
@@ -4778,7 +4721,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="n">
-        <v>284</v>
+        <v>407</v>
       </c>
       <c r="B198" t="s">
         <v>390</v>
@@ -4789,7 +4732,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="n">
-        <v>431</v>
+        <v>268</v>
       </c>
       <c r="B199" t="s">
         <v>392</v>
@@ -4800,7 +4743,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="n">
-        <v>432</v>
+        <v>4528</v>
       </c>
       <c r="B200" t="s">
         <v>394</v>
@@ -4811,7 +4754,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="n">
-        <v>271</v>
+        <v>3369</v>
       </c>
       <c r="B201" t="s">
         <v>396</v>
@@ -4822,7 +4765,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B202" t="s">
         <v>398</v>
@@ -4833,7 +4776,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="B203" t="s">
         <v>400</v>
@@ -4844,7 +4787,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="n">
-        <v>407</v>
+        <v>548</v>
       </c>
       <c r="B204" t="s">
         <v>402</v>
@@ -4855,7 +4798,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B205" t="s">
         <v>404</v>
@@ -4866,7 +4809,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="n">
-        <v>3369</v>
+        <v>216</v>
       </c>
       <c r="B206" t="s">
         <v>406</v>
@@ -4877,7 +4820,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="n">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="B207" t="s">
         <v>408</v>
@@ -4888,7 +4831,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="B208" t="s">
         <v>410</v>
@@ -4899,7 +4842,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="n">
-        <v>548</v>
+        <v>368</v>
       </c>
       <c r="B209" t="s">
         <v>412</v>
@@ -4910,7 +4853,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="n">
-        <v>3693</v>
+        <v>293</v>
       </c>
       <c r="B210" t="s">
         <v>414</v>
@@ -4921,7 +4864,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="n">
-        <v>269</v>
+        <v>394</v>
       </c>
       <c r="B211" t="s">
         <v>416</v>
@@ -4932,7 +4875,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="n">
-        <v>270</v>
+        <v>534</v>
       </c>
       <c r="B212" t="s">
         <v>418</v>
@@ -4943,7 +4886,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="n">
-        <v>273</v>
+        <v>397</v>
       </c>
       <c r="B213" t="s">
         <v>420</v>
@@ -4954,7 +4897,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="n">
-        <v>280</v>
+        <v>436</v>
       </c>
       <c r="B214" t="s">
         <v>422</v>
@@ -4965,7 +4908,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="n">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="B215" t="s">
         <v>424</v>
@@ -4976,7 +4919,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="n">
-        <v>435</v>
+        <v>185</v>
       </c>
       <c r="B216" t="s">
         <v>426</v>
@@ -4987,7 +4930,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B217" t="s">
         <v>428</v>
@@ -4998,7 +4941,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="n">
-        <v>395</v>
+        <v>174</v>
       </c>
       <c r="B218" t="s">
         <v>430</v>
@@ -5009,7 +4952,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="n">
-        <v>3118</v>
+        <v>400</v>
       </c>
       <c r="B219" t="s">
         <v>432</v>
@@ -5020,7 +4963,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="n">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="B220" t="s">
         <v>434</v>
@@ -5031,7 +4974,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="n">
-        <v>5566</v>
+        <v>396</v>
       </c>
       <c r="B221" t="s">
         <v>436</v>
@@ -5042,7 +4985,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="n">
-        <v>397</v>
+        <v>650</v>
       </c>
       <c r="B222" t="s">
         <v>438</v>
@@ -5053,7 +4996,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="n">
-        <v>436</v>
+        <v>249</v>
       </c>
       <c r="B223" t="s">
         <v>440</v>
@@ -5064,7 +5007,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="n">
-        <v>566</v>
+        <v>238</v>
       </c>
       <c r="B224" t="s">
         <v>442</v>
@@ -5075,7 +5018,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="n">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="B225" t="s">
         <v>444</v>
@@ -5086,7 +5029,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="n">
-        <v>399</v>
+        <v>532</v>
       </c>
       <c r="B226" t="s">
         <v>446</v>
@@ -5097,7 +5040,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="n">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="B227" t="s">
         <v>448</v>
@@ -5108,7 +5051,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="n">
-        <v>400</v>
+        <v>298</v>
       </c>
       <c r="B228" t="s">
         <v>450</v>
@@ -5119,7 +5062,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="n">
-        <v>322</v>
+        <v>1913</v>
       </c>
       <c r="B229" t="s">
         <v>452</v>
@@ -5130,7 +5073,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="n">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="B230" t="s">
         <v>454</v>
@@ -5141,87 +5084,87 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="n">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="B231" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C231" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="n">
-        <v>650</v>
+        <v>164</v>
       </c>
       <c r="B232" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C232" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="n">
-        <v>249</v>
+        <v>405</v>
       </c>
       <c r="B233" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C233" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="n">
-        <v>238</v>
+        <v>370</v>
       </c>
       <c r="B234" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C234" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="n">
-        <v>279</v>
+        <v>3340</v>
       </c>
       <c r="B235" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C235" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="n">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="B236" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C236" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="n">
-        <v>563</v>
+        <v>423</v>
       </c>
       <c r="B237" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C237" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="n">
-        <v>532</v>
+        <v>270</v>
       </c>
       <c r="B238" t="s">
-        <v>469</v>
+        <v>406</v>
       </c>
       <c r="C238" t="s">
         <v>470</v>
@@ -5229,7 +5172,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="n">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="B239" t="s">
         <v>471</v>
@@ -5240,7 +5183,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B240" t="s">
         <v>473</v>
@@ -5251,7 +5194,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="n">
-        <v>1913</v>
+        <v>328</v>
       </c>
       <c r="B241" t="s">
         <v>475</v>
@@ -5262,7 +5205,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="n">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B242" t="s">
         <v>477</v>
@@ -5273,7 +5216,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="n">
-        <v>288</v>
+        <v>3212</v>
       </c>
       <c r="B243" t="s">
         <v>479</v>
@@ -5284,76 +5227,76 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="n">
-        <v>3568</v>
+        <v>179</v>
       </c>
       <c r="B244" t="s">
+        <v>267</v>
+      </c>
+      <c r="C244" t="s">
         <v>481</v>
-      </c>
-      <c r="C244" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="n">
-        <v>405</v>
+        <v>146</v>
       </c>
       <c r="B245" t="s">
+        <v>482</v>
+      </c>
+      <c r="C245" t="s">
         <v>483</v>
-      </c>
-      <c r="C245" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="n">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="B246" t="s">
+        <v>484</v>
+      </c>
+      <c r="C246" t="s">
         <v>485</v>
-      </c>
-      <c r="C246" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="n">
-        <v>3340</v>
+        <v>227</v>
       </c>
       <c r="B247" t="s">
+        <v>486</v>
+      </c>
+      <c r="C247" t="s">
         <v>487</v>
-      </c>
-      <c r="C247" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="n">
-        <v>389</v>
+        <v>558</v>
       </c>
       <c r="B248" t="s">
+        <v>488</v>
+      </c>
+      <c r="C248" t="s">
         <v>489</v>
-      </c>
-      <c r="C248" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="n">
-        <v>423</v>
+        <v>148</v>
       </c>
       <c r="B249" t="s">
+        <v>490</v>
+      </c>
+      <c r="C249" t="s">
         <v>491</v>
-      </c>
-      <c r="C249" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="n">
-        <v>216</v>
+        <v>507</v>
       </c>
       <c r="B250" t="s">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="C250" t="s">
         <v>493</v>
@@ -5361,7 +5304,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="n">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="B251" t="s">
         <v>494</v>
@@ -5372,7 +5315,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="n">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="B252" t="s">
         <v>496</v>
@@ -5383,7 +5326,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="n">
-        <v>294</v>
+        <v>190</v>
       </c>
       <c r="B253" t="s">
         <v>498</v>
@@ -5394,7 +5337,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="n">
-        <v>328</v>
+        <v>438</v>
       </c>
       <c r="B254" t="s">
         <v>500</v>
@@ -5405,7 +5348,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="n">
-        <v>201</v>
+        <v>561</v>
       </c>
       <c r="B255" t="s">
         <v>502</v>
@@ -5416,7 +5359,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="n">
-        <v>3212</v>
+        <v>562</v>
       </c>
       <c r="B256" t="s">
         <v>504</v>
@@ -5427,7 +5370,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="n">
-        <v>3342</v>
+        <v>341</v>
       </c>
       <c r="B257" t="s">
         <v>506</v>
@@ -5438,32 +5381,32 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="n">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B258" t="s">
-        <v>275</v>
+        <v>508</v>
       </c>
       <c r="C258" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="n">
-        <v>146</v>
+        <v>509</v>
       </c>
       <c r="B259" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C259" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="n">
-        <v>437</v>
+        <v>304</v>
       </c>
       <c r="B260" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="C260" t="s">
         <v>512</v>
@@ -5471,7 +5414,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="n">
-        <v>227</v>
+        <v>343</v>
       </c>
       <c r="B261" t="s">
         <v>513</v>
@@ -5482,7 +5425,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="n">
-        <v>558</v>
+        <v>228</v>
       </c>
       <c r="B262" t="s">
         <v>515</v>
@@ -5493,7 +5436,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="n">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="B263" t="s">
         <v>517</v>
@@ -5504,7 +5447,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="n">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="B264" t="s">
         <v>519</v>
@@ -5515,7 +5458,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="n">
-        <v>333</v>
+        <v>153</v>
       </c>
       <c r="B265" t="s">
         <v>521</v>
@@ -5526,98 +5469,98 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="n">
-        <v>338</v>
+        <v>559</v>
       </c>
       <c r="B266" t="s">
+        <v>402</v>
+      </c>
+      <c r="C266" t="s">
         <v>523</v>
-      </c>
-      <c r="C266" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="n">
-        <v>190</v>
+        <v>3341</v>
       </c>
       <c r="B267" t="s">
+        <v>524</v>
+      </c>
+      <c r="C267" t="s">
         <v>525</v>
-      </c>
-      <c r="C267" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="n">
-        <v>438</v>
+        <v>301</v>
       </c>
       <c r="B268" t="s">
+        <v>526</v>
+      </c>
+      <c r="C268" t="s">
         <v>527</v>
-      </c>
-      <c r="C268" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="n">
-        <v>561</v>
+        <v>187</v>
       </c>
       <c r="B269" t="s">
+        <v>528</v>
+      </c>
+      <c r="C269" t="s">
         <v>529</v>
-      </c>
-      <c r="C269" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="n">
-        <v>562</v>
+        <v>230</v>
       </c>
       <c r="B270" t="s">
+        <v>530</v>
+      </c>
+      <c r="C270" t="s">
         <v>531</v>
-      </c>
-      <c r="C270" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="n">
-        <v>341</v>
+        <v>234</v>
       </c>
       <c r="B271" t="s">
+        <v>532</v>
+      </c>
+      <c r="C271" t="s">
         <v>533</v>
-      </c>
-      <c r="C271" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="n">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="B272" t="s">
+        <v>534</v>
+      </c>
+      <c r="C272" t="s">
         <v>535</v>
-      </c>
-      <c r="C272" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="n">
-        <v>509</v>
+        <v>560</v>
       </c>
       <c r="B273" t="s">
+        <v>536</v>
+      </c>
+      <c r="C273" t="s">
         <v>537</v>
-      </c>
-      <c r="C273" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="n">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="B274" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="C274" t="s">
         <v>539</v>
@@ -5625,7 +5568,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="n">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B275" t="s">
         <v>540</v>
@@ -5636,7 +5579,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="n">
-        <v>228</v>
+        <v>364</v>
       </c>
       <c r="B276" t="s">
         <v>542</v>
@@ -5647,7 +5590,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="n">
-        <v>224</v>
+        <v>379</v>
       </c>
       <c r="B277" t="s">
         <v>544</v>
@@ -5658,7 +5601,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="n">
-        <v>153</v>
+        <v>369</v>
       </c>
       <c r="B278" t="s">
         <v>546</v>
@@ -5669,670 +5612,670 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="n">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B279" t="s">
-        <v>412</v>
+        <v>548</v>
       </c>
       <c r="C279" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="n">
-        <v>3341</v>
+        <v>194</v>
       </c>
       <c r="B280" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C280" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="n">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="B281" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C281" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="n">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="B282" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C282" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="n">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B283" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C283" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="n">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="B284" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C284" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="n">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="B285" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C285" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="n">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B286" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C286" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="n">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B287" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C287" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="B288" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C288" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="n">
-        <v>364</v>
+        <v>443</v>
       </c>
       <c r="B289" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C289" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="n">
-        <v>379</v>
+        <v>305</v>
       </c>
       <c r="B290" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C290" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="n">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="B291" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C291" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="n">
-        <v>557</v>
+        <v>167</v>
       </c>
       <c r="B292" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C292" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="n">
-        <v>194</v>
+        <v>381</v>
       </c>
       <c r="B293" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C293" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="B294" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C294" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="n">
-        <v>326</v>
+        <v>3727</v>
       </c>
       <c r="B295" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C295" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="n">
-        <v>202</v>
+        <v>1827</v>
       </c>
       <c r="B296" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C296" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="n">
-        <v>186</v>
+        <v>575</v>
       </c>
       <c r="B297" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C297" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="n">
-        <v>302</v>
+        <v>3883</v>
       </c>
       <c r="B298" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C298" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="n">
-        <v>565</v>
+        <v>237</v>
       </c>
       <c r="B299" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C299" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="n">
-        <v>374</v>
+        <v>3873</v>
       </c>
       <c r="B300" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C300" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B301" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C301" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="n">
-        <v>443</v>
+        <v>530</v>
       </c>
       <c r="B302" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C302" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="n">
-        <v>305</v>
+        <v>4078</v>
       </c>
       <c r="B303" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C303" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="n">
-        <v>303</v>
+        <v>445</v>
       </c>
       <c r="B304" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C304" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="n">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="B305" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C305" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="n">
-        <v>381</v>
+        <v>163</v>
       </c>
       <c r="B306" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C306" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B307" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C307" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="n">
-        <v>3727</v>
+        <v>3693</v>
       </c>
       <c r="B308" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C308" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="n">
-        <v>1827</v>
+        <v>182</v>
       </c>
       <c r="B309" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C309" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="n">
-        <v>575</v>
+        <v>447</v>
       </c>
       <c r="B310" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C310" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="n">
-        <v>3883</v>
+        <v>3587</v>
       </c>
       <c r="B311" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C311" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="n">
-        <v>237</v>
+        <v>564</v>
       </c>
       <c r="B312" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C312" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="n">
-        <v>3873</v>
+        <v>4095</v>
       </c>
       <c r="B313" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C313" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="n">
-        <v>444</v>
+        <v>2209</v>
       </c>
       <c r="B314" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C314" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="n">
-        <v>530</v>
+        <v>448</v>
       </c>
       <c r="B315" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C315" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="n">
-        <v>4078</v>
+        <v>567</v>
       </c>
       <c r="B316" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C316" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="n">
-        <v>445</v>
+        <v>555</v>
       </c>
       <c r="B317" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C317" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="n">
-        <v>208</v>
+        <v>568</v>
       </c>
       <c r="B318" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C318" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="n">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="B319" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C319" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="n">
-        <v>200</v>
+        <v>510</v>
       </c>
       <c r="B320" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C320" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="n">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B321" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C321" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="n">
-        <v>447</v>
+        <v>3368</v>
       </c>
       <c r="B322" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C322" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="n">
-        <v>564</v>
+        <v>3326</v>
       </c>
       <c r="B323" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C323" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="n">
-        <v>4095</v>
+        <v>511</v>
       </c>
       <c r="B324" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C324" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="n">
-        <v>2209</v>
+        <v>450</v>
       </c>
       <c r="B325" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C325" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="n">
-        <v>448</v>
+        <v>192</v>
       </c>
       <c r="B326" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C326" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="n">
-        <v>567</v>
+        <v>171</v>
       </c>
       <c r="B327" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C327" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="n">
-        <v>555</v>
+        <v>197</v>
       </c>
       <c r="B328" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C328" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="n">
-        <v>568</v>
+        <v>441</v>
       </c>
       <c r="B329" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C329" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="n">
-        <v>235</v>
+        <v>513</v>
       </c>
       <c r="B330" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C330" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="n">
-        <v>510</v>
+        <v>4457</v>
       </c>
       <c r="B331" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C331" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="n">
-        <v>276</v>
+        <v>4137</v>
       </c>
       <c r="B332" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C332" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="n">
-        <v>3368</v>
+        <v>451</v>
       </c>
       <c r="B333" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C333" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="n">
-        <v>3326</v>
+        <v>569</v>
       </c>
       <c r="B334" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C334" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="n">
-        <v>511</v>
+        <v>175</v>
       </c>
       <c r="B335" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C335" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="n">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="B336" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C336" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="n">
-        <v>192</v>
+        <v>4067</v>
       </c>
       <c r="B337" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C337" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="n">
-        <v>171</v>
+        <v>300</v>
       </c>
       <c r="B338" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C338" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="n">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B339" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="C339" t="s">
         <v>668</v>
@@ -6340,7 +6283,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="n">
-        <v>441</v>
+        <v>378</v>
       </c>
       <c r="B340" t="s">
         <v>669</v>
@@ -6351,7 +6294,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="n">
-        <v>513</v>
+        <v>2208</v>
       </c>
       <c r="B341" t="s">
         <v>671</v>
@@ -6362,7 +6305,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="n">
-        <v>4457</v>
+        <v>385</v>
       </c>
       <c r="B342" t="s">
         <v>673</v>
@@ -6373,7 +6316,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="n">
-        <v>4137</v>
+        <v>570</v>
       </c>
       <c r="B343" t="s">
         <v>675</v>
@@ -6384,7 +6327,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="n">
-        <v>451</v>
+        <v>204</v>
       </c>
       <c r="B344" t="s">
         <v>677</v>
@@ -6395,7 +6338,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="n">
-        <v>569</v>
+        <v>138</v>
       </c>
       <c r="B345" t="s">
         <v>679</v>
@@ -6406,7 +6349,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="n">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="B346" t="s">
         <v>681</v>
@@ -6417,7 +6360,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="n">
-        <v>514</v>
+        <v>429</v>
       </c>
       <c r="B347" t="s">
         <v>683</v>
@@ -6428,7 +6371,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="n">
-        <v>4067</v>
+        <v>375</v>
       </c>
       <c r="B348" t="s">
         <v>685</v>
@@ -6439,7 +6382,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="n">
-        <v>300</v>
+        <v>416</v>
       </c>
       <c r="B349" t="s">
         <v>687</v>
@@ -6450,131 +6393,131 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="n">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="B350" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="C350" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="n">
-        <v>378</v>
+        <v>4420</v>
       </c>
       <c r="B351" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C351" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="n">
-        <v>2208</v>
+        <v>453</v>
       </c>
       <c r="B352" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C352" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="n">
-        <v>385</v>
+        <v>2028</v>
       </c>
       <c r="B353" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C353" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="n">
-        <v>570</v>
+        <v>229</v>
       </c>
       <c r="B354" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C354" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="n">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="B355" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C355" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="n">
-        <v>531</v>
+        <v>572</v>
       </c>
       <c r="B356" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C356" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="n">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="B357" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C357" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="n">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="B358" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C358" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="n">
-        <v>375</v>
+        <v>2206</v>
       </c>
       <c r="B359" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C359" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="n">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="B360" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C360" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="n">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="B361" t="s">
-        <v>710</v>
+        <v>69</v>
       </c>
       <c r="C361" t="s">
         <v>711</v>
@@ -6582,7 +6525,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="n">
-        <v>4420</v>
+        <v>574</v>
       </c>
       <c r="B362" t="s">
         <v>712</v>
@@ -6593,7 +6536,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="n">
-        <v>453</v>
+        <v>247</v>
       </c>
       <c r="B363" t="s">
         <v>714</v>
@@ -6604,7 +6547,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="n">
-        <v>2028</v>
+        <v>503</v>
       </c>
       <c r="B364" t="s">
         <v>716</v>
@@ -6615,7 +6558,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="n">
-        <v>229</v>
+        <v>476</v>
       </c>
       <c r="B365" t="s">
         <v>718</v>
@@ -6626,7 +6569,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="n">
-        <v>572</v>
+        <v>233</v>
       </c>
       <c r="B366" t="s">
         <v>720</v>
@@ -6637,7 +6580,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="n">
-        <v>316</v>
+        <v>573</v>
       </c>
       <c r="B367" t="s">
         <v>722</v>
@@ -6648,7 +6591,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="n">
-        <v>454</v>
+        <v>383</v>
       </c>
       <c r="B368" t="s">
         <v>724</v>
@@ -6659,7 +6602,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="n">
-        <v>2206</v>
+        <v>206</v>
       </c>
       <c r="B369" t="s">
         <v>726</v>
@@ -6670,7 +6613,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="n">
-        <v>442</v>
+        <v>6091</v>
       </c>
       <c r="B370" t="s">
         <v>728</v>
@@ -6681,123 +6624,13 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="n">
-        <v>211</v>
+        <v>5512</v>
       </c>
       <c r="B371" t="s">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="C371" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
-      <c r="A372" t="n">
-        <v>574</v>
-      </c>
-      <c r="B372" t="s">
-        <v>731</v>
-      </c>
-      <c r="C372" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
-      <c r="A373" t="n">
-        <v>247</v>
-      </c>
-      <c r="B373" t="s">
-        <v>733</v>
-      </c>
-      <c r="C373" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
-      <c r="A374" t="n">
-        <v>503</v>
-      </c>
-      <c r="B374" t="s">
-        <v>735</v>
-      </c>
-      <c r="C374" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="A375" t="n">
-        <v>476</v>
-      </c>
-      <c r="B375" t="s">
-        <v>737</v>
-      </c>
-      <c r="C375" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
-      <c r="A376" t="n">
-        <v>233</v>
-      </c>
-      <c r="B376" t="s">
-        <v>739</v>
-      </c>
-      <c r="C376" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
-      <c r="A377" t="n">
-        <v>573</v>
-      </c>
-      <c r="B377" t="s">
-        <v>741</v>
-      </c>
-      <c r="C377" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
-      <c r="A378" t="n">
-        <v>383</v>
-      </c>
-      <c r="B378" t="s">
-        <v>743</v>
-      </c>
-      <c r="C378" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379" t="n">
-        <v>206</v>
-      </c>
-      <c r="B379" t="s">
-        <v>745</v>
-      </c>
-      <c r="C379" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
-      <c r="A380" t="n">
-        <v>6091</v>
-      </c>
-      <c r="B380" t="s">
-        <v>747</v>
-      </c>
-      <c r="C380" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381" t="n">
-        <v>5512</v>
-      </c>
-      <c r="B381" t="s">
-        <v>329</v>
-      </c>
-      <c r="C381" t="s">
-        <v>749</v>
       </c>
     </row>
   </sheetData>

--- a/project/Python/yilaitong/郑州所有商家.xlsx
+++ b/project/Python/yilaitong/郑州所有商家.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="715">
+  <si>
+    <t>认证测试</t>
+  </si>
   <si>
     <t>华铭通讯</t>
   </si>
@@ -132,7 +135,7 @@
     <t>1B30</t>
   </si>
   <si>
-    <t>广源通讯</t>
+    <t>豫洲通讯</t>
   </si>
   <si>
     <t>1B31</t>
@@ -144,1981 +147,1948 @@
     <t>1B38</t>
   </si>
   <si>
+    <t>鼎好通讯</t>
+  </si>
+  <si>
+    <t>1C08</t>
+  </si>
+  <si>
+    <t>鸿润通讯</t>
+  </si>
+  <si>
+    <t>1C10</t>
+  </si>
+  <si>
+    <t>东利通讯</t>
+  </si>
+  <si>
+    <t>1C11</t>
+  </si>
+  <si>
+    <t>龙诚联合</t>
+  </si>
+  <si>
+    <t>1C12</t>
+  </si>
+  <si>
+    <t>源升科技</t>
+  </si>
+  <si>
+    <t>1C13</t>
+  </si>
+  <si>
+    <t>1C14</t>
+  </si>
+  <si>
+    <t>惠鑫通讯</t>
+  </si>
+  <si>
+    <t>1C18</t>
+  </si>
+  <si>
+    <t>蜂星通讯</t>
+  </si>
+  <si>
+    <t>1C19</t>
+  </si>
+  <si>
+    <t>腾达通讯</t>
+  </si>
+  <si>
+    <t>1C20</t>
+  </si>
+  <si>
+    <t>腾飞通讯</t>
+  </si>
+  <si>
+    <t>1C21</t>
+  </si>
+  <si>
+    <t>蝶变商城</t>
+  </si>
+  <si>
+    <t>1C22</t>
+  </si>
+  <si>
+    <t>新时代</t>
+  </si>
+  <si>
+    <t>1C23</t>
+  </si>
+  <si>
+    <t>高朋通讯</t>
+  </si>
+  <si>
+    <t>1C24</t>
+  </si>
+  <si>
+    <t>星宇通讯</t>
+  </si>
+  <si>
+    <t>1C25</t>
+  </si>
+  <si>
+    <t>杰达通讯</t>
+  </si>
+  <si>
+    <t>1C26</t>
+  </si>
+  <si>
+    <t>坤泰通讯</t>
+  </si>
+  <si>
+    <t>1C28</t>
+  </si>
+  <si>
+    <t>亚昌科技</t>
+  </si>
+  <si>
+    <t>1C31</t>
+  </si>
+  <si>
+    <t>荣耀通讯</t>
+  </si>
+  <si>
+    <t>1C32</t>
+  </si>
+  <si>
+    <t>汇想通讯</t>
+  </si>
+  <si>
+    <t>1C33</t>
+  </si>
+  <si>
+    <t>万丰通讯</t>
+  </si>
+  <si>
+    <t>1C34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 勤之丰</t>
+  </si>
+  <si>
+    <t>1C35</t>
+  </si>
+  <si>
+    <t>昌盛通讯</t>
+  </si>
+  <si>
+    <t>1C35A</t>
+  </si>
+  <si>
+    <t>海星通讯</t>
+  </si>
+  <si>
+    <t>1C36</t>
+  </si>
+  <si>
+    <t>新华电讯</t>
+  </si>
+  <si>
+    <t>1C37</t>
+  </si>
+  <si>
+    <t>宏海通讯</t>
+  </si>
+  <si>
+    <t>1D03</t>
+  </si>
+  <si>
+    <t>未浩贸易</t>
+  </si>
+  <si>
+    <t>1D04</t>
+  </si>
+  <si>
+    <t>嘉诚通讯</t>
+  </si>
+  <si>
+    <t>1D07</t>
+  </si>
+  <si>
+    <t>宏盛通讯</t>
+  </si>
+  <si>
+    <t>1D08</t>
+  </si>
+  <si>
+    <t>顺城通讯</t>
+  </si>
+  <si>
+    <t>1D09</t>
+  </si>
+  <si>
+    <t>永利通讯</t>
+  </si>
+  <si>
+    <t>1D10</t>
+  </si>
+  <si>
+    <t>盛达通讯</t>
+  </si>
+  <si>
+    <t>1D11</t>
+  </si>
+  <si>
+    <t>鑫程通讯</t>
+  </si>
+  <si>
+    <t>1D12</t>
+  </si>
+  <si>
+    <t>丰凯通讯</t>
+  </si>
+  <si>
+    <t>1D13华为</t>
+  </si>
+  <si>
+    <t>1D13小米</t>
+  </si>
+  <si>
+    <t>昊天通讯</t>
+  </si>
+  <si>
+    <t>1D15</t>
+  </si>
+  <si>
+    <t>成泰通讯</t>
+  </si>
+  <si>
+    <t>1D15A</t>
+  </si>
+  <si>
+    <t>文峥通讯</t>
+  </si>
+  <si>
+    <t>1D16</t>
+  </si>
+  <si>
+    <t>赤城通讯</t>
+  </si>
+  <si>
+    <t>1D19</t>
+  </si>
+  <si>
+    <t>美联电子</t>
+  </si>
+  <si>
+    <t>1D21</t>
+  </si>
+  <si>
+    <t>华宏通讯</t>
+  </si>
+  <si>
+    <t>1D22</t>
+  </si>
+  <si>
+    <t>一鸣通讯</t>
+  </si>
+  <si>
+    <t>1D23</t>
+  </si>
+  <si>
+    <t>福聚鑫</t>
+  </si>
+  <si>
+    <t>1D24</t>
+  </si>
+  <si>
+    <t>盛祥通讯</t>
+  </si>
+  <si>
+    <t>1D25</t>
+  </si>
+  <si>
+    <t>盛龙通讯</t>
+  </si>
+  <si>
+    <t>1D27</t>
+  </si>
+  <si>
+    <t>四方通讯</t>
+  </si>
+  <si>
+    <t>1D28</t>
+  </si>
+  <si>
+    <t>华通通讯</t>
+  </si>
+  <si>
+    <t>1D29</t>
+  </si>
+  <si>
+    <t>亚光商贸</t>
+  </si>
+  <si>
+    <t>1D31</t>
+  </si>
+  <si>
+    <t>风行通讯</t>
+  </si>
+  <si>
+    <t>1D33</t>
+  </si>
+  <si>
+    <t>大方通讯</t>
+  </si>
+  <si>
+    <t>1D43</t>
+  </si>
+  <si>
+    <t>佰邦电子</t>
+  </si>
+  <si>
+    <t>1D45</t>
+  </si>
+  <si>
+    <t>月达通讯</t>
+  </si>
+  <si>
+    <t>1D46</t>
+  </si>
+  <si>
+    <t>锦天亿</t>
+  </si>
+  <si>
+    <t>1D47</t>
+  </si>
+  <si>
+    <t>完美经纬</t>
+  </si>
+  <si>
+    <t>1D48</t>
+  </si>
+  <si>
+    <t>亿信通讯</t>
+  </si>
+  <si>
+    <t>1D49</t>
+  </si>
+  <si>
+    <t>翼锋通讯</t>
+  </si>
+  <si>
+    <t>1D50</t>
+  </si>
+  <si>
+    <t>恒鑫通讯</t>
+  </si>
+  <si>
+    <t>1D51</t>
+  </si>
+  <si>
+    <t>港海通讯</t>
+  </si>
+  <si>
+    <t>2A02</t>
+  </si>
+  <si>
+    <t>2A03</t>
+  </si>
+  <si>
+    <t>飞儿通讯</t>
+  </si>
+  <si>
+    <t>2A04</t>
+  </si>
+  <si>
+    <t>世纪联盟</t>
+  </si>
+  <si>
+    <t>2A05</t>
+  </si>
+  <si>
+    <t>鸿诚电讯</t>
+  </si>
+  <si>
+    <t>2A07</t>
+  </si>
+  <si>
+    <t>宏升通讯</t>
+  </si>
+  <si>
+    <t>2A08</t>
+  </si>
+  <si>
+    <t>波涛通讯</t>
+  </si>
+  <si>
+    <t>2A08A</t>
+  </si>
+  <si>
+    <t>恒大通讯</t>
+  </si>
+  <si>
+    <t>2A09</t>
+  </si>
+  <si>
+    <t>拓飞魅族</t>
+  </si>
+  <si>
+    <t>2A10</t>
+  </si>
+  <si>
+    <t>中华龙腾</t>
+  </si>
+  <si>
+    <t>2A11</t>
+  </si>
+  <si>
+    <t>惠玲通讯</t>
+  </si>
+  <si>
+    <t>2A14</t>
+  </si>
+  <si>
+    <t>宏达通讯</t>
+  </si>
+  <si>
+    <t>2A18</t>
+  </si>
+  <si>
+    <t>振华科技</t>
+  </si>
+  <si>
+    <t>2A19</t>
+  </si>
+  <si>
+    <t>天壹通讯</t>
+  </si>
+  <si>
+    <t>2A23</t>
+  </si>
+  <si>
+    <t>今运通讯</t>
+  </si>
+  <si>
+    <t>2A24</t>
+  </si>
+  <si>
+    <t>天伟商贸</t>
+  </si>
+  <si>
+    <t>2A25</t>
+  </si>
+  <si>
+    <t>红旗通讯</t>
+  </si>
+  <si>
+    <t>2A26</t>
+  </si>
+  <si>
+    <t>佳源通讯</t>
+  </si>
+  <si>
+    <t>2A27</t>
+  </si>
+  <si>
+    <t>恒信和</t>
+  </si>
+  <si>
+    <t>2A28</t>
+  </si>
+  <si>
+    <t>雷宇通讯</t>
+  </si>
+  <si>
+    <t>2A29</t>
+  </si>
+  <si>
+    <t>汇金通讯</t>
+  </si>
+  <si>
+    <t>2A30</t>
+  </si>
+  <si>
+    <t>德信通讯</t>
+  </si>
+  <si>
+    <t>2A31</t>
+  </si>
+  <si>
+    <t>亿新通讯</t>
+  </si>
+  <si>
+    <t>2A32</t>
+  </si>
+  <si>
+    <t>北方通讯</t>
+  </si>
+  <si>
+    <t>2A34</t>
+  </si>
+  <si>
+    <t>思玥通讯</t>
+  </si>
+  <si>
+    <t>2A35</t>
+  </si>
+  <si>
+    <t>国瑞通讯</t>
+  </si>
+  <si>
+    <t>2A36</t>
+  </si>
+  <si>
+    <t>兆干通讯</t>
+  </si>
+  <si>
+    <t>2A37</t>
+  </si>
+  <si>
+    <t>鼎行通讯</t>
+  </si>
+  <si>
+    <t>2A38</t>
+  </si>
+  <si>
+    <t>鸿业通讯</t>
+  </si>
+  <si>
+    <t>2A39</t>
+  </si>
+  <si>
+    <t>飞天通讯</t>
+  </si>
+  <si>
+    <t>2A40A</t>
+  </si>
+  <si>
+    <t>中圣通讯</t>
+  </si>
+  <si>
+    <t>2A41</t>
+  </si>
+  <si>
+    <t>新龙威</t>
+  </si>
+  <si>
+    <t>2A42</t>
+  </si>
+  <si>
+    <t>风驰通讯</t>
+  </si>
+  <si>
+    <t>2A43</t>
+  </si>
+  <si>
+    <t>金阳光</t>
+  </si>
+  <si>
+    <t>2A44</t>
+  </si>
+  <si>
+    <t>海洋通讯</t>
+  </si>
+  <si>
+    <t>2A45</t>
+  </si>
+  <si>
+    <t>正兴通讯</t>
+  </si>
+  <si>
+    <t>2A46</t>
+  </si>
+  <si>
+    <t>誉达科贸</t>
+  </si>
+  <si>
+    <t>2A47</t>
+  </si>
+  <si>
+    <t>黎纳通讯</t>
+  </si>
+  <si>
+    <t>2A48</t>
+  </si>
+  <si>
+    <t>诚毅电子</t>
+  </si>
+  <si>
+    <t>2A49</t>
+  </si>
+  <si>
+    <t>创新时代</t>
+  </si>
+  <si>
+    <t>2A50</t>
+  </si>
+  <si>
+    <t>威铭通讯</t>
+  </si>
+  <si>
+    <t>2A51</t>
+  </si>
+  <si>
+    <t>揽日通讯</t>
+  </si>
+  <si>
+    <t>2A52</t>
+  </si>
+  <si>
+    <t>誉佳通讯</t>
+  </si>
+  <si>
+    <t>2A53</t>
+  </si>
+  <si>
+    <t>霖鑫通讯</t>
+  </si>
+  <si>
+    <t>2A54</t>
+  </si>
+  <si>
+    <t>乐信通讯</t>
+  </si>
+  <si>
+    <t>2B02</t>
+  </si>
+  <si>
+    <t>弘博商贸</t>
+  </si>
+  <si>
+    <t>2B03</t>
+  </si>
+  <si>
+    <t>众宏通讯</t>
+  </si>
+  <si>
+    <t>2B07</t>
+  </si>
+  <si>
+    <t>安东通讯</t>
+  </si>
+  <si>
+    <t>2B08</t>
+  </si>
+  <si>
+    <t>万达通讯</t>
+  </si>
+  <si>
+    <t>2B10</t>
+  </si>
+  <si>
+    <t>科贸通讯</t>
+  </si>
+  <si>
+    <t>2B12</t>
+  </si>
+  <si>
+    <t>天宇通讯</t>
+  </si>
+  <si>
+    <t>2B13</t>
+  </si>
+  <si>
+    <t>三鑫通讯</t>
+  </si>
+  <si>
+    <t>2B14</t>
+  </si>
+  <si>
+    <t>华尚通讯</t>
+  </si>
+  <si>
+    <t>2B15-16</t>
+  </si>
+  <si>
+    <t>郑州华远</t>
+  </si>
+  <si>
+    <t>2B17</t>
+  </si>
+  <si>
+    <t>万杰通讯</t>
+  </si>
+  <si>
+    <t>2B19</t>
+  </si>
+  <si>
+    <t>华厦通讯</t>
+  </si>
+  <si>
+    <t>2B20</t>
+  </si>
+  <si>
+    <t>萌兴通讯</t>
+  </si>
+  <si>
+    <t>2B21</t>
+  </si>
+  <si>
+    <t>永盛通讯</t>
+  </si>
+  <si>
+    <t>2B22</t>
+  </si>
+  <si>
+    <t>益佳科技</t>
+  </si>
+  <si>
+    <t>2B22A</t>
+  </si>
+  <si>
+    <t>谦和通讯</t>
+  </si>
+  <si>
+    <t>2B23</t>
+  </si>
+  <si>
+    <t>大唐通讯</t>
+  </si>
+  <si>
+    <t>2B24</t>
+  </si>
+  <si>
+    <t>红鑫通讯</t>
+  </si>
+  <si>
+    <t>2B27</t>
+  </si>
+  <si>
+    <t>通盛通讯</t>
+  </si>
+  <si>
+    <t>2B28</t>
+  </si>
+  <si>
+    <t>海峡通讯</t>
+  </si>
+  <si>
+    <t>2B28A</t>
+  </si>
+  <si>
+    <t>万亿通讯</t>
+  </si>
+  <si>
+    <t>2B30</t>
+  </si>
+  <si>
+    <t>松联通讯</t>
+  </si>
+  <si>
+    <t>2B31</t>
+  </si>
+  <si>
+    <t>东临通讯</t>
+  </si>
+  <si>
+    <t>2B31A</t>
+  </si>
+  <si>
+    <t>亿诺通讯</t>
+  </si>
+  <si>
+    <t>2B32</t>
+  </si>
+  <si>
+    <t>飞越通讯</t>
+  </si>
+  <si>
+    <t>2B34</t>
+  </si>
+  <si>
+    <t>富康通讯</t>
+  </si>
+  <si>
+    <t>2B35</t>
+  </si>
+  <si>
+    <t>宏宇通讯</t>
+  </si>
+  <si>
+    <t>2B36</t>
+  </si>
+  <si>
+    <t>瑞涛苹果</t>
+  </si>
+  <si>
+    <t>2B37</t>
+  </si>
+  <si>
+    <t>鑫通胜</t>
+  </si>
+  <si>
+    <t>2B38</t>
+  </si>
+  <si>
+    <t>鑫凯格</t>
+  </si>
+  <si>
+    <t>2C06</t>
+  </si>
+  <si>
+    <t>郑州一达</t>
+  </si>
+  <si>
+    <t>2C07</t>
+  </si>
+  <si>
+    <t>初心通讯</t>
+  </si>
+  <si>
+    <t>2C09</t>
+  </si>
+  <si>
+    <t>天胜通讯</t>
+  </si>
+  <si>
+    <t>2C10</t>
+  </si>
+  <si>
+    <t>中发通讯</t>
+  </si>
+  <si>
+    <t>2C11A</t>
+  </si>
+  <si>
+    <t>顺发通讯</t>
+  </si>
+  <si>
+    <t>2C12</t>
+  </si>
+  <si>
+    <t>鲁豫通讯</t>
+  </si>
+  <si>
+    <t>2C13A</t>
+  </si>
+  <si>
+    <t>九洲通讯</t>
+  </si>
+  <si>
+    <t>2C13B</t>
+  </si>
+  <si>
+    <t>鸿之联</t>
+  </si>
+  <si>
+    <t>2C14</t>
+  </si>
+  <si>
+    <t>久月通讯</t>
+  </si>
+  <si>
+    <t>2C16</t>
+  </si>
+  <si>
+    <t>汇通通讯</t>
+  </si>
+  <si>
+    <t>2C18</t>
+  </si>
+  <si>
+    <t>恒盛通讯</t>
+  </si>
+  <si>
+    <t>2C19</t>
+  </si>
+  <si>
+    <t>众和通讯</t>
+  </si>
+  <si>
+    <t>2C20</t>
+  </si>
+  <si>
+    <t>致和通讯</t>
+  </si>
+  <si>
+    <t>2C21</t>
+  </si>
+  <si>
+    <t>鼎行国产</t>
+  </si>
+  <si>
+    <t>2C22</t>
+  </si>
+  <si>
+    <t>宇迅达</t>
+  </si>
+  <si>
+    <t>2C23</t>
+  </si>
+  <si>
+    <t>闽华通讯</t>
+  </si>
+  <si>
+    <t>2C24</t>
+  </si>
+  <si>
+    <t>融盛通讯</t>
+  </si>
+  <si>
+    <t>2C25</t>
+  </si>
+  <si>
+    <t>新起点</t>
+  </si>
+  <si>
+    <t>2C25A</t>
+  </si>
+  <si>
+    <t>宏利达</t>
+  </si>
+  <si>
+    <t>2C26</t>
+  </si>
+  <si>
+    <t>叁陆玖</t>
+  </si>
+  <si>
+    <t>2C26A</t>
+  </si>
+  <si>
+    <t>鑫锦荣</t>
+  </si>
+  <si>
+    <t>2C27</t>
+  </si>
+  <si>
+    <t>德鸿通讯</t>
+  </si>
+  <si>
+    <t>2C28</t>
+  </si>
+  <si>
+    <t>联魅电科</t>
+  </si>
+  <si>
+    <t>2C29</t>
+  </si>
+  <si>
+    <t>伟达通讯</t>
+  </si>
+  <si>
+    <t>2C30</t>
+  </si>
+  <si>
+    <t>东润小米</t>
+  </si>
+  <si>
+    <t>2C32</t>
+  </si>
+  <si>
+    <t>宇星科技</t>
+  </si>
+  <si>
+    <t>2C33</t>
+  </si>
+  <si>
+    <t>新业通讯</t>
+  </si>
+  <si>
+    <t>2C34</t>
+  </si>
+  <si>
+    <t>凯森商贸</t>
+  </si>
+  <si>
+    <t>2C35</t>
+  </si>
+  <si>
+    <t>大宇电讯</t>
+  </si>
+  <si>
+    <t>2C36</t>
+  </si>
+  <si>
+    <t>两岸通讯</t>
+  </si>
+  <si>
+    <t>2C37</t>
+  </si>
+  <si>
+    <t>鑫隆源</t>
+  </si>
+  <si>
+    <t>2C38</t>
+  </si>
+  <si>
+    <t>海天商贸</t>
+  </si>
+  <si>
+    <t>2C39</t>
+  </si>
+  <si>
+    <t>涛涛通讯</t>
+  </si>
+  <si>
+    <t>2C39A</t>
+  </si>
+  <si>
+    <t>3G时代OV部</t>
+  </si>
+  <si>
+    <t>2C40</t>
+  </si>
+  <si>
+    <t>信合通讯</t>
+  </si>
+  <si>
+    <t>2C41</t>
+  </si>
+  <si>
+    <t>波越通讯</t>
+  </si>
+  <si>
+    <t>2C42</t>
+  </si>
+  <si>
+    <t>新一方</t>
+  </si>
+  <si>
+    <t>2C43</t>
+  </si>
+  <si>
+    <t>茂源通讯</t>
+  </si>
+  <si>
+    <t>2C44A</t>
+  </si>
+  <si>
+    <t>恒波通讯</t>
+  </si>
+  <si>
+    <t>2C45</t>
+  </si>
+  <si>
+    <t>云华通讯</t>
+  </si>
+  <si>
+    <t>2C47</t>
+  </si>
+  <si>
+    <t>珍珍通讯</t>
+  </si>
+  <si>
+    <t>2C48</t>
+  </si>
+  <si>
+    <t>河南北方</t>
+  </si>
+  <si>
+    <t>2C49</t>
+  </si>
+  <si>
+    <t>瑞涛国产</t>
+  </si>
+  <si>
+    <t>2C50</t>
+  </si>
+  <si>
+    <t>瑞英通讯</t>
+  </si>
+  <si>
+    <t>2C51</t>
+  </si>
+  <si>
+    <t>富达通讯</t>
+  </si>
+  <si>
+    <t>2C52</t>
+  </si>
+  <si>
+    <t>龙祥通讯</t>
+  </si>
+  <si>
+    <t>2C54</t>
+  </si>
+  <si>
+    <t>欣鑫通讯</t>
+  </si>
+  <si>
+    <t>2C56</t>
+  </si>
+  <si>
+    <t>中亚通讯</t>
+  </si>
+  <si>
+    <t>2C57</t>
+  </si>
+  <si>
+    <t>启智通讯</t>
+  </si>
+  <si>
+    <t>2C58</t>
+  </si>
+  <si>
+    <t>淦淦通讯</t>
+  </si>
+  <si>
+    <t>2C59</t>
+  </si>
+  <si>
+    <t>浩通通讯</t>
+  </si>
+  <si>
+    <t>2C60</t>
+  </si>
+  <si>
+    <t>浩轩通讯</t>
+  </si>
+  <si>
+    <t>2C62</t>
+  </si>
+  <si>
+    <t>大河通讯</t>
+  </si>
+  <si>
+    <t>2C63</t>
+  </si>
+  <si>
+    <t>郑州佳联</t>
+  </si>
+  <si>
+    <t>2D02</t>
+  </si>
+  <si>
+    <t>晨曦通讯</t>
+  </si>
+  <si>
+    <t>2D03</t>
+  </si>
+  <si>
+    <t>优优科技</t>
+  </si>
+  <si>
+    <t>2D04</t>
+  </si>
+  <si>
+    <t>海盛通讯</t>
+  </si>
+  <si>
+    <t>2D07</t>
+  </si>
+  <si>
+    <t>正阳通讯</t>
+  </si>
+  <si>
+    <t>2D08</t>
+  </si>
+  <si>
+    <t>金马通讯</t>
+  </si>
+  <si>
+    <t>2D09</t>
+  </si>
+  <si>
+    <t>瑞成通讯</t>
+  </si>
+  <si>
+    <t>2D12</t>
+  </si>
+  <si>
+    <t>超盛通讯</t>
+  </si>
+  <si>
+    <t>2D13</t>
+  </si>
+  <si>
+    <t>郑州弘鑫</t>
+  </si>
+  <si>
+    <t>2D20A</t>
+  </si>
+  <si>
+    <t>孟飞通讯</t>
+  </si>
+  <si>
+    <t>2D21</t>
+  </si>
+  <si>
+    <t>天天通讯</t>
+  </si>
+  <si>
+    <t>2D22</t>
+  </si>
+  <si>
+    <t>智能易讯</t>
+  </si>
+  <si>
+    <t>2D23</t>
+  </si>
+  <si>
+    <t>丽达通讯</t>
+  </si>
+  <si>
+    <t>2D24</t>
+  </si>
+  <si>
+    <t>心悦贸易</t>
+  </si>
+  <si>
+    <t>2D24A</t>
+  </si>
+  <si>
+    <t>众成通讯</t>
+  </si>
+  <si>
+    <t>2D25</t>
+  </si>
+  <si>
+    <t>金诺通讯</t>
+  </si>
+  <si>
+    <t>2D26</t>
+  </si>
+  <si>
+    <t>翼祥通讯</t>
+  </si>
+  <si>
+    <t>2D27</t>
+  </si>
+  <si>
+    <t>华贸通讯</t>
+  </si>
+  <si>
+    <t>2D28</t>
+  </si>
+  <si>
+    <t>鑫银泰</t>
+  </si>
+  <si>
+    <t>2D29</t>
+  </si>
+  <si>
+    <t>祥源通讯</t>
+  </si>
+  <si>
+    <t>2D30</t>
+  </si>
+  <si>
+    <t>金海通讯</t>
+  </si>
+  <si>
+    <t>2D33</t>
+  </si>
+  <si>
+    <t>恒华通讯</t>
+  </si>
+  <si>
+    <t>2D34</t>
+  </si>
+  <si>
+    <t>闵南电信</t>
+  </si>
+  <si>
+    <t>2D35</t>
+  </si>
+  <si>
+    <t>魅鑫商贸</t>
+  </si>
+  <si>
+    <t>2D37</t>
+  </si>
+  <si>
+    <t>万通通讯</t>
+  </si>
+  <si>
+    <t>2D38</t>
+  </si>
+  <si>
+    <t>鸿运通讯</t>
+  </si>
+  <si>
+    <t>2D39</t>
+  </si>
+  <si>
+    <t>神马通讯</t>
+  </si>
+  <si>
+    <t>2D40</t>
+  </si>
+  <si>
+    <t>龙腾通讯</t>
+  </si>
+  <si>
+    <t>2D41</t>
+  </si>
+  <si>
+    <t>申明通讯</t>
+  </si>
+  <si>
+    <t>2D41A</t>
+  </si>
+  <si>
+    <t>和美通讯</t>
+  </si>
+  <si>
+    <t>2D42</t>
+  </si>
+  <si>
+    <t>翼达通讯</t>
+  </si>
+  <si>
+    <t>2D43</t>
+  </si>
+  <si>
+    <t>蓝宇通讯</t>
+  </si>
+  <si>
+    <t>2D44</t>
+  </si>
+  <si>
+    <t>2D45</t>
+  </si>
+  <si>
+    <t>长河天成</t>
+  </si>
+  <si>
+    <t>2D48</t>
+  </si>
+  <si>
+    <t>恒惠通讯</t>
+  </si>
+  <si>
+    <t>2D49</t>
+  </si>
+  <si>
+    <t>小辉通讯</t>
+  </si>
+  <si>
+    <t>3A01</t>
+  </si>
+  <si>
+    <t>汉飞科技</t>
+  </si>
+  <si>
+    <t>3A02</t>
+  </si>
+  <si>
+    <t>万源通讯</t>
+  </si>
+  <si>
+    <t>3A05</t>
+  </si>
+  <si>
+    <t>宇辰通讯</t>
+  </si>
+  <si>
+    <t>3A08</t>
+  </si>
+  <si>
+    <t>3A10</t>
+  </si>
+  <si>
+    <t>郑州新星</t>
+  </si>
+  <si>
+    <t>3A12</t>
+  </si>
+  <si>
+    <t>利鑫通讯</t>
+  </si>
+  <si>
+    <t>3A13</t>
+  </si>
+  <si>
+    <t>宇丰通讯</t>
+  </si>
+  <si>
+    <t>3A14</t>
+  </si>
+  <si>
+    <t>兄弟联盟</t>
+  </si>
+  <si>
+    <t>3A15</t>
+  </si>
+  <si>
+    <t>志诚通讯</t>
+  </si>
+  <si>
+    <t>3A18</t>
+  </si>
+  <si>
+    <t>森林通讯</t>
+  </si>
+  <si>
+    <t>3A19</t>
+  </si>
+  <si>
+    <t>启航通讯</t>
+  </si>
+  <si>
+    <t>3A20</t>
+  </si>
+  <si>
+    <t>华翼通讯</t>
+  </si>
+  <si>
+    <t>3A22</t>
+  </si>
+  <si>
+    <t>博文电通</t>
+  </si>
+  <si>
+    <t>3A24</t>
+  </si>
+  <si>
+    <t>天和通讯</t>
+  </si>
+  <si>
+    <t>3A26</t>
+  </si>
+  <si>
+    <t>宇威通讯</t>
+  </si>
+  <si>
+    <t>3A27</t>
+  </si>
+  <si>
+    <t>舒雅通讯</t>
+  </si>
+  <si>
+    <t>3A28</t>
+  </si>
+  <si>
+    <t>无限通讯</t>
+  </si>
+  <si>
+    <t>3A29</t>
+  </si>
+  <si>
+    <t>心怡通讯</t>
+  </si>
+  <si>
+    <t>3A30</t>
+  </si>
+  <si>
+    <t>3A31</t>
+  </si>
+  <si>
+    <t>星光通讯</t>
+  </si>
+  <si>
+    <t>3A32</t>
+  </si>
+  <si>
+    <t>龙达通讯</t>
+  </si>
+  <si>
+    <t>3A33</t>
+  </si>
+  <si>
+    <t>金峰通讯</t>
+  </si>
+  <si>
+    <t>3A35</t>
+  </si>
+  <si>
+    <t>鑫之源</t>
+  </si>
+  <si>
+    <t>3A36</t>
+  </si>
+  <si>
+    <t>3A37</t>
+  </si>
+  <si>
+    <t>郑州志诚</t>
+  </si>
+  <si>
+    <t>3A38</t>
+  </si>
+  <si>
+    <t>河南易雅</t>
+  </si>
+  <si>
+    <t>3A39</t>
+  </si>
+  <si>
+    <t>羿龙通讯</t>
+  </si>
+  <si>
+    <t>3A41</t>
+  </si>
+  <si>
+    <t>永顺通讯</t>
+  </si>
+  <si>
+    <t>3A42</t>
+  </si>
+  <si>
+    <t>华辰通讯</t>
+  </si>
+  <si>
+    <t>3A45</t>
+  </si>
+  <si>
+    <t>瀚达科贸</t>
+  </si>
+  <si>
+    <t>3A46</t>
+  </si>
+  <si>
+    <t>亨通通讯</t>
+  </si>
+  <si>
+    <t>3A48</t>
+  </si>
+  <si>
+    <t>世纪风</t>
+  </si>
+  <si>
+    <t>3A50</t>
+  </si>
+  <si>
+    <t>高阔科技</t>
+  </si>
+  <si>
+    <t>3A52</t>
+  </si>
+  <si>
+    <t>金鹰通讯</t>
+  </si>
+  <si>
+    <t>3A53</t>
+  </si>
+  <si>
+    <t>中峰通讯</t>
+  </si>
+  <si>
+    <t>3B01</t>
+  </si>
+  <si>
+    <t>云坤通讯</t>
+  </si>
+  <si>
+    <t>3B10</t>
+  </si>
+  <si>
+    <t>安信通讯</t>
+  </si>
+  <si>
+    <t>3B14</t>
+  </si>
+  <si>
+    <t>宏辉通讯</t>
+  </si>
+  <si>
+    <t>3B16</t>
+  </si>
+  <si>
+    <t>好机友</t>
+  </si>
+  <si>
+    <t>3B17</t>
+  </si>
+  <si>
+    <t>昱成商贸</t>
+  </si>
+  <si>
+    <t>3B18</t>
+  </si>
+  <si>
+    <t>龙威通讯</t>
+  </si>
+  <si>
+    <t>3B20</t>
+  </si>
+  <si>
+    <t>永兴隆</t>
+  </si>
+  <si>
+    <t>3B21</t>
+  </si>
+  <si>
+    <t>蔚蓝通讯</t>
+  </si>
+  <si>
+    <t>3B22</t>
+  </si>
+  <si>
+    <t>京诚通讯</t>
+  </si>
+  <si>
+    <t>3B23</t>
+  </si>
+  <si>
+    <t>帝友通讯</t>
+  </si>
+  <si>
+    <t>3B27</t>
+  </si>
+  <si>
+    <t>豫通通讯</t>
+  </si>
+  <si>
+    <t>3B28</t>
+  </si>
+  <si>
+    <t>华峰通讯</t>
+  </si>
+  <si>
+    <t>3B32</t>
+  </si>
+  <si>
+    <t>伟业商贸</t>
+  </si>
+  <si>
+    <t>3B33</t>
+  </si>
+  <si>
+    <t>虹阳通讯</t>
+  </si>
+  <si>
+    <t>3B34</t>
+  </si>
+  <si>
+    <t>路博通讯</t>
+  </si>
+  <si>
+    <t>3B36</t>
+  </si>
+  <si>
+    <t>中环通讯</t>
+  </si>
+  <si>
+    <t>3C01</t>
+  </si>
+  <si>
+    <t>赛朗通讯</t>
+  </si>
+  <si>
+    <t>3C02</t>
+  </si>
+  <si>
+    <t>有数通讯</t>
+  </si>
+  <si>
+    <t>3C09</t>
+  </si>
+  <si>
+    <t>飞腾通讯</t>
+  </si>
+  <si>
+    <t>3C10</t>
+  </si>
+  <si>
+    <t>捷达通讯</t>
+  </si>
+  <si>
+    <t>3C11</t>
+  </si>
+  <si>
+    <t>宇达通讯</t>
+  </si>
+  <si>
+    <t>3C12</t>
+  </si>
+  <si>
+    <t>嘉祥通讯</t>
+  </si>
+  <si>
+    <t>3C17</t>
+  </si>
+  <si>
+    <t>北斗通讯</t>
+  </si>
+  <si>
+    <t>3C18</t>
+  </si>
+  <si>
+    <t>传音科贸</t>
+  </si>
+  <si>
+    <t>3C19</t>
+  </si>
+  <si>
+    <t>欣诚通讯</t>
+  </si>
+  <si>
+    <t>3C21</t>
+  </si>
+  <si>
+    <t>河马通讯</t>
+  </si>
+  <si>
+    <t>3C26</t>
+  </si>
+  <si>
+    <t>众城通讯</t>
+  </si>
+  <si>
+    <t>3C28</t>
+  </si>
+  <si>
+    <t>联络通讯</t>
+  </si>
+  <si>
+    <t>3C29</t>
+  </si>
+  <si>
+    <t>永安通讯</t>
+  </si>
+  <si>
+    <t>3C30</t>
+  </si>
+  <si>
+    <t>翼博通讯</t>
+  </si>
+  <si>
+    <t>3C32</t>
+  </si>
+  <si>
+    <t>鑫昌通讯</t>
+  </si>
+  <si>
+    <t>3C33</t>
+  </si>
+  <si>
+    <t>亿隆通讯</t>
+  </si>
+  <si>
+    <t>3C35</t>
+  </si>
+  <si>
+    <t>德学通讯</t>
+  </si>
+  <si>
+    <t>3C36</t>
+  </si>
+  <si>
+    <t>七星科技</t>
+  </si>
+  <si>
+    <t>3C38</t>
+  </si>
+  <si>
+    <t>东利源升</t>
+  </si>
+  <si>
+    <t>3C39</t>
+  </si>
+  <si>
+    <t>启达通讯</t>
+  </si>
+  <si>
+    <t>3C41</t>
+  </si>
+  <si>
+    <t>广治通讯</t>
+  </si>
+  <si>
+    <t>3C42</t>
+  </si>
+  <si>
+    <t>鼎锋商贸</t>
+  </si>
+  <si>
+    <t>3C47</t>
+  </si>
+  <si>
+    <t>豪文通讯</t>
+  </si>
+  <si>
+    <t>3C48</t>
+  </si>
+  <si>
+    <t>英杰通讯</t>
+  </si>
+  <si>
+    <t>3C49</t>
+  </si>
+  <si>
+    <t>鑫兴盛</t>
+  </si>
+  <si>
+    <t>3C50</t>
+  </si>
+  <si>
+    <t>东方通讯</t>
+  </si>
+  <si>
+    <t>3C51</t>
+  </si>
+  <si>
+    <t>卓越通讯</t>
+  </si>
+  <si>
+    <t>3C52</t>
+  </si>
+  <si>
+    <t>机汇城</t>
+  </si>
+  <si>
+    <t>3C53</t>
+  </si>
+  <si>
+    <t>名扬科技</t>
+  </si>
+  <si>
+    <t>3C54</t>
+  </si>
+  <si>
+    <t>康阜通讯</t>
+  </si>
+  <si>
+    <t>3C55</t>
+  </si>
+  <si>
+    <t>豫创通讯</t>
+  </si>
+  <si>
+    <t>3C56</t>
+  </si>
+  <si>
+    <t>万豪优品</t>
+  </si>
+  <si>
+    <t>3C57</t>
+  </si>
+  <si>
+    <t>翼捷科技</t>
+  </si>
+  <si>
+    <t>3C58</t>
+  </si>
+  <si>
+    <t>晨辉通讯</t>
+  </si>
+  <si>
+    <t>3C60</t>
+  </si>
+  <si>
+    <t>鑫方圆</t>
+  </si>
+  <si>
+    <t>3C61</t>
+  </si>
+  <si>
+    <t>鑫宇通讯</t>
+  </si>
+  <si>
+    <t>3C62</t>
+  </si>
+  <si>
+    <t>郑州鸿兴</t>
+  </si>
+  <si>
+    <t>3C63</t>
+  </si>
+  <si>
+    <t>3C64</t>
+  </si>
+  <si>
+    <t>蓝创通讯</t>
+  </si>
+  <si>
+    <t>3D02</t>
+  </si>
+  <si>
+    <t>鑫源通讯</t>
+  </si>
+  <si>
+    <t>3D03</t>
+  </si>
+  <si>
+    <t>超博晟</t>
+  </si>
+  <si>
+    <t>3D04</t>
+  </si>
+  <si>
+    <t>轩昂通讯</t>
+  </si>
+  <si>
+    <t>3D06</t>
+  </si>
+  <si>
+    <t>尚讯通</t>
+  </si>
+  <si>
+    <t>3D07</t>
+  </si>
+  <si>
+    <t>恒源通讯</t>
+  </si>
+  <si>
+    <t>3D08</t>
+  </si>
+  <si>
+    <t>汇海源</t>
+  </si>
+  <si>
+    <t>3D10</t>
+  </si>
+  <si>
     <t>光耀通讯</t>
   </si>
   <si>
-    <t>1C01</t>
-  </si>
-  <si>
-    <t>新业通讯</t>
-  </si>
-  <si>
-    <t>1C02</t>
-  </si>
-  <si>
-    <t>鼎好通讯</t>
-  </si>
-  <si>
-    <t>1C08</t>
-  </si>
-  <si>
-    <t>鸿润通讯</t>
-  </si>
-  <si>
-    <t>1C10</t>
-  </si>
-  <si>
-    <t>东利通讯</t>
-  </si>
-  <si>
-    <t>1C11</t>
-  </si>
-  <si>
-    <t>龙诚联合</t>
-  </si>
-  <si>
-    <t>1C12</t>
-  </si>
-  <si>
-    <t>源升科技</t>
-  </si>
-  <si>
-    <t>1C13</t>
-  </si>
-  <si>
-    <t>1C14</t>
-  </si>
-  <si>
-    <t>惠鑫通讯</t>
-  </si>
-  <si>
-    <t>1C18</t>
-  </si>
-  <si>
-    <t>蜂星通讯</t>
-  </si>
-  <si>
-    <t>1C19</t>
-  </si>
-  <si>
-    <t>腾达通讯</t>
-  </si>
-  <si>
-    <t>1C20</t>
-  </si>
-  <si>
-    <t>腾飞通讯</t>
-  </si>
-  <si>
-    <t>1C21</t>
-  </si>
-  <si>
-    <t>蝶变商城</t>
-  </si>
-  <si>
-    <t>1C22</t>
-  </si>
-  <si>
-    <t>新时代</t>
-  </si>
-  <si>
-    <t>1C23</t>
-  </si>
-  <si>
-    <t>高朋通讯</t>
-  </si>
-  <si>
-    <t>1C24</t>
-  </si>
-  <si>
-    <t>星宇通讯</t>
-  </si>
-  <si>
-    <t>1C25</t>
-  </si>
-  <si>
-    <t>巨龙通讯</t>
-  </si>
-  <si>
-    <t>1C26</t>
-  </si>
-  <si>
-    <t>杰达通讯</t>
-  </si>
-  <si>
-    <t>1C27</t>
-  </si>
-  <si>
-    <t>坤泰通讯</t>
-  </si>
-  <si>
-    <t>1C28</t>
-  </si>
-  <si>
-    <t>亚昌科技</t>
-  </si>
-  <si>
-    <t>1C31</t>
-  </si>
-  <si>
-    <t>荣耀通讯</t>
-  </si>
-  <si>
-    <t>1C32</t>
-  </si>
-  <si>
-    <t>汇想通讯</t>
-  </si>
-  <si>
-    <t>1C33</t>
-  </si>
-  <si>
-    <t>万丰通讯</t>
-  </si>
-  <si>
-    <t>1C34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 勤之丰</t>
-  </si>
-  <si>
-    <t>1C35</t>
-  </si>
-  <si>
-    <t>昌盛通讯</t>
-  </si>
-  <si>
-    <t>1C35A</t>
-  </si>
-  <si>
-    <t>海星通讯</t>
-  </si>
-  <si>
-    <t>1C36</t>
-  </si>
-  <si>
-    <t>新华电讯</t>
-  </si>
-  <si>
-    <t>1C37</t>
-  </si>
-  <si>
-    <t>宏海通讯</t>
-  </si>
-  <si>
-    <t>1D03</t>
-  </si>
-  <si>
-    <t>蓝天通讯</t>
-  </si>
-  <si>
-    <t>1D08</t>
-  </si>
-  <si>
-    <t>顺城通讯</t>
-  </si>
-  <si>
-    <t>1D09</t>
-  </si>
-  <si>
-    <t>永利通讯</t>
-  </si>
-  <si>
-    <t>1D10</t>
-  </si>
-  <si>
-    <t>盛达通讯</t>
-  </si>
-  <si>
-    <t>1D11</t>
-  </si>
-  <si>
-    <t>鑫程通讯</t>
-  </si>
-  <si>
-    <t>1D12</t>
-  </si>
-  <si>
-    <t>丰凯通讯</t>
-  </si>
-  <si>
-    <t>1D13华为</t>
-  </si>
-  <si>
-    <t>1D13小米</t>
-  </si>
-  <si>
-    <t>昊天通讯</t>
-  </si>
-  <si>
-    <t>1D15</t>
-  </si>
-  <si>
-    <t>成泰通讯</t>
-  </si>
-  <si>
-    <t>1D15A</t>
-  </si>
-  <si>
-    <t>文峥通讯</t>
-  </si>
-  <si>
-    <t>1D16</t>
-  </si>
-  <si>
-    <t>赤城通讯</t>
-  </si>
-  <si>
-    <t>1D19</t>
-  </si>
-  <si>
-    <t>美联电子</t>
-  </si>
-  <si>
-    <t>1D21</t>
-  </si>
-  <si>
-    <t>华宏通讯</t>
-  </si>
-  <si>
-    <t>1D22</t>
-  </si>
-  <si>
-    <t>一鸣通讯</t>
-  </si>
-  <si>
-    <t>1D23</t>
-  </si>
-  <si>
-    <t>福聚鑫</t>
-  </si>
-  <si>
-    <t>1D24</t>
-  </si>
-  <si>
-    <t>盛祥通讯</t>
-  </si>
-  <si>
-    <t>1D25</t>
-  </si>
-  <si>
-    <t>盛龙通讯</t>
-  </si>
-  <si>
-    <t>1D27</t>
-  </si>
-  <si>
-    <t>四方通讯</t>
-  </si>
-  <si>
-    <t>1D28</t>
-  </si>
-  <si>
-    <t>亚光商贸</t>
-  </si>
-  <si>
-    <t>1D31</t>
-  </si>
-  <si>
-    <t>风行通讯</t>
-  </si>
-  <si>
-    <t>1D33</t>
-  </si>
-  <si>
-    <t>大方通讯</t>
-  </si>
-  <si>
-    <t>1D43</t>
-  </si>
-  <si>
-    <t>佰邦电子</t>
-  </si>
-  <si>
-    <t>1D45</t>
-  </si>
-  <si>
-    <t>月达通讯</t>
-  </si>
-  <si>
-    <t>1D46</t>
-  </si>
-  <si>
-    <t>锦天亿</t>
-  </si>
-  <si>
-    <t>1D47</t>
-  </si>
-  <si>
-    <t>完美经纬</t>
-  </si>
-  <si>
-    <t>1D48</t>
-  </si>
-  <si>
-    <t>亿信通讯</t>
-  </si>
-  <si>
-    <t>1D49</t>
-  </si>
-  <si>
-    <t>翼锋通讯</t>
-  </si>
-  <si>
-    <t>1D50</t>
-  </si>
-  <si>
-    <t>恒鑫通讯</t>
-  </si>
-  <si>
-    <t>1D51</t>
-  </si>
-  <si>
-    <t>港海通讯</t>
-  </si>
-  <si>
-    <t>2A02</t>
-  </si>
-  <si>
-    <t>2A03</t>
-  </si>
-  <si>
-    <t>飞儿通讯</t>
-  </si>
-  <si>
-    <t>2A04</t>
-  </si>
-  <si>
-    <t>世纪联盟</t>
-  </si>
-  <si>
-    <t>2A05</t>
-  </si>
-  <si>
-    <t>鸿诚电讯</t>
-  </si>
-  <si>
-    <t>2A07</t>
-  </si>
-  <si>
-    <t>宏升通讯</t>
-  </si>
-  <si>
-    <t>2A08</t>
-  </si>
-  <si>
-    <t>波涛通讯</t>
-  </si>
-  <si>
-    <t>2A08A</t>
-  </si>
-  <si>
-    <t>恒大通讯</t>
-  </si>
-  <si>
-    <t>2A09</t>
-  </si>
-  <si>
-    <t>拓飞魅族</t>
-  </si>
-  <si>
-    <t>2A10</t>
-  </si>
-  <si>
-    <t>中华龙腾</t>
-  </si>
-  <si>
-    <t>2A11</t>
-  </si>
-  <si>
-    <t>惠玲通讯</t>
-  </si>
-  <si>
-    <t>2A14</t>
-  </si>
-  <si>
-    <t>宏达通讯</t>
-  </si>
-  <si>
-    <t>2A18</t>
-  </si>
-  <si>
-    <t>振华科技</t>
-  </si>
-  <si>
-    <t>2A19</t>
-  </si>
-  <si>
-    <t>天壹通讯</t>
-  </si>
-  <si>
-    <t>2A23</t>
-  </si>
-  <si>
-    <t>今运通讯</t>
-  </si>
-  <si>
-    <t>2A24</t>
-  </si>
-  <si>
-    <t>天伟商贸</t>
-  </si>
-  <si>
-    <t>2A25</t>
-  </si>
-  <si>
-    <t>红旗通讯</t>
-  </si>
-  <si>
-    <t>2A26</t>
-  </si>
-  <si>
-    <t>恒信和</t>
-  </si>
-  <si>
-    <t>2A28</t>
-  </si>
-  <si>
-    <t>雷宇通讯</t>
-  </si>
-  <si>
-    <t>2A29</t>
-  </si>
-  <si>
-    <t>汇金通讯</t>
-  </si>
-  <si>
-    <t>2A30</t>
-  </si>
-  <si>
-    <t>德信通讯</t>
-  </si>
-  <si>
-    <t>2A31</t>
-  </si>
-  <si>
-    <t>亿新通讯</t>
-  </si>
-  <si>
-    <t>2A32</t>
-  </si>
-  <si>
-    <t>北方通讯</t>
-  </si>
-  <si>
-    <t>2A34</t>
-  </si>
-  <si>
-    <t>兴泰科技</t>
-  </si>
-  <si>
-    <t>2A35</t>
-  </si>
-  <si>
-    <t>国瑞通讯</t>
-  </si>
-  <si>
-    <t>2A36</t>
-  </si>
-  <si>
-    <t>兆干通讯</t>
-  </si>
-  <si>
-    <t>2A37</t>
-  </si>
-  <si>
-    <t>鼎行通讯</t>
-  </si>
-  <si>
-    <t>2A38(原2D09)</t>
-  </si>
-  <si>
-    <t>鸿业通讯</t>
-  </si>
-  <si>
-    <t>2A39</t>
-  </si>
-  <si>
-    <t>飞天通讯</t>
-  </si>
-  <si>
-    <t>2A40A</t>
-  </si>
-  <si>
-    <t>中圣通讯</t>
-  </si>
-  <si>
-    <t>2A41</t>
-  </si>
-  <si>
-    <t>新龙威</t>
-  </si>
-  <si>
-    <t>2A42</t>
-  </si>
-  <si>
-    <t>风驰通讯</t>
-  </si>
-  <si>
-    <t>2A43</t>
-  </si>
-  <si>
-    <t>金阳光</t>
-  </si>
-  <si>
-    <t>2A44</t>
-  </si>
-  <si>
-    <t>豫洲通讯</t>
-  </si>
-  <si>
-    <t>2A45</t>
-  </si>
-  <si>
-    <t>正兴通讯</t>
-  </si>
-  <si>
-    <t>2A46</t>
-  </si>
-  <si>
-    <t>誉达科贸</t>
-  </si>
-  <si>
-    <t>2A47</t>
-  </si>
-  <si>
-    <t>黎纳通讯</t>
-  </si>
-  <si>
-    <t>2A48</t>
-  </si>
-  <si>
-    <t>诚毅电子</t>
-  </si>
-  <si>
-    <t>2A49</t>
-  </si>
-  <si>
-    <t>创新时代</t>
-  </si>
-  <si>
-    <t>2A50</t>
-  </si>
-  <si>
-    <t>威铭通讯</t>
-  </si>
-  <si>
-    <t>2A51</t>
-  </si>
-  <si>
-    <t>揽日通讯</t>
-  </si>
-  <si>
-    <t>2A52</t>
-  </si>
-  <si>
-    <t>誉佳通讯</t>
-  </si>
-  <si>
-    <t>2A53</t>
-  </si>
-  <si>
-    <t>霖鑫通讯</t>
-  </si>
-  <si>
-    <t>2A54</t>
-  </si>
-  <si>
-    <t>乐信通讯</t>
-  </si>
-  <si>
-    <t>2B02</t>
-  </si>
-  <si>
-    <t>弘博商贸</t>
-  </si>
-  <si>
-    <t>2B03</t>
-  </si>
-  <si>
-    <t>众宏通讯</t>
-  </si>
-  <si>
-    <t>2B07</t>
-  </si>
-  <si>
-    <t>安东通讯</t>
-  </si>
-  <si>
-    <t>2B08</t>
-  </si>
-  <si>
-    <t>万达通讯</t>
-  </si>
-  <si>
-    <t>2B10</t>
-  </si>
-  <si>
-    <t>科贸通讯</t>
-  </si>
-  <si>
-    <t>2B12</t>
-  </si>
-  <si>
-    <t>天宇通讯</t>
-  </si>
-  <si>
-    <t>2B13</t>
-  </si>
-  <si>
-    <t>三鑫通讯</t>
-  </si>
-  <si>
-    <t>2B14</t>
-  </si>
-  <si>
-    <t>华尚通讯</t>
-  </si>
-  <si>
-    <t>2B15-16</t>
-  </si>
-  <si>
-    <t>郑州华远</t>
-  </si>
-  <si>
-    <t>2B17</t>
-  </si>
-  <si>
-    <t>万杰通讯</t>
-  </si>
-  <si>
-    <t>2B19</t>
-  </si>
-  <si>
-    <t>华厦通讯</t>
-  </si>
-  <si>
-    <t>2B20</t>
-  </si>
-  <si>
-    <t>萌兴通讯</t>
-  </si>
-  <si>
-    <t>2B21</t>
-  </si>
-  <si>
-    <t>永盛通讯</t>
-  </si>
-  <si>
-    <t>2B22</t>
-  </si>
-  <si>
-    <t>谦和通讯</t>
-  </si>
-  <si>
-    <t>2B23</t>
-  </si>
-  <si>
-    <t>大唐通讯</t>
-  </si>
-  <si>
-    <t>2B24</t>
-  </si>
-  <si>
-    <t>红鑫通讯</t>
-  </si>
-  <si>
-    <t>2B27</t>
-  </si>
-  <si>
-    <t>通盛通讯</t>
-  </si>
-  <si>
-    <t>2B28</t>
-  </si>
-  <si>
-    <t>海峡通讯</t>
-  </si>
-  <si>
-    <t>2B28A</t>
-  </si>
-  <si>
-    <t>万亿通讯</t>
-  </si>
-  <si>
-    <t>2B30</t>
-  </si>
-  <si>
-    <t>松联通讯</t>
-  </si>
-  <si>
-    <t>2B31</t>
-  </si>
-  <si>
-    <t>东临通讯</t>
-  </si>
-  <si>
-    <t>2B31A</t>
-  </si>
-  <si>
-    <t>亿诺通讯</t>
-  </si>
-  <si>
-    <t>2B32</t>
-  </si>
-  <si>
-    <t>世程通讯</t>
-  </si>
-  <si>
-    <t>2B33</t>
-  </si>
-  <si>
-    <t>飞越通讯</t>
-  </si>
-  <si>
-    <t>2B34</t>
-  </si>
-  <si>
-    <t>富康通讯</t>
-  </si>
-  <si>
-    <t>2B35</t>
-  </si>
-  <si>
-    <t>宏宇通讯</t>
-  </si>
-  <si>
-    <t>2B36</t>
-  </si>
-  <si>
-    <t>瑞涛苹果</t>
-  </si>
-  <si>
-    <t>2B37</t>
-  </si>
-  <si>
-    <t>鑫通胜</t>
-  </si>
-  <si>
-    <t>2B38</t>
-  </si>
-  <si>
-    <t>鑫凯格</t>
-  </si>
-  <si>
-    <t>2C06</t>
-  </si>
-  <si>
-    <t>郑州一达</t>
-  </si>
-  <si>
-    <t>2C07</t>
-  </si>
-  <si>
-    <t>初心通讯</t>
-  </si>
-  <si>
-    <t>2C09</t>
-  </si>
-  <si>
-    <t>天胜通讯</t>
-  </si>
-  <si>
-    <t>2C10</t>
-  </si>
-  <si>
-    <t>中发通讯</t>
-  </si>
-  <si>
-    <t>2C11A</t>
-  </si>
-  <si>
-    <t>顺发通讯</t>
-  </si>
-  <si>
-    <t>2C12</t>
-  </si>
-  <si>
-    <t>鲁豫通讯</t>
-  </si>
-  <si>
-    <t>2C13A</t>
-  </si>
-  <si>
-    <t>九洲通讯</t>
-  </si>
-  <si>
-    <t>2C13B</t>
-  </si>
-  <si>
-    <t>鸿之联</t>
-  </si>
-  <si>
-    <t>2C14</t>
-  </si>
-  <si>
-    <t>久月通讯</t>
-  </si>
-  <si>
-    <t>2C16</t>
-  </si>
-  <si>
-    <t>汇通通讯</t>
-  </si>
-  <si>
-    <t>2C18</t>
-  </si>
-  <si>
-    <t>恒盛通讯</t>
-  </si>
-  <si>
-    <t>2C19</t>
-  </si>
-  <si>
-    <t>众和通讯</t>
-  </si>
-  <si>
-    <t>2C20</t>
-  </si>
-  <si>
-    <t>致和通讯</t>
-  </si>
-  <si>
-    <t>2C21</t>
-  </si>
-  <si>
-    <t>鼎行国产</t>
-  </si>
-  <si>
-    <t>2C22</t>
-  </si>
-  <si>
-    <t>宇迅达</t>
-  </si>
-  <si>
-    <t>2C23</t>
-  </si>
-  <si>
-    <t>闽华通讯</t>
-  </si>
-  <si>
-    <t>2C24</t>
-  </si>
-  <si>
-    <t>融盛通讯</t>
-  </si>
-  <si>
-    <t>2C25</t>
-  </si>
-  <si>
-    <t>新起点</t>
-  </si>
-  <si>
-    <t>2C25A</t>
-  </si>
-  <si>
-    <t>宏利达</t>
-  </si>
-  <si>
-    <t>2C26</t>
-  </si>
-  <si>
-    <t>叁陆玖</t>
-  </si>
-  <si>
-    <t>2C26A</t>
-  </si>
-  <si>
-    <t>鑫锦荣</t>
-  </si>
-  <si>
-    <t>2C27</t>
-  </si>
-  <si>
-    <t>德鸿通讯</t>
-  </si>
-  <si>
-    <t>2C28</t>
-  </si>
-  <si>
-    <t>联魅电科</t>
-  </si>
-  <si>
-    <t>2C29</t>
-  </si>
-  <si>
-    <t>伟达通讯</t>
-  </si>
-  <si>
-    <t>2C30</t>
-  </si>
-  <si>
-    <t>东润小米</t>
-  </si>
-  <si>
-    <t>2C32</t>
-  </si>
-  <si>
-    <t>宇星科技</t>
-  </si>
-  <si>
-    <t>2C33</t>
-  </si>
-  <si>
-    <t>2C34</t>
-  </si>
-  <si>
-    <t>凯森商贸</t>
-  </si>
-  <si>
-    <t>2C35</t>
-  </si>
-  <si>
-    <t>大宇电讯</t>
-  </si>
-  <si>
-    <t>2C36</t>
-  </si>
-  <si>
-    <t>两岸通讯</t>
-  </si>
-  <si>
-    <t>2C37</t>
-  </si>
-  <si>
-    <t>鑫隆源</t>
-  </si>
-  <si>
-    <t>2C38</t>
-  </si>
-  <si>
-    <t>海天商贸</t>
-  </si>
-  <si>
-    <t>2C39</t>
-  </si>
-  <si>
-    <t>涛涛通讯</t>
-  </si>
-  <si>
-    <t>2C39A</t>
-  </si>
-  <si>
-    <t>3G时代OV部</t>
-  </si>
-  <si>
-    <t>2C40</t>
-  </si>
-  <si>
-    <t>信合通讯</t>
-  </si>
-  <si>
-    <t>2C41</t>
-  </si>
-  <si>
-    <t>波越通讯</t>
-  </si>
-  <si>
-    <t>2C42</t>
-  </si>
-  <si>
-    <t>新一方</t>
-  </si>
-  <si>
-    <t>2C43</t>
-  </si>
-  <si>
-    <t>茂源通讯</t>
-  </si>
-  <si>
-    <t>2C44A</t>
-  </si>
-  <si>
-    <t>恒波通讯</t>
-  </si>
-  <si>
-    <t>2C45</t>
-  </si>
-  <si>
-    <t>未浩贸易</t>
-  </si>
-  <si>
-    <t>2C46</t>
-  </si>
-  <si>
-    <t>云华通讯</t>
-  </si>
-  <si>
-    <t>2C47</t>
-  </si>
-  <si>
-    <t>珍珍通讯</t>
-  </si>
-  <si>
-    <t>2C48</t>
-  </si>
-  <si>
-    <t>河南北方</t>
-  </si>
-  <si>
-    <t>2C49</t>
-  </si>
-  <si>
-    <t>瑞涛国产</t>
-  </si>
-  <si>
-    <t>2C50</t>
-  </si>
-  <si>
-    <t>瑞英通讯</t>
-  </si>
-  <si>
-    <t>2C51</t>
-  </si>
-  <si>
-    <t>富达通讯</t>
-  </si>
-  <si>
-    <t>2C52</t>
-  </si>
-  <si>
-    <t>龙祥通讯</t>
-  </si>
-  <si>
-    <t>2C54</t>
-  </si>
-  <si>
-    <t>欣鑫通讯</t>
-  </si>
-  <si>
-    <t>2C56</t>
-  </si>
-  <si>
-    <t>中亚通讯</t>
-  </si>
-  <si>
-    <t>2C57</t>
-  </si>
-  <si>
-    <t>启智通讯</t>
-  </si>
-  <si>
-    <t>2C58</t>
-  </si>
-  <si>
-    <t>淦淦通讯</t>
-  </si>
-  <si>
-    <t>2C59</t>
-  </si>
-  <si>
-    <t>浩通通讯</t>
-  </si>
-  <si>
-    <t>2C60</t>
-  </si>
-  <si>
-    <t>浩轩通讯</t>
-  </si>
-  <si>
-    <t>2C62</t>
-  </si>
-  <si>
-    <t>大河通讯</t>
-  </si>
-  <si>
-    <t>2C63</t>
-  </si>
-  <si>
-    <t>郑州佳联</t>
-  </si>
-  <si>
-    <t>2D02</t>
-  </si>
-  <si>
-    <t>晨曦通讯</t>
-  </si>
-  <si>
-    <t>2D03</t>
-  </si>
-  <si>
-    <t>优优科技</t>
-  </si>
-  <si>
-    <t>2D04</t>
-  </si>
-  <si>
-    <t>窑窑通讯</t>
-  </si>
-  <si>
-    <t>2D07</t>
-  </si>
-  <si>
-    <t>正阳通讯</t>
-  </si>
-  <si>
-    <t>2D08</t>
-  </si>
-  <si>
-    <t>金马通讯</t>
-  </si>
-  <si>
-    <t>2D09</t>
-  </si>
-  <si>
-    <t>瑞成通讯</t>
-  </si>
-  <si>
-    <t>2D12</t>
-  </si>
-  <si>
-    <t>超盛通讯</t>
-  </si>
-  <si>
-    <t>2D13</t>
-  </si>
-  <si>
-    <t>华通通讯</t>
-  </si>
-  <si>
-    <t>2D20</t>
-  </si>
-  <si>
-    <t>郑州弘鑫</t>
-  </si>
-  <si>
-    <t>2D20A</t>
-  </si>
-  <si>
-    <t>孟飞通讯</t>
-  </si>
-  <si>
-    <t>2D21</t>
-  </si>
-  <si>
-    <t>天天通讯</t>
-  </si>
-  <si>
-    <t>2D22</t>
-  </si>
-  <si>
-    <t>智能易讯</t>
-  </si>
-  <si>
-    <t>2D23</t>
-  </si>
-  <si>
-    <t>丽达通讯</t>
-  </si>
-  <si>
-    <t>2D24</t>
-  </si>
-  <si>
-    <t>心悦贸易</t>
-  </si>
-  <si>
-    <t>2D24A</t>
-  </si>
-  <si>
-    <t>众成通讯</t>
-  </si>
-  <si>
-    <t>2D25</t>
-  </si>
-  <si>
-    <t>金诺通讯</t>
-  </si>
-  <si>
-    <t>2D26</t>
-  </si>
-  <si>
-    <t>翼祥通讯</t>
-  </si>
-  <si>
-    <t>2D27</t>
-  </si>
-  <si>
-    <t>华贸通讯</t>
-  </si>
-  <si>
-    <t>2D28</t>
-  </si>
-  <si>
-    <t>鑫银泰</t>
-  </si>
-  <si>
-    <t>2D29</t>
-  </si>
-  <si>
-    <t>祥源通讯</t>
-  </si>
-  <si>
-    <t>2D30</t>
-  </si>
-  <si>
-    <t>金海通讯</t>
-  </si>
-  <si>
-    <t>2D33</t>
-  </si>
-  <si>
-    <t>恒华通讯</t>
-  </si>
-  <si>
-    <t>2D34</t>
-  </si>
-  <si>
-    <t>闵南电信</t>
-  </si>
-  <si>
-    <t>2D35</t>
-  </si>
-  <si>
-    <t>魅鑫商贸</t>
-  </si>
-  <si>
-    <t>2D37</t>
-  </si>
-  <si>
-    <t>万通通讯</t>
-  </si>
-  <si>
-    <t>2D38</t>
-  </si>
-  <si>
-    <t>鸿运通讯</t>
-  </si>
-  <si>
-    <t>2D39</t>
-  </si>
-  <si>
-    <t>神马通讯</t>
-  </si>
-  <si>
-    <t>2D40</t>
-  </si>
-  <si>
-    <t>龙腾通讯</t>
-  </si>
-  <si>
-    <t>2D41</t>
-  </si>
-  <si>
-    <t>申明通讯</t>
-  </si>
-  <si>
-    <t>2D41A</t>
-  </si>
-  <si>
-    <t>和美通讯</t>
-  </si>
-  <si>
-    <t>2D42</t>
-  </si>
-  <si>
-    <t>翼达通讯</t>
-  </si>
-  <si>
-    <t>2D43</t>
-  </si>
-  <si>
-    <t>蓝宇通讯</t>
-  </si>
-  <si>
-    <t>2D44</t>
-  </si>
-  <si>
-    <t>2D45</t>
-  </si>
-  <si>
-    <t>长河天成</t>
-  </si>
-  <si>
-    <t>2D48</t>
-  </si>
-  <si>
-    <t>恒惠通讯</t>
-  </si>
-  <si>
-    <t>2D49</t>
-  </si>
-  <si>
-    <t>小辉通讯</t>
-  </si>
-  <si>
-    <t>3A01</t>
-  </si>
-  <si>
-    <t>汉飞科技</t>
-  </si>
-  <si>
-    <t>3A02</t>
-  </si>
-  <si>
-    <t>万源通讯</t>
-  </si>
-  <si>
-    <t>3A05</t>
-  </si>
-  <si>
-    <t>3A10</t>
-  </si>
-  <si>
-    <t>郑州新星</t>
-  </si>
-  <si>
-    <t>3A12</t>
-  </si>
-  <si>
-    <t>利鑫通讯</t>
-  </si>
-  <si>
-    <t>3A13</t>
-  </si>
-  <si>
-    <t>宇丰通讯</t>
-  </si>
-  <si>
-    <t>3A14</t>
-  </si>
-  <si>
-    <t>兄弟联盟</t>
-  </si>
-  <si>
-    <t>3A15</t>
-  </si>
-  <si>
-    <t>志诚通讯</t>
-  </si>
-  <si>
-    <t>3A18</t>
-  </si>
-  <si>
-    <t>森林通讯</t>
-  </si>
-  <si>
-    <t>3A19</t>
-  </si>
-  <si>
-    <t>启航通讯</t>
-  </si>
-  <si>
-    <t>3A20</t>
-  </si>
-  <si>
-    <t>华翼通讯</t>
-  </si>
-  <si>
-    <t>3A22</t>
-  </si>
-  <si>
-    <t>永安通讯</t>
-  </si>
-  <si>
-    <t>3A24</t>
+    <t>3D11</t>
+  </si>
+  <si>
+    <t>旷视创天</t>
+  </si>
+  <si>
+    <t>3D12</t>
+  </si>
+  <si>
+    <t>东皇通讯</t>
+  </si>
+  <si>
+    <t>3D13</t>
+  </si>
+  <si>
+    <t>兴凯通讯</t>
+  </si>
+  <si>
+    <t>3D16</t>
+  </si>
+  <si>
+    <t>郑州裕美</t>
+  </si>
+  <si>
+    <t>3D18</t>
+  </si>
+  <si>
+    <t>华豫通讯</t>
+  </si>
+  <si>
+    <t>3D20</t>
+  </si>
+  <si>
+    <t>远诚通讯</t>
+  </si>
+  <si>
+    <t>3D21</t>
   </si>
   <si>
     <t>胜恒通讯</t>
   </si>
   <si>
-    <t>3A25</t>
-  </si>
-  <si>
-    <t>天和通讯</t>
-  </si>
-  <si>
-    <t>3A26</t>
-  </si>
-  <si>
-    <t>宇威通讯</t>
-  </si>
-  <si>
-    <t>3A27</t>
-  </si>
-  <si>
-    <t>舒雅通讯</t>
-  </si>
-  <si>
-    <t>3A28</t>
-  </si>
-  <si>
-    <t>无限通讯</t>
-  </si>
-  <si>
-    <t>3A29</t>
-  </si>
-  <si>
-    <t>心怡通讯</t>
-  </si>
-  <si>
-    <t>3A30</t>
-  </si>
-  <si>
-    <t>3A31</t>
-  </si>
-  <si>
-    <t>星光通讯</t>
-  </si>
-  <si>
-    <t>3A32</t>
-  </si>
-  <si>
-    <t>龙达通讯</t>
-  </si>
-  <si>
-    <t>3A33</t>
-  </si>
-  <si>
-    <t>天鸿通讯</t>
-  </si>
-  <si>
-    <t>3A35</t>
-  </si>
-  <si>
-    <t>宏盛通讯</t>
-  </si>
-  <si>
-    <t>3A35A</t>
-  </si>
-  <si>
-    <t>鑫之源</t>
-  </si>
-  <si>
-    <t>3A36</t>
-  </si>
-  <si>
-    <t>3A37</t>
-  </si>
-  <si>
-    <t>郑州志诚</t>
-  </si>
-  <si>
-    <t>3A38</t>
-  </si>
-  <si>
-    <t>河南易雅</t>
-  </si>
-  <si>
-    <t>3A39</t>
-  </si>
-  <si>
-    <t>羿龙通讯</t>
-  </si>
-  <si>
-    <t>3A41</t>
-  </si>
-  <si>
-    <t>永顺通讯</t>
-  </si>
-  <si>
-    <t>3A42</t>
-  </si>
-  <si>
-    <t>鑫昌通讯</t>
-  </si>
-  <si>
-    <t>3A44</t>
-  </si>
-  <si>
-    <t>华辰通讯</t>
-  </si>
-  <si>
-    <t>3A45</t>
-  </si>
-  <si>
-    <t>瀚达科贸</t>
-  </si>
-  <si>
-    <t>3A46</t>
-  </si>
-  <si>
-    <t>亨通通讯</t>
-  </si>
-  <si>
-    <t>3A48</t>
+    <t>3D22</t>
+  </si>
+  <si>
+    <t>亚星通讯</t>
+  </si>
+  <si>
+    <t>3D23</t>
+  </si>
+  <si>
+    <t>东海通讯</t>
+  </si>
+  <si>
+    <t>3D25</t>
+  </si>
+  <si>
+    <t>晓航通讯</t>
+  </si>
+  <si>
+    <t>3D26</t>
+  </si>
+  <si>
+    <t>国翔通讯</t>
+  </si>
+  <si>
+    <t>3D27</t>
   </si>
   <si>
     <t>宁宁通讯</t>
   </si>
   <si>
-    <t>3A49</t>
-  </si>
-  <si>
-    <t>世纪风</t>
-  </si>
-  <si>
-    <t>3A50</t>
-  </si>
-  <si>
-    <t>金峰通讯</t>
-  </si>
-  <si>
-    <t>3A51</t>
-  </si>
-  <si>
-    <t>东海通讯</t>
-  </si>
-  <si>
-    <t>3A52</t>
-  </si>
-  <si>
-    <t>易达通讯</t>
-  </si>
-  <si>
-    <t>3A53</t>
-  </si>
-  <si>
-    <t>中峰通讯</t>
-  </si>
-  <si>
-    <t>3B01</t>
-  </si>
-  <si>
-    <t>云坤通讯</t>
-  </si>
-  <si>
-    <t>3B10</t>
-  </si>
-  <si>
-    <t>高阔科技</t>
-  </si>
-  <si>
-    <t>3B12</t>
-  </si>
-  <si>
-    <t>安信通讯</t>
-  </si>
-  <si>
-    <t>3B14</t>
-  </si>
-  <si>
-    <t>轩昂通讯</t>
-  </si>
-  <si>
-    <t>3B15</t>
-  </si>
-  <si>
-    <t>宏辉通讯</t>
-  </si>
-  <si>
-    <t>3B16</t>
-  </si>
-  <si>
-    <t>好机友</t>
-  </si>
-  <si>
-    <t>3B17</t>
-  </si>
-  <si>
-    <t>昱成商贸</t>
-  </si>
-  <si>
-    <t>3B18</t>
-  </si>
-  <si>
-    <t>金鹰通讯</t>
-  </si>
-  <si>
-    <t>3B19</t>
-  </si>
-  <si>
-    <t>龙威通讯</t>
-  </si>
-  <si>
-    <t>3B20</t>
-  </si>
-  <si>
-    <t>永兴隆</t>
-  </si>
-  <si>
-    <t>3B21</t>
-  </si>
-  <si>
-    <t>蔚蓝通讯</t>
-  </si>
-  <si>
-    <t>3B22</t>
-  </si>
-  <si>
-    <t>京诚通讯</t>
-  </si>
-  <si>
-    <t>3B23</t>
-  </si>
-  <si>
-    <t>鑫兴盛</t>
-  </si>
-  <si>
-    <t>3B24</t>
-  </si>
-  <si>
-    <t>帝友通讯</t>
-  </si>
-  <si>
-    <t>3B27</t>
-  </si>
-  <si>
-    <t>豫通通讯</t>
-  </si>
-  <si>
-    <t>3B28</t>
-  </si>
-  <si>
-    <t>华峰通讯</t>
-  </si>
-  <si>
-    <t>3B32</t>
-  </si>
-  <si>
-    <t>伟业商贸</t>
-  </si>
-  <si>
-    <t>3B33</t>
-  </si>
-  <si>
-    <t>虹阳通讯</t>
-  </si>
-  <si>
-    <t>3B34</t>
-  </si>
-  <si>
-    <t>呈耀商贸</t>
-  </si>
-  <si>
-    <t>3B35</t>
-  </si>
-  <si>
-    <t>路博通讯</t>
-  </si>
-  <si>
-    <t>3B36</t>
-  </si>
-  <si>
-    <t>中环通讯</t>
-  </si>
-  <si>
-    <t>3C01</t>
-  </si>
-  <si>
-    <t>赛朗通讯</t>
-  </si>
-  <si>
-    <t>3C02</t>
-  </si>
-  <si>
-    <t>海洋通讯</t>
-  </si>
-  <si>
-    <t>3C07</t>
-  </si>
-  <si>
-    <t>有数通讯</t>
-  </si>
-  <si>
-    <t>3C09</t>
-  </si>
-  <si>
-    <t>飞腾通讯</t>
-  </si>
-  <si>
-    <t>3C10</t>
-  </si>
-  <si>
-    <t>捷达通讯</t>
-  </si>
-  <si>
-    <t>3C11</t>
-  </si>
-  <si>
-    <t>宇达通讯</t>
-  </si>
-  <si>
-    <t>3C12</t>
-  </si>
-  <si>
-    <t>嘉祥通讯</t>
-  </si>
-  <si>
-    <t>3C17</t>
-  </si>
-  <si>
-    <t>传音科贸</t>
-  </si>
-  <si>
-    <t>3C19</t>
-  </si>
-  <si>
-    <t>欣诚通讯</t>
-  </si>
-  <si>
-    <t>3C21</t>
-  </si>
-  <si>
-    <t>河马通讯</t>
-  </si>
-  <si>
-    <t>3C26</t>
-  </si>
-  <si>
-    <t>众城通讯</t>
-  </si>
-  <si>
-    <t>3C28</t>
-  </si>
-  <si>
-    <t>联络通讯</t>
-  </si>
-  <si>
-    <t>3C29</t>
-  </si>
-  <si>
-    <t>翼博通讯</t>
-  </si>
-  <si>
-    <t>3C32</t>
-  </si>
-  <si>
-    <t>亿隆通讯</t>
-  </si>
-  <si>
-    <t>3C33</t>
-  </si>
-  <si>
-    <t>德学通讯</t>
-  </si>
-  <si>
-    <t>3C36</t>
-  </si>
-  <si>
-    <t>思玥通讯</t>
-  </si>
-  <si>
-    <t>3C37</t>
-  </si>
-  <si>
-    <t>七星科技</t>
-  </si>
-  <si>
-    <t>3C38</t>
-  </si>
-  <si>
-    <t>东利源升</t>
-  </si>
-  <si>
-    <t>3C39</t>
-  </si>
-  <si>
-    <t>飞虹通讯</t>
-  </si>
-  <si>
-    <t>3C41</t>
-  </si>
-  <si>
-    <t>广治通讯</t>
-  </si>
-  <si>
-    <t>3C42</t>
-  </si>
-  <si>
-    <t>鼎峰通讯</t>
-  </si>
-  <si>
-    <t>3C47</t>
-  </si>
-  <si>
-    <t>豪文通讯</t>
-  </si>
-  <si>
-    <t>3C48</t>
-  </si>
-  <si>
-    <t>英杰通讯</t>
-  </si>
-  <si>
-    <t>3C49</t>
-  </si>
-  <si>
-    <t>苹秀通讯</t>
-  </si>
-  <si>
-    <t>3C50</t>
-  </si>
-  <si>
-    <t>东方通讯</t>
-  </si>
-  <si>
-    <t>3C51</t>
-  </si>
-  <si>
-    <t>卓越通讯</t>
-  </si>
-  <si>
-    <t>3C52</t>
-  </si>
-  <si>
-    <t>机汇城</t>
-  </si>
-  <si>
-    <t>3C53</t>
-  </si>
-  <si>
-    <t>名扬科技</t>
-  </si>
-  <si>
-    <t>3C54</t>
-  </si>
-  <si>
-    <t>康阜通讯</t>
-  </si>
-  <si>
-    <t>3C55</t>
-  </si>
-  <si>
-    <t>豫创通讯</t>
-  </si>
-  <si>
-    <t>3C56</t>
-  </si>
-  <si>
-    <t>万豪优品</t>
-  </si>
-  <si>
-    <t>3C57</t>
-  </si>
-  <si>
-    <t>翼捷科技</t>
-  </si>
-  <si>
-    <t>3C58</t>
-  </si>
-  <si>
-    <t>鑫宇通讯</t>
-  </si>
-  <si>
-    <t>3C59</t>
-  </si>
-  <si>
-    <t>晨辉通讯</t>
-  </si>
-  <si>
-    <t>3C60</t>
-  </si>
-  <si>
-    <t>鑫方圆</t>
-  </si>
-  <si>
-    <t>3C61</t>
-  </si>
-  <si>
-    <t>曦东通讯</t>
-  </si>
-  <si>
-    <t>3C62</t>
-  </si>
-  <si>
-    <t>郑州鸿兴</t>
-  </si>
-  <si>
-    <t>3C63</t>
-  </si>
-  <si>
-    <t>3C64</t>
-  </si>
-  <si>
-    <t>蓝创通讯</t>
-  </si>
-  <si>
-    <t>3D02</t>
-  </si>
-  <si>
-    <t>鑫源通讯</t>
-  </si>
-  <si>
-    <t>3D03</t>
-  </si>
-  <si>
-    <t>超博晟</t>
-  </si>
-  <si>
-    <t>3D04</t>
-  </si>
-  <si>
-    <t>尚讯通</t>
-  </si>
-  <si>
-    <t>3D07</t>
-  </si>
-  <si>
-    <t>恒源通讯</t>
-  </si>
-  <si>
-    <t>3D08</t>
-  </si>
-  <si>
-    <t>汇海源</t>
-  </si>
-  <si>
-    <t>3D10</t>
-  </si>
-  <si>
-    <t>旷视创天</t>
-  </si>
-  <si>
-    <t>3D12</t>
-  </si>
-  <si>
-    <t>东皇通讯</t>
-  </si>
-  <si>
-    <t>3D13</t>
-  </si>
-  <si>
-    <t>兴凯通讯</t>
-  </si>
-  <si>
-    <t>3D16</t>
-  </si>
-  <si>
-    <t>郑州裕美</t>
-  </si>
-  <si>
-    <t>3D18</t>
-  </si>
-  <si>
-    <t>华豫通讯</t>
-  </si>
-  <si>
-    <t>3D20</t>
-  </si>
-  <si>
-    <t>远诚通讯</t>
-  </si>
-  <si>
-    <t>3D22</t>
-  </si>
-  <si>
-    <t>亚星通讯</t>
-  </si>
-  <si>
-    <t>3D23</t>
-  </si>
-  <si>
-    <t>中原恒辉</t>
-  </si>
-  <si>
-    <t>3D25</t>
-  </si>
-  <si>
-    <t>晓航通讯</t>
-  </si>
-  <si>
-    <t>3D26</t>
-  </si>
-  <si>
-    <t>国翔通讯</t>
-  </si>
-  <si>
-    <t>3D27</t>
+    <t>3D28</t>
   </si>
   <si>
     <t>华为科技</t>
@@ -2133,13 +2103,7 @@
     <t>3D34</t>
   </si>
   <si>
-    <t>博文电通</t>
-  </si>
-  <si>
-    <t>3D36</t>
-  </si>
-  <si>
-    <t>宇辰通讯</t>
+    <t>华兴通讯</t>
   </si>
   <si>
     <t>3D37</t>
@@ -2154,22 +2118,10 @@
     <t>3D39</t>
   </si>
   <si>
-    <t>华兴通讯</t>
-  </si>
-  <si>
-    <t>3D40</t>
-  </si>
-  <si>
     <t>圣鸿通讯</t>
   </si>
   <si>
     <t>3D41</t>
-  </si>
-  <si>
-    <t>北斗通讯</t>
-  </si>
-  <si>
-    <t>3D42</t>
   </si>
   <si>
     <t>凌威通讯</t>
@@ -2544,7 +2496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C371"/>
+  <dimension ref="A1:C363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2554,552 +2506,552 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="n">
-        <v>576</v>
+        <v>4985</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="C1" t="n">
+        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>477</v>
+        <v>576</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>571</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>336</v>
+        <v>506</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>414</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>382</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>236</v>
+        <v>439</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>154</v>
+        <v>550</v>
       </c>
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>3876</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
         <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>241</v>
+        <v>3876</v>
       </c>
       <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>578</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
         <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>252</v>
+        <v>502</v>
       </c>
       <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>502</v>
+        <v>421</v>
       </c>
       <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>421</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
         <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>264</v>
+        <v>889</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>889</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>199</v>
+        <v>420</v>
       </c>
       <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>420</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>317</v>
+        <v>165</v>
       </c>
       <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>165</v>
+        <v>386</v>
       </c>
       <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
         <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>386</v>
+        <v>3051</v>
       </c>
       <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>3051</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>347</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
         <v>71</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>172</v>
+        <v>402</v>
       </c>
       <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
         <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>169</v>
+        <v>579</v>
       </c>
       <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>402</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>579</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>283</v>
+        <v>498</v>
       </c>
       <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
         <v>83</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
         <v>87</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
         <v>89</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>178</v>
+        <v>419</v>
       </c>
       <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
         <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>410</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
         <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>419</v>
+        <v>578</v>
       </c>
       <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>649</v>
+        <v>563</v>
       </c>
       <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3107,10 +3059,10 @@
         <v>3054</v>
       </c>
       <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
         <v>99</v>
-      </c>
-      <c r="C51" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3118,10 +3070,10 @@
         <v>581</v>
       </c>
       <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
         <v>101</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3129,10 +3081,10 @@
         <v>225</v>
       </c>
       <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
         <v>103</v>
-      </c>
-      <c r="C53" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3140,10 +3092,10 @@
         <v>359</v>
       </c>
       <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
         <v>105</v>
-      </c>
-      <c r="C54" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3151,10 +3103,10 @@
         <v>262</v>
       </c>
       <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
         <v>107</v>
-      </c>
-      <c r="C55" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3162,10 +3114,10 @@
         <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3173,10 +3125,10 @@
         <v>377</v>
       </c>
       <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
         <v>110</v>
-      </c>
-      <c r="C57" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3184,10 +3136,10 @@
         <v>329</v>
       </c>
       <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
         <v>112</v>
-      </c>
-      <c r="C58" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3195,10 +3147,10 @@
         <v>286</v>
       </c>
       <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
         <v>114</v>
-      </c>
-      <c r="C59" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3206,10 +3158,10 @@
         <v>3692</v>
       </c>
       <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
         <v>116</v>
-      </c>
-      <c r="C60" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3217,10 +3169,10 @@
         <v>139</v>
       </c>
       <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
         <v>118</v>
-      </c>
-      <c r="C61" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3228,10 +3180,10 @@
         <v>215</v>
       </c>
       <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="s">
         <v>120</v>
-      </c>
-      <c r="C62" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3239,10 +3191,10 @@
         <v>3824</v>
       </c>
       <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" t="s">
         <v>122</v>
-      </c>
-      <c r="C63" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3250,10 +3202,10 @@
         <v>2097</v>
       </c>
       <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
         <v>124</v>
-      </c>
-      <c r="C64" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3261,10 +3213,10 @@
         <v>177</v>
       </c>
       <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
         <v>126</v>
-      </c>
-      <c r="C65" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3272,10 +3224,10 @@
         <v>380</v>
       </c>
       <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
         <v>128</v>
-      </c>
-      <c r="C66" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3283,139 +3235,139 @@
         <v>1040</v>
       </c>
       <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
         <v>130</v>
-      </c>
-      <c r="C67" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>156</v>
+        <v>397</v>
       </c>
       <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" t="s">
         <v>132</v>
-      </c>
-      <c r="C68" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>5112</v>
+        <v>156</v>
       </c>
       <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
         <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>331</v>
+        <v>5112</v>
       </c>
       <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" t="s">
         <v>136</v>
-      </c>
-      <c r="C70" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>647</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" t="s">
         <v>138</v>
-      </c>
-      <c r="C71" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>297</v>
+        <v>647</v>
       </c>
       <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
         <v>140</v>
-      </c>
-      <c r="C72" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>466</v>
+        <v>297</v>
       </c>
       <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" t="s">
         <v>142</v>
-      </c>
-      <c r="C73" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" t="s">
         <v>144</v>
-      </c>
-      <c r="C74" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>409</v>
+        <v>334</v>
       </c>
       <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" t="s">
         <v>146</v>
-      </c>
-      <c r="C75" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
         <v>148</v>
-      </c>
-      <c r="C76" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>166</v>
+        <v>415</v>
       </c>
       <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
         <v>150</v>
-      </c>
-      <c r="C77" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>337</v>
+        <v>166</v>
       </c>
       <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" t="s">
         <v>152</v>
-      </c>
-      <c r="C78" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
         <v>154</v>
@@ -3423,1077 +3375,1077 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
         <v>155</v>
-      </c>
-      <c r="C80" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>468</v>
+        <v>340</v>
       </c>
       <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
         <v>157</v>
-      </c>
-      <c r="C81" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>344</v>
+        <v>468</v>
       </c>
       <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" t="s">
         <v>159</v>
-      </c>
-      <c r="C82" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>3342</v>
+        <v>344</v>
       </c>
       <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="s">
         <v>161</v>
-      </c>
-      <c r="C83" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>184</v>
+        <v>3342</v>
       </c>
       <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" t="s">
         <v>163</v>
-      </c>
-      <c r="C84" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" t="s">
         <v>165</v>
-      </c>
-      <c r="C85" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="B86" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" t="s">
         <v>167</v>
-      </c>
-      <c r="C86" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="B87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" t="s">
         <v>169</v>
-      </c>
-      <c r="C87" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B88" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" t="s">
         <v>171</v>
-      </c>
-      <c r="C88" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B89" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" t="s">
         <v>173</v>
-      </c>
-      <c r="C89" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>5566</v>
+        <v>356</v>
       </c>
       <c r="B90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" t="s">
         <v>175</v>
-      </c>
-      <c r="C90" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>361</v>
+        <v>5566</v>
       </c>
       <c r="B91" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" t="s">
         <v>177</v>
-      </c>
-      <c r="C91" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>521</v>
+        <v>361</v>
       </c>
       <c r="B92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" t="s">
         <v>179</v>
-      </c>
-      <c r="C92" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="B93" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" t="s">
         <v>181</v>
-      </c>
-      <c r="C93" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B94" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" t="s">
         <v>183</v>
-      </c>
-      <c r="C94" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" t="s">
         <v>185</v>
-      </c>
-      <c r="C95" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>505</v>
+        <v>237</v>
       </c>
       <c r="B96" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" t="s">
         <v>187</v>
-      </c>
-      <c r="C96" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B97" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" t="s">
         <v>189</v>
-      </c>
-      <c r="C97" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>222</v>
+        <v>505</v>
       </c>
       <c r="B98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" t="s">
         <v>191</v>
-      </c>
-      <c r="C98" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>551</v>
+        <v>499</v>
       </c>
       <c r="B99" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" t="s">
         <v>193</v>
-      </c>
-      <c r="C99" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>471</v>
+        <v>222</v>
       </c>
       <c r="B100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" t="s">
         <v>195</v>
-      </c>
-      <c r="C100" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>180</v>
+        <v>551</v>
       </c>
       <c r="B101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" t="s">
         <v>197</v>
-      </c>
-      <c r="C101" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>217</v>
+        <v>471</v>
       </c>
       <c r="B102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" t="s">
         <v>199</v>
-      </c>
-      <c r="C102" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>871</v>
+        <v>555</v>
       </c>
       <c r="B103" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" t="s">
         <v>201</v>
-      </c>
-      <c r="C103" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>435</v>
+        <v>217</v>
       </c>
       <c r="B104" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" t="s">
         <v>203</v>
-      </c>
-      <c r="C104" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>251</v>
+        <v>871</v>
       </c>
       <c r="B105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" t="s">
         <v>205</v>
-      </c>
-      <c r="C105" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>355</v>
+        <v>435</v>
       </c>
       <c r="B106" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" t="s">
         <v>207</v>
-      </c>
-      <c r="C106" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" t="s">
         <v>209</v>
-      </c>
-      <c r="C107" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>257</v>
+        <v>355</v>
       </c>
       <c r="B108" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" t="s">
         <v>211</v>
-      </c>
-      <c r="C108" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" t="s">
         <v>213</v>
-      </c>
-      <c r="C109" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>352</v>
+        <v>257</v>
       </c>
       <c r="B110" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" t="s">
         <v>215</v>
-      </c>
-      <c r="C110" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>487</v>
+        <v>220</v>
       </c>
       <c r="B111" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" t="s">
         <v>217</v>
-      </c>
-      <c r="C111" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="B112" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" t="s">
         <v>219</v>
-      </c>
-      <c r="C112" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>489</v>
+        <v>4078</v>
       </c>
       <c r="B113" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" t="s">
         <v>221</v>
-      </c>
-      <c r="C113" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>3370</v>
+        <v>209</v>
       </c>
       <c r="B114" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" t="s">
         <v>223</v>
-      </c>
-      <c r="C114" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B115" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" t="s">
         <v>225</v>
-      </c>
-      <c r="C115" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="n">
-        <v>492</v>
+        <v>3370</v>
       </c>
       <c r="B116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116" t="s">
         <v>227</v>
-      </c>
-      <c r="C116" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="n">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" t="s">
         <v>229</v>
-      </c>
-      <c r="C117" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="n">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="B118" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" t="s">
         <v>231</v>
-      </c>
-      <c r="C118" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="n">
-        <v>245</v>
+        <v>493</v>
       </c>
       <c r="B119" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" t="s">
         <v>233</v>
-      </c>
-      <c r="C119" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="n">
-        <v>494</v>
+        <v>387</v>
       </c>
       <c r="B120" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" t="s">
         <v>235</v>
-      </c>
-      <c r="C120" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="n">
-        <v>373</v>
+        <v>245</v>
       </c>
       <c r="B121" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" t="s">
         <v>237</v>
-      </c>
-      <c r="C121" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B122" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" t="s">
         <v>239</v>
-      </c>
-      <c r="C122" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="n">
-        <v>223</v>
+        <v>373</v>
       </c>
       <c r="B123" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" t="s">
         <v>241</v>
-      </c>
-      <c r="C123" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="n">
-        <v>219</v>
+        <v>496</v>
       </c>
       <c r="B124" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" t="s">
         <v>243</v>
-      </c>
-      <c r="C124" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="n">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="B125" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" t="s">
         <v>245</v>
-      </c>
-      <c r="C125" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="n">
-        <v>554</v>
+        <v>219</v>
       </c>
       <c r="B126" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" t="s">
         <v>247</v>
-      </c>
-      <c r="C126" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="n">
-        <v>3150</v>
+        <v>292</v>
       </c>
       <c r="B127" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" t="s">
         <v>249</v>
-      </c>
-      <c r="C127" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="n">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="B128" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" t="s">
         <v>251</v>
-      </c>
-      <c r="C128" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="n">
-        <v>384</v>
+        <v>3150</v>
       </c>
       <c r="B129" t="s">
+        <v>252</v>
+      </c>
+      <c r="C129" t="s">
         <v>253</v>
-      </c>
-      <c r="C129" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="n">
-        <v>3118</v>
+        <v>485</v>
       </c>
       <c r="B130" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" t="s">
         <v>255</v>
-      </c>
-      <c r="C130" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="n">
-        <v>145</v>
+        <v>384</v>
       </c>
       <c r="B131" t="s">
+        <v>256</v>
+      </c>
+      <c r="C131" t="s">
         <v>257</v>
-      </c>
-      <c r="C131" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="n">
-        <v>250</v>
+        <v>3118</v>
       </c>
       <c r="B132" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" t="s">
         <v>259</v>
-      </c>
-      <c r="C132" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="n">
-        <v>501</v>
+        <v>145</v>
       </c>
       <c r="B133" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" t="s">
         <v>261</v>
-      </c>
-      <c r="C133" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="B134" t="s">
+        <v>262</v>
+      </c>
+      <c r="C134" t="s">
         <v>263</v>
-      </c>
-      <c r="C134" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="n">
-        <v>318</v>
+        <v>501</v>
       </c>
       <c r="B135" t="s">
+        <v>264</v>
+      </c>
+      <c r="C135" t="s">
         <v>265</v>
-      </c>
-      <c r="C135" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="n">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="B136" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" t="s">
         <v>267</v>
-      </c>
-      <c r="C136" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="n">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="B137" t="s">
+        <v>268</v>
+      </c>
+      <c r="C137" t="s">
         <v>269</v>
-      </c>
-      <c r="C137" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="n">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="B138" t="s">
+        <v>270</v>
+      </c>
+      <c r="C138" t="s">
         <v>271</v>
-      </c>
-      <c r="C138" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="n">
-        <v>607</v>
+        <v>191</v>
       </c>
       <c r="B139" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" t="s">
         <v>273</v>
-      </c>
-      <c r="C139" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="n">
-        <v>2037</v>
+        <v>388</v>
       </c>
       <c r="B140" t="s">
+        <v>274</v>
+      </c>
+      <c r="C140" t="s">
         <v>275</v>
-      </c>
-      <c r="C140" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="n">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B141" t="s">
+        <v>276</v>
+      </c>
+      <c r="C141" t="s">
         <v>277</v>
-      </c>
-      <c r="C141" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="n">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="B142" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" t="s">
         <v>279</v>
-      </c>
-      <c r="C142" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="n">
-        <v>309</v>
+        <v>2037</v>
       </c>
       <c r="B143" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" t="s">
         <v>281</v>
-      </c>
-      <c r="C143" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="n">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="B144" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" t="s">
         <v>283</v>
-      </c>
-      <c r="C144" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="n">
-        <v>265</v>
+        <v>547</v>
       </c>
       <c r="B145" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" t="s">
         <v>285</v>
-      </c>
-      <c r="C145" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="n">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="B146" t="s">
+        <v>286</v>
+      </c>
+      <c r="C146" t="s">
         <v>287</v>
-      </c>
-      <c r="C146" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="n">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="B147" t="s">
+        <v>288</v>
+      </c>
+      <c r="C147" t="s">
         <v>289</v>
-      </c>
-      <c r="C147" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="n">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="B148" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" t="s">
         <v>291</v>
-      </c>
-      <c r="C148" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="n">
-        <v>256</v>
+        <v>346</v>
       </c>
       <c r="B149" t="s">
+        <v>292</v>
+      </c>
+      <c r="C149" t="s">
         <v>293</v>
-      </c>
-      <c r="C149" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="n">
-        <v>2530</v>
+        <v>431</v>
       </c>
       <c r="B150" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150" t="s">
         <v>295</v>
-      </c>
-      <c r="C150" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="n">
-        <v>538</v>
+        <v>256</v>
       </c>
       <c r="B151" t="s">
+        <v>296</v>
+      </c>
+      <c r="C151" t="s">
         <v>297</v>
-      </c>
-      <c r="C151" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="n">
-        <v>278</v>
+        <v>2530</v>
       </c>
       <c r="B152" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" t="s">
         <v>299</v>
-      </c>
-      <c r="C152" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="n">
-        <v>3568</v>
+        <v>538</v>
       </c>
       <c r="B153" t="s">
+        <v>300</v>
+      </c>
+      <c r="C153" t="s">
         <v>301</v>
-      </c>
-      <c r="C153" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="n">
-        <v>3772</v>
+        <v>278</v>
       </c>
       <c r="B154" t="s">
+        <v>302</v>
+      </c>
+      <c r="C154" t="s">
         <v>303</v>
-      </c>
-      <c r="C154" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="n">
-        <v>541</v>
+        <v>3568</v>
       </c>
       <c r="B155" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155" t="s">
         <v>305</v>
-      </c>
-      <c r="C155" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="n">
-        <v>393</v>
+        <v>3772</v>
       </c>
       <c r="B156" t="s">
+        <v>306</v>
+      </c>
+      <c r="C156" t="s">
         <v>307</v>
-      </c>
-      <c r="C156" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="n">
-        <v>261</v>
+        <v>541</v>
       </c>
       <c r="B157" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" t="s">
         <v>309</v>
-      </c>
-      <c r="C157" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="n">
-        <v>544</v>
+        <v>393</v>
       </c>
       <c r="B158" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" t="s">
         <v>311</v>
-      </c>
-      <c r="C158" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="n">
-        <v>535</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" t="s">
         <v>313</v>
-      </c>
-      <c r="C159" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="n">
-        <v>221</v>
+        <v>544</v>
       </c>
       <c r="B160" t="s">
+        <v>314</v>
+      </c>
+      <c r="C160" t="s">
         <v>315</v>
-      </c>
-      <c r="C160" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="n">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B161" t="s">
+        <v>316</v>
+      </c>
+      <c r="C161" t="s">
         <v>317</v>
-      </c>
-      <c r="C161" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="n">
-        <v>417</v>
+        <v>221</v>
       </c>
       <c r="B162" t="s">
+        <v>318</v>
+      </c>
+      <c r="C162" t="s">
         <v>319</v>
-      </c>
-      <c r="C162" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="n">
-        <v>193</v>
+        <v>549</v>
       </c>
       <c r="B163" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" t="s">
         <v>321</v>
-      </c>
-      <c r="C163" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="n">
-        <v>3534</v>
+        <v>417</v>
       </c>
       <c r="B164" t="s">
+        <v>322</v>
+      </c>
+      <c r="C164" t="s">
         <v>323</v>
-      </c>
-      <c r="C164" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="n">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B165" t="s">
+        <v>324</v>
+      </c>
+      <c r="C165" t="s">
         <v>325</v>
-      </c>
-      <c r="C165" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="n">
-        <v>263</v>
+        <v>3534</v>
       </c>
       <c r="B166" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" t="s">
         <v>327</v>
-      </c>
-      <c r="C166" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="n">
-        <v>552</v>
+        <v>218</v>
       </c>
       <c r="B167" t="s">
+        <v>328</v>
+      </c>
+      <c r="C167" t="s">
         <v>329</v>
-      </c>
-      <c r="C167" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="n">
-        <v>3823</v>
+        <v>263</v>
       </c>
       <c r="B168" t="s">
+        <v>330</v>
+      </c>
+      <c r="C168" t="s">
         <v>331</v>
-      </c>
-      <c r="C168" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="n">
-        <v>418</v>
+        <v>552</v>
       </c>
       <c r="B169" t="s">
+        <v>332</v>
+      </c>
+      <c r="C169" t="s">
         <v>333</v>
-      </c>
-      <c r="C169" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="n">
-        <v>3888</v>
+        <v>3823</v>
       </c>
       <c r="B170" t="s">
+        <v>334</v>
+      </c>
+      <c r="C170" t="s">
         <v>335</v>
-      </c>
-      <c r="C170" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="n">
-        <v>140</v>
+        <v>418</v>
       </c>
       <c r="B171" t="s">
+        <v>336</v>
+      </c>
+      <c r="C171" t="s">
         <v>337</v>
-      </c>
-      <c r="C171" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="n">
-        <v>365</v>
+        <v>3888</v>
       </c>
       <c r="B172" t="s">
+        <v>338</v>
+      </c>
+      <c r="C172" t="s">
         <v>339</v>
-      </c>
-      <c r="C172" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="n">
-        <v>287</v>
+        <v>140</v>
       </c>
       <c r="B173" t="s">
+        <v>340</v>
+      </c>
+      <c r="C173" t="s">
         <v>341</v>
-      </c>
-      <c r="C173" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="n">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B174" t="s">
+        <v>342</v>
+      </c>
+      <c r="C174" t="s">
         <v>343</v>
-      </c>
-      <c r="C174" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="n">
-        <v>2207</v>
+        <v>287</v>
       </c>
       <c r="B175" t="s">
+        <v>344</v>
+      </c>
+      <c r="C175" t="s">
         <v>345</v>
-      </c>
-      <c r="C175" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="n">
-        <v>422</v>
+        <v>353</v>
       </c>
       <c r="B176" t="s">
+        <v>346</v>
+      </c>
+      <c r="C176" t="s">
         <v>347</v>
-      </c>
-      <c r="C176" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="n">
-        <v>2035</v>
+        <v>2207</v>
       </c>
       <c r="B177" t="s">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="C177" t="s">
         <v>349</v>
@@ -4501,7 +4453,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="n">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B178" t="s">
         <v>350</v>
@@ -4512,7 +4464,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="n">
-        <v>348</v>
+        <v>2035</v>
       </c>
       <c r="B179" t="s">
         <v>352</v>
@@ -4523,7 +4475,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="n">
-        <v>296</v>
+        <v>424</v>
       </c>
       <c r="B180" t="s">
         <v>354</v>
@@ -4534,7 +4486,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="n">
-        <v>1039</v>
+        <v>348</v>
       </c>
       <c r="B181" t="s">
         <v>356</v>
@@ -4545,7 +4497,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="n">
-        <v>428</v>
+        <v>296</v>
       </c>
       <c r="B182" t="s">
         <v>358</v>
@@ -4556,7 +4508,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="n">
-        <v>497</v>
+        <v>1039</v>
       </c>
       <c r="B183" t="s">
         <v>360</v>
@@ -4567,7 +4519,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="n">
-        <v>5136</v>
+        <v>428</v>
       </c>
       <c r="B184" t="s">
         <v>362</v>
@@ -4578,7 +4530,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="n">
-        <v>277</v>
+        <v>497</v>
       </c>
       <c r="B185" t="s">
         <v>364</v>
@@ -4589,7 +4541,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="n">
-        <v>307</v>
+        <v>5136</v>
       </c>
       <c r="B186" t="s">
         <v>366</v>
@@ -4600,7 +4552,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="n">
-        <v>392</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>368</v>
@@ -4611,7 +4563,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="n">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="B188" t="s">
         <v>370</v>
@@ -4622,7 +4574,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="n">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="B189" t="s">
         <v>372</v>
@@ -4633,7 +4585,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="n">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="B190" t="s">
         <v>374</v>
@@ -4644,7 +4596,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="n">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="B191" t="s">
         <v>376</v>
@@ -4655,7 +4607,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="n">
-        <v>284</v>
+        <v>398</v>
       </c>
       <c r="B192" t="s">
         <v>378</v>
@@ -4666,7 +4618,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="n">
-        <v>363</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>380</v>
@@ -4677,7 +4629,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="n">
-        <v>432</v>
+        <v>363</v>
       </c>
       <c r="B194" t="s">
         <v>382</v>
@@ -4688,7 +4640,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="n">
-        <v>271</v>
+        <v>432</v>
       </c>
       <c r="B195" t="s">
         <v>384</v>
@@ -4699,7 +4651,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="n">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="B196" t="s">
         <v>386</v>
@@ -4710,7 +4662,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B197" t="s">
         <v>388</v>
@@ -4721,7 +4673,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="n">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="B198" t="s">
         <v>390</v>
@@ -4732,7 +4684,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="n">
-        <v>268</v>
+        <v>407</v>
       </c>
       <c r="B199" t="s">
         <v>392</v>
@@ -4743,7 +4695,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="n">
-        <v>4528</v>
+        <v>268</v>
       </c>
       <c r="B200" t="s">
         <v>394</v>
@@ -4754,7 +4706,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="n">
-        <v>3369</v>
+        <v>4528</v>
       </c>
       <c r="B201" t="s">
         <v>396</v>
@@ -4765,7 +4717,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="n">
-        <v>314</v>
+        <v>3369</v>
       </c>
       <c r="B202" t="s">
         <v>398</v>
@@ -4776,7 +4728,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="n">
-        <v>500</v>
+        <v>314</v>
       </c>
       <c r="B203" t="s">
         <v>400</v>
@@ -4787,7 +4739,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="n">
-        <v>548</v>
+        <v>500</v>
       </c>
       <c r="B204" t="s">
         <v>402</v>
@@ -4798,7 +4750,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="n">
-        <v>269</v>
+        <v>548</v>
       </c>
       <c r="B205" t="s">
         <v>404</v>
@@ -4809,7 +4761,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="n">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="B206" t="s">
         <v>406</v>
@@ -4820,7 +4772,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="n">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="B207" t="s">
         <v>408</v>
@@ -4831,7 +4783,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B208" t="s">
         <v>410</v>
@@ -4842,7 +4794,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="n">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="B209" t="s">
         <v>412</v>
@@ -4853,7 +4805,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="n">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="B210" t="s">
         <v>414</v>
@@ -4864,7 +4816,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="n">
-        <v>394</v>
+        <v>293</v>
       </c>
       <c r="B211" t="s">
         <v>416</v>
@@ -4875,7 +4827,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="n">
-        <v>534</v>
+        <v>394</v>
       </c>
       <c r="B212" t="s">
         <v>418</v>
@@ -4886,7 +4838,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="n">
-        <v>397</v>
+        <v>534</v>
       </c>
       <c r="B213" t="s">
         <v>420</v>
@@ -5164,7 +5116,7 @@
         <v>270</v>
       </c>
       <c r="B238" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C238" t="s">
         <v>470</v>
@@ -5227,21 +5179,21 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="n">
-        <v>179</v>
+        <v>2206</v>
       </c>
       <c r="B244" t="s">
-        <v>267</v>
+        <v>481</v>
       </c>
       <c r="C244" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="n">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B245" t="s">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="C245" t="s">
         <v>483</v>
@@ -5249,7 +5201,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="n">
-        <v>437</v>
+        <v>146</v>
       </c>
       <c r="B246" t="s">
         <v>484</v>
@@ -5260,7 +5212,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="n">
-        <v>227</v>
+        <v>437</v>
       </c>
       <c r="B247" t="s">
         <v>486</v>
@@ -5271,7 +5223,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="n">
-        <v>558</v>
+        <v>227</v>
       </c>
       <c r="B248" t="s">
         <v>488</v>
@@ -5282,7 +5234,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="n">
-        <v>148</v>
+        <v>558</v>
       </c>
       <c r="B249" t="s">
         <v>490</v>
@@ -5293,7 +5245,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="n">
-        <v>507</v>
+        <v>148</v>
       </c>
       <c r="B250" t="s">
         <v>492</v>
@@ -5304,7 +5256,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="n">
-        <v>333</v>
+        <v>507</v>
       </c>
       <c r="B251" t="s">
         <v>494</v>
@@ -5315,7 +5267,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B252" t="s">
         <v>496</v>
@@ -5326,7 +5278,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="n">
-        <v>190</v>
+        <v>338</v>
       </c>
       <c r="B253" t="s">
         <v>498</v>
@@ -5337,7 +5289,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="n">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="B254" t="s">
         <v>500</v>
@@ -5406,7 +5358,7 @@
         <v>304</v>
       </c>
       <c r="B260" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C260" t="s">
         <v>512</v>
@@ -5436,7 +5388,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="n">
-        <v>224</v>
+        <v>379</v>
       </c>
       <c r="B263" t="s">
         <v>517</v>
@@ -5447,7 +5399,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="n">
-        <v>563</v>
+        <v>153</v>
       </c>
       <c r="B264" t="s">
         <v>519</v>
@@ -5458,21 +5410,21 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="n">
-        <v>153</v>
+        <v>559</v>
       </c>
       <c r="B265" t="s">
+        <v>404</v>
+      </c>
+      <c r="C265" t="s">
         <v>521</v>
-      </c>
-      <c r="C265" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="n">
-        <v>559</v>
+        <v>3341</v>
       </c>
       <c r="B266" t="s">
-        <v>402</v>
+        <v>522</v>
       </c>
       <c r="C266" t="s">
         <v>523</v>
@@ -5480,7 +5432,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="n">
-        <v>3341</v>
+        <v>301</v>
       </c>
       <c r="B267" t="s">
         <v>524</v>
@@ -5491,7 +5443,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="n">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="B268" t="s">
         <v>526</v>
@@ -5502,7 +5454,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="n">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="B269" t="s">
         <v>528</v>
@@ -5513,7 +5465,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="n">
-        <v>230</v>
+        <v>354</v>
       </c>
       <c r="B270" t="s">
         <v>530</v>
@@ -5524,7 +5476,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="n">
-        <v>234</v>
+        <v>560</v>
       </c>
       <c r="B271" t="s">
         <v>532</v>
@@ -5535,7 +5487,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B272" t="s">
         <v>534</v>
@@ -5546,7 +5498,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="n">
-        <v>560</v>
+        <v>364</v>
       </c>
       <c r="B273" t="s">
         <v>536</v>
@@ -5557,7 +5509,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="n">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B274" t="s">
         <v>538</v>
@@ -5568,7 +5520,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="B275" t="s">
         <v>540</v>
@@ -5579,7 +5531,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="n">
-        <v>364</v>
+        <v>194</v>
       </c>
       <c r="B276" t="s">
         <v>542</v>
@@ -5590,7 +5542,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="n">
-        <v>379</v>
+        <v>210</v>
       </c>
       <c r="B277" t="s">
         <v>544</v>
@@ -5601,7 +5553,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="n">
-        <v>369</v>
+        <v>202</v>
       </c>
       <c r="B278" t="s">
         <v>546</v>
@@ -5612,7 +5564,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="n">
-        <v>557</v>
+        <v>302</v>
       </c>
       <c r="B279" t="s">
         <v>548</v>
@@ -5623,7 +5575,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="n">
-        <v>194</v>
+        <v>565</v>
       </c>
       <c r="B280" t="s">
         <v>550</v>
@@ -5634,7 +5586,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="n">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="B281" t="s">
         <v>552</v>
@@ -5645,7 +5597,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="n">
-        <v>326</v>
+        <v>443</v>
       </c>
       <c r="B282" t="s">
         <v>554</v>
@@ -5656,7 +5608,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="n">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="B283" t="s">
         <v>556</v>
@@ -5667,7 +5619,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="n">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="B284" t="s">
         <v>558</v>
@@ -5678,7 +5630,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="n">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="B285" t="s">
         <v>560</v>
@@ -5689,7 +5641,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="n">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="B286" t="s">
         <v>562</v>
@@ -5700,7 +5652,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="n">
-        <v>374</v>
+        <v>3727</v>
       </c>
       <c r="B287" t="s">
         <v>564</v>
@@ -5711,7 +5663,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="n">
-        <v>440</v>
+        <v>1827</v>
       </c>
       <c r="B288" t="s">
         <v>566</v>
@@ -5722,7 +5674,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="n">
-        <v>443</v>
+        <v>575</v>
       </c>
       <c r="B289" t="s">
         <v>568</v>
@@ -5733,7 +5685,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="n">
-        <v>305</v>
+        <v>3883</v>
       </c>
       <c r="B290" t="s">
         <v>570</v>
@@ -5744,7 +5696,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="n">
-        <v>303</v>
+        <v>3873</v>
       </c>
       <c r="B291" t="s">
         <v>572</v>
@@ -5755,7 +5707,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="n">
-        <v>167</v>
+        <v>444</v>
       </c>
       <c r="B292" t="s">
         <v>574</v>
@@ -5766,7 +5718,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="n">
-        <v>381</v>
+        <v>530</v>
       </c>
       <c r="B293" t="s">
         <v>576</v>
@@ -5777,7 +5729,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="n">
-        <v>160</v>
+        <v>445</v>
       </c>
       <c r="B294" t="s">
         <v>578</v>
@@ -5788,7 +5740,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="n">
-        <v>3727</v>
+        <v>208</v>
       </c>
       <c r="B295" t="s">
         <v>580</v>
@@ -5799,7 +5751,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="n">
-        <v>1827</v>
+        <v>163</v>
       </c>
       <c r="B296" t="s">
         <v>582</v>
@@ -5810,7 +5762,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="n">
-        <v>575</v>
+        <v>200</v>
       </c>
       <c r="B297" t="s">
         <v>584</v>
@@ -5821,7 +5773,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="n">
-        <v>3883</v>
+        <v>3693</v>
       </c>
       <c r="B298" t="s">
         <v>586</v>
@@ -5832,7 +5784,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="n">
-        <v>237</v>
+        <v>503</v>
       </c>
       <c r="B299" t="s">
         <v>588</v>
@@ -5843,7 +5795,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="n">
-        <v>3873</v>
+        <v>182</v>
       </c>
       <c r="B300" t="s">
         <v>590</v>
@@ -5854,7 +5806,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B301" t="s">
         <v>592</v>
@@ -5865,7 +5817,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="n">
-        <v>530</v>
+        <v>3587</v>
       </c>
       <c r="B302" t="s">
         <v>594</v>
@@ -5876,7 +5828,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="n">
-        <v>4078</v>
+        <v>564</v>
       </c>
       <c r="B303" t="s">
         <v>596</v>
@@ -5887,7 +5839,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="n">
-        <v>445</v>
+        <v>4095</v>
       </c>
       <c r="B304" t="s">
         <v>598</v>
@@ -5898,7 +5850,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B305" t="s">
         <v>600</v>
@@ -5909,7 +5861,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="n">
-        <v>163</v>
+        <v>2209</v>
       </c>
       <c r="B306" t="s">
         <v>602</v>
@@ -5920,7 +5872,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="B307" t="s">
         <v>604</v>
@@ -5931,7 +5883,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="n">
-        <v>3693</v>
+        <v>448</v>
       </c>
       <c r="B308" t="s">
         <v>606</v>
@@ -5942,7 +5894,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="n">
-        <v>182</v>
+        <v>567</v>
       </c>
       <c r="B309" t="s">
         <v>608</v>
@@ -5953,7 +5905,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="n">
-        <v>447</v>
+        <v>568</v>
       </c>
       <c r="B310" t="s">
         <v>610</v>
@@ -5964,7 +5916,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="n">
-        <v>3587</v>
+        <v>235</v>
       </c>
       <c r="B311" t="s">
         <v>612</v>
@@ -5975,7 +5927,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="n">
-        <v>564</v>
+        <v>510</v>
       </c>
       <c r="B312" t="s">
         <v>614</v>
@@ -5986,7 +5938,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="n">
-        <v>4095</v>
+        <v>276</v>
       </c>
       <c r="B313" t="s">
         <v>616</v>
@@ -5997,7 +5949,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="n">
-        <v>2209</v>
+        <v>3368</v>
       </c>
       <c r="B314" t="s">
         <v>618</v>
@@ -6008,7 +5960,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="n">
-        <v>448</v>
+        <v>3326</v>
       </c>
       <c r="B315" t="s">
         <v>620</v>
@@ -6019,7 +5971,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="n">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="B316" t="s">
         <v>622</v>
@@ -6030,7 +5982,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="n">
-        <v>555</v>
+        <v>381</v>
       </c>
       <c r="B317" t="s">
         <v>624</v>
@@ -6041,7 +5993,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="n">
-        <v>568</v>
+        <v>192</v>
       </c>
       <c r="B318" t="s">
         <v>626</v>
@@ -6052,7 +6004,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="n">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="B319" t="s">
         <v>628</v>
@@ -6063,7 +6015,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="n">
-        <v>510</v>
+        <v>197</v>
       </c>
       <c r="B320" t="s">
         <v>630</v>
@@ -6074,7 +6026,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="n">
-        <v>276</v>
+        <v>441</v>
       </c>
       <c r="B321" t="s">
         <v>632</v>
@@ -6085,7 +6037,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="n">
-        <v>3368</v>
+        <v>513</v>
       </c>
       <c r="B322" t="s">
         <v>634</v>
@@ -6096,7 +6048,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="n">
-        <v>3326</v>
+        <v>4457</v>
       </c>
       <c r="B323" t="s">
         <v>636</v>
@@ -6107,7 +6059,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="n">
-        <v>511</v>
+        <v>4137</v>
       </c>
       <c r="B324" t="s">
         <v>638</v>
@@ -6118,7 +6070,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B325" t="s">
         <v>640</v>
@@ -6129,7 +6081,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="n">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B326" t="s">
         <v>642</v>
@@ -6140,7 +6092,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="n">
-        <v>171</v>
+        <v>514</v>
       </c>
       <c r="B327" t="s">
         <v>644</v>
@@ -6151,7 +6103,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="n">
-        <v>197</v>
+        <v>569</v>
       </c>
       <c r="B328" t="s">
         <v>646</v>
@@ -6162,7 +6114,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="n">
-        <v>441</v>
+        <v>300</v>
       </c>
       <c r="B329" t="s">
         <v>648</v>
@@ -6173,109 +6125,109 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="n">
-        <v>513</v>
+        <v>162</v>
       </c>
       <c r="B330" t="s">
+        <v>626</v>
+      </c>
+      <c r="C330" t="s">
         <v>650</v>
-      </c>
-      <c r="C330" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="n">
-        <v>4457</v>
+        <v>378</v>
       </c>
       <c r="B331" t="s">
+        <v>651</v>
+      </c>
+      <c r="C331" t="s">
         <v>652</v>
-      </c>
-      <c r="C331" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="n">
-        <v>4137</v>
+        <v>2208</v>
       </c>
       <c r="B332" t="s">
+        <v>653</v>
+      </c>
+      <c r="C332" t="s">
         <v>654</v>
-      </c>
-      <c r="C332" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="n">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="B333" t="s">
+        <v>655</v>
+      </c>
+      <c r="C333" t="s">
         <v>656</v>
-      </c>
-      <c r="C333" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="n">
-        <v>569</v>
+        <v>186</v>
       </c>
       <c r="B334" t="s">
+        <v>657</v>
+      </c>
+      <c r="C334" t="s">
         <v>658</v>
-      </c>
-      <c r="C334" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="n">
-        <v>175</v>
+        <v>570</v>
       </c>
       <c r="B335" t="s">
+        <v>659</v>
+      </c>
+      <c r="C335" t="s">
         <v>660</v>
-      </c>
-      <c r="C335" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="n">
-        <v>514</v>
+        <v>204</v>
       </c>
       <c r="B336" t="s">
+        <v>661</v>
+      </c>
+      <c r="C336" t="s">
         <v>662</v>
-      </c>
-      <c r="C336" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="n">
-        <v>4067</v>
+        <v>138</v>
       </c>
       <c r="B337" t="s">
+        <v>663</v>
+      </c>
+      <c r="C337" t="s">
         <v>664</v>
-      </c>
-      <c r="C337" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="n">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="B338" t="s">
+        <v>665</v>
+      </c>
+      <c r="C338" t="s">
         <v>666</v>
-      </c>
-      <c r="C338" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="n">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="B339" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C339" t="s">
         <v>668</v>
@@ -6283,7 +6235,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="n">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="B340" t="s">
         <v>669</v>
@@ -6294,7 +6246,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="n">
-        <v>2208</v>
+        <v>375</v>
       </c>
       <c r="B341" t="s">
         <v>671</v>
@@ -6305,7 +6257,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="n">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="B342" t="s">
         <v>673</v>
@@ -6316,7 +6268,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="n">
-        <v>570</v>
+        <v>246</v>
       </c>
       <c r="B343" t="s">
         <v>675</v>
@@ -6327,7 +6279,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="n">
-        <v>204</v>
+        <v>4420</v>
       </c>
       <c r="B344" t="s">
         <v>677</v>
@@ -6338,7 +6290,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="n">
-        <v>138</v>
+        <v>438</v>
       </c>
       <c r="B345" t="s">
         <v>679</v>
@@ -6349,7 +6301,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="n">
-        <v>266</v>
+        <v>453</v>
       </c>
       <c r="B346" t="s">
         <v>681</v>
@@ -6360,7 +6312,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="n">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="B347" t="s">
         <v>683</v>
@@ -6371,7 +6323,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="n">
-        <v>375</v>
+        <v>229</v>
       </c>
       <c r="B348" t="s">
         <v>685</v>
@@ -6382,7 +6334,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="n">
-        <v>416</v>
+        <v>258</v>
       </c>
       <c r="B349" t="s">
         <v>687</v>
@@ -6393,7 +6345,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="n">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="B350" t="s">
         <v>689</v>
@@ -6404,7 +6356,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="n">
-        <v>4420</v>
+        <v>572</v>
       </c>
       <c r="B351" t="s">
         <v>691</v>
@@ -6415,7 +6367,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="n">
-        <v>453</v>
+        <v>316</v>
       </c>
       <c r="B352" t="s">
         <v>693</v>
@@ -6426,7 +6378,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="n">
-        <v>2028</v>
+        <v>574</v>
       </c>
       <c r="B353" t="s">
         <v>695</v>
@@ -6437,7 +6389,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="n">
-        <v>229</v>
+        <v>442</v>
       </c>
       <c r="B354" t="s">
         <v>697</v>
@@ -6448,76 +6400,76 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="n">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="B355" t="s">
+        <v>66</v>
+      </c>
+      <c r="C355" t="s">
         <v>699</v>
-      </c>
-      <c r="C355" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="n">
-        <v>572</v>
+        <v>247</v>
       </c>
       <c r="B356" t="s">
+        <v>700</v>
+      </c>
+      <c r="C356" t="s">
         <v>701</v>
-      </c>
-      <c r="C356" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="n">
-        <v>316</v>
+        <v>476</v>
       </c>
       <c r="B357" t="s">
+        <v>702</v>
+      </c>
+      <c r="C357" t="s">
         <v>703</v>
-      </c>
-      <c r="C357" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="n">
-        <v>454</v>
+        <v>233</v>
       </c>
       <c r="B358" t="s">
+        <v>704</v>
+      </c>
+      <c r="C358" t="s">
         <v>705</v>
-      </c>
-      <c r="C358" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="n">
-        <v>2206</v>
+        <v>573</v>
       </c>
       <c r="B359" t="s">
+        <v>706</v>
+      </c>
+      <c r="C359" t="s">
         <v>707</v>
-      </c>
-      <c r="C359" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="n">
-        <v>442</v>
+        <v>383</v>
       </c>
       <c r="B360" t="s">
+        <v>708</v>
+      </c>
+      <c r="C360" t="s">
         <v>709</v>
-      </c>
-      <c r="C360" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B361" t="s">
-        <v>69</v>
+        <v>710</v>
       </c>
       <c r="C361" t="s">
         <v>711</v>
@@ -6525,7 +6477,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="n">
-        <v>574</v>
+        <v>6091</v>
       </c>
       <c r="B362" t="s">
         <v>712</v>
@@ -6536,101 +6488,13 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="n">
-        <v>247</v>
+        <v>5512</v>
       </c>
       <c r="B363" t="s">
+        <v>316</v>
+      </c>
+      <c r="C363" t="s">
         <v>714</v>
-      </c>
-      <c r="C363" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" t="n">
-        <v>503</v>
-      </c>
-      <c r="B364" t="s">
-        <v>716</v>
-      </c>
-      <c r="C364" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="A365" t="n">
-        <v>476</v>
-      </c>
-      <c r="B365" t="s">
-        <v>718</v>
-      </c>
-      <c r="C365" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" t="n">
-        <v>233</v>
-      </c>
-      <c r="B366" t="s">
-        <v>720</v>
-      </c>
-      <c r="C366" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="A367" t="n">
-        <v>573</v>
-      </c>
-      <c r="B367" t="s">
-        <v>722</v>
-      </c>
-      <c r="C367" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="A368" t="n">
-        <v>383</v>
-      </c>
-      <c r="B368" t="s">
-        <v>724</v>
-      </c>
-      <c r="C368" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
-      <c r="A369" t="n">
-        <v>206</v>
-      </c>
-      <c r="B369" t="s">
-        <v>726</v>
-      </c>
-      <c r="C369" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
-      <c r="A370" t="n">
-        <v>6091</v>
-      </c>
-      <c r="B370" t="s">
-        <v>728</v>
-      </c>
-      <c r="C370" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="A371" t="n">
-        <v>5512</v>
-      </c>
-      <c r="B371" t="s">
-        <v>313</v>
-      </c>
-      <c r="C371" t="s">
-        <v>730</v>
       </c>
     </row>
   </sheetData>
